--- a/uebung2_ringpolygon.xlsx
+++ b/uebung2_ringpolygon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgit\geo_inf\GeodäsieGrundlagen1\uebung2\GG1_Uebung2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CD9425-CC0B-4E2E-92C9-6C0B1564E2F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249E747F-A0FB-4343-9AFA-7CE75DFC6368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="160">
   <si>
     <t>Standpunkt 3021A</t>
   </si>
@@ -467,6 +467,54 @@
   </si>
   <si>
     <t>Ostwert</t>
+  </si>
+  <si>
+    <t>P3012A - P1</t>
+  </si>
+  <si>
+    <t>P1 -P2</t>
+  </si>
+  <si>
+    <t>P2- P3</t>
+  </si>
+  <si>
+    <t>P3 - P321A</t>
+  </si>
+  <si>
+    <t>Strecken</t>
+  </si>
+  <si>
+    <t>KONTROLLBERECHNUNG</t>
+  </si>
+  <si>
+    <t>Ringpolygonzug</t>
+  </si>
+  <si>
+    <t>Freie Stationierungs Punkte</t>
+  </si>
+  <si>
+    <t>Punkt1</t>
+  </si>
+  <si>
+    <t>Winkel im Dreieck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y </t>
+  </si>
+  <si>
+    <t>Differenz</t>
+  </si>
+  <si>
+    <t>Punkt2</t>
+  </si>
+  <si>
+    <t>beta(P1)</t>
+  </si>
+  <si>
+    <t>Strecke 1-2</t>
+  </si>
+  <si>
+    <t>Strecke 2-3</t>
   </si>
 </sst>
 </file>
@@ -507,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +580,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -545,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -558,6 +618,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -681,7 +743,7 @@
                   <c:v>60.155254699332744</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
-                  <c:v>72.403770184881495</c:v>
+                  <c:v>71.619520444809254</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.000">
                   <c:v>24.790949495208316</c:v>
@@ -690,10 +752,10 @@
                   <c:v>21.203136861863506</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53.293182495879037</c:v>
+                  <c:v>54.140629954721888</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55.718379671478417</c:v>
+                  <c:v>55.400814029086966</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.000">
                   <c:v>9.0231831486844971</c:v>
@@ -705,10 +767,10 @@
                   <c:v>60.524104664456075</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.000">
-                  <c:v>65.424748475756118</c:v>
+                  <c:v>66.275725480341052</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.000">
-                  <c:v>69.664341282312535</c:v>
+                  <c:v>69.016271700649014</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.000">
                   <c:v>-199.80074199664847</c:v>
@@ -753,7 +815,7 @@
                   <c:v>170.87693289077549</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
-                  <c:v>20.830648678737667</c:v>
+                  <c:v>21.135920841877205</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.000">
                   <c:v>34.442148108617786</c:v>
@@ -762,10 +824,10 @@
                   <c:v>155.11539191247425</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>156.20909535947544</c:v>
+                  <c:v>156.52553279290464</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.601940661954153</c:v>
+                  <c:v>35.900579811893778</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.000">
                   <c:v>154.79155018371983</c:v>
@@ -777,10 +839,10 @@
                   <c:v>156.41769206716418</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.000">
-                  <c:v>156.63311308670148</c:v>
+                  <c:v>156.83235642499471</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.000">
-                  <c:v>34.916742150235358</c:v>
+                  <c:v>35.24781639052793</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.000">
                   <c:v>-8.925441030487848</c:v>
@@ -1003,14 +1065,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.6467407407407404E-2"/>
-          <c:y val="1.9836848714287578E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1073,10 +1127,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>GK!$S$3:$S$32</c:f>
+              <c:f>GK!$S$3:$S$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>32691104.289999999</c:v>
                 </c:pt>
@@ -1112,16 +1166,46 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>32691082.16418593</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32691109.71453901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32691172.497133248</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32691195.681035489</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32691076.347295664</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32691201.615573071</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32691199.745968465</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32691080.478631593</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32691083.592237521</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32691193.904290069</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32691218.532759439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>GK!$T$3:$T$32</c:f>
+              <c:f>GK!$T$3:$T$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>5334182.2300000004</c:v>
                 </c:pt>
@@ -1157,6 +1241,36 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5335992.765753055</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5335911.6767340647</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5335998.3444818128</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5335935.4588757679</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5335954.0316064823</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5335974.4198647374</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5335962.3451219816</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5335980.7254091483</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5335981.3215810927</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5335922.1096398355</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5335961.3021047637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,364 +1278,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7687-4825-BCC9-1655483DAA32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GK!$S$17:$S$32</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>349,147</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32691208,13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>73,370</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32691060,15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>J</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>91,148</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32691074,39</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>168,314</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32691067,87</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>L</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>143,821</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32691082,16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GK!$S$17:$S$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="1">
-                  <c:v>32691208.125894014</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32691060.149341226</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32691074.393949252</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32691067.874070495</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32691082.16418593</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GK!$T$17:$T$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="1">
-                  <c:v>5335921.2104839645</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5335944.0925546549</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5335941.8217898998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5335995.0350177083</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5335992.765753055</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7687-4825-BCC9-1655483DAA32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GK!$R$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSP1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GK!$S$35:$S$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="2">
-                  <c:v>32691109.71453901</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32691172.497133248</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GK!$T$35:$T$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="2">
-                  <c:v>5335911.6767340647</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5335998.3444818128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7687-4825-BCC9-1655483DAA32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>FSP_Punkte</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GK!$S$45:$S$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="2">
-                  <c:v>32691195.681035489</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32691076.347295664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32691201.615573071</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32691199.745968465</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32691080.478631593</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32691083.592237521</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GK!$T$45:$T$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="2">
-                  <c:v>5335935.4588757679</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5335954.0316064823</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5335974.4198647374</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5335962.3451219816</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5335980.7254091483</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5335981.3215810927</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7687-4825-BCC9-1655483DAA32}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>KP</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>GK!$S$71:$S$93</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="2">
-                  <c:v>32691193.904290069</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32691218.532759439</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>GK!$T$71:$T$93</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="2">
-                  <c:v>5335922.1096398355</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5335961.3021047637</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7687-4825-BCC9-1655483DAA32}"/>
+              <c16:uniqueId val="{00000000-A767-47F7-8188-808A320DD192}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1533,11 +1290,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409041192"/>
-        <c:axId val="412998184"/>
+        <c:axId val="317741856"/>
+        <c:axId val="317739232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409041192"/>
+        <c:axId val="317741856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1315,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1594,12 +1351,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412998184"/>
+        <c:crossAx val="317739232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412998184"/>
+        <c:axId val="317739232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,7 +1377,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1656,8 +1413,8 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409041192"/>
-        <c:crossesAt val="4468000"/>
+        <c:crossAx val="317741856"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1804,31 +1561,31 @@
                   <c:v>4468179.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4468054.9543096377</c:v>
+                  <c:v>4468000.2438050555</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4468109.0944624497</c:v>
+                  <c:v>4468012.6451004166</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4468235.1726084556</c:v>
+                  <c:v>4468186.3382023834</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4468179.0458679004</c:v>
+                  <c:v>4468179.0451233694</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4468175.229549001</c:v>
+                  <c:v>4468162.1499800812</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4468069.9052453917</c:v>
+                  <c:v>4468014.2382893637</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4468080.0035543777</c:v>
+                  <c:v>4468028.4767091163</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4468106.3904536339</c:v>
+                  <c:v>4468021.9595375583</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4468116.526418779</c:v>
+                  <c:v>4468036.2435321324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,31 +1606,31 @@
                   <c:v>5334489.3499999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5334622.2571533676</c:v>
+                  <c:v>5334522.4345107619</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5334674.6090366123</c:v>
+                  <c:v>5334596.7183158556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5334552.9751638584</c:v>
+                  <c:v>5334573.8884181203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5334489.3460221244</c:v>
+                  <c:v>5334489.3562367829</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5334512.5998251764</c:v>
+                  <c:v>5334505.7835853081</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5334618.93791526</c:v>
+                  <c:v>5334528.6556224376</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5334608.6467000917</c:v>
+                  <c:v>5334526.3857420525</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5334655.2876631785</c:v>
+                  <c:v>5334579.5757257426</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5334644.9707190217</c:v>
+                  <c:v>5334577.3075491264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1894,46 +1651,46 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>389,685</c:v>
+                  <c:v>349,147</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4468175,23</c:v>
+                  <c:v>4468162,15</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>B</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113,908</c:v>
+                  <c:v>73,370</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4468069,905</c:v>
+                  <c:v>4468014,238</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>J</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131,686</c:v>
+                  <c:v>91,148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4468080,004</c:v>
+                  <c:v>4468028,477</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>C</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>208,852</c:v>
+                  <c:v>168,314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4468106,39</c:v>
+                  <c:v>4468021,96</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>L</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>184,359</c:v>
+                  <c:v>143,821</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4468116,526</c:v>
+                  <c:v>4468036,244</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1967,19 +1724,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>4468175.229549001</c:v>
+                  <c:v>4468162.1499800812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4468069.9052453917</c:v>
+                  <c:v>4468014.2382893637</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4468080.0035543777</c:v>
+                  <c:v>4468028.4767091163</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4468106.3904536339</c:v>
+                  <c:v>4468021.9595375583</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4468116.526418779</c:v>
+                  <c:v>4468036.2435321324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,19 +1748,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>5334512.5998251764</c:v>
+                  <c:v>5334505.7835853081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5334618.93791526</c:v>
+                  <c:v>5334528.6556224376</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5334608.6467000917</c:v>
+                  <c:v>5334526.3857420525</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5334655.2876631785</c:v>
+                  <c:v>5334579.5757257426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5334644.9707190217</c:v>
+                  <c:v>5334577.3075491264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,10 +1815,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="2">
-                  <c:v>4468090.472752885</c:v>
+                  <c:v>4468063.7814736459</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4468192.4401309593</c:v>
+                  <c:v>4468126.537130734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,10 +1830,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="2">
-                  <c:v>5334563.4276468353</c:v>
+                  <c:v>5334496.2536910716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5334595.7656415766</c:v>
+                  <c:v>5334582.8840529481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,22 +1880,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="2">
-                  <c:v>4468173.6965218969</c:v>
+                  <c:v>4468149.7108137105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4468088.8297495879</c:v>
+                  <c:v>4468030.4285313534</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4468201.6224343311</c:v>
+                  <c:v>4468155.6431680107</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4468192.9432726614</c:v>
+                  <c:v>4468153.7743125279</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4468108.0155444238</c:v>
+                  <c:v>4468034.5584104406</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4468110.8721848391</c:v>
+                  <c:v>4468037.6706570089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2150,22 +1907,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="2">
-                  <c:v>5334531.44704061</c:v>
+                  <c:v>5334520.0255950578</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5334617.2989174873</c:v>
+                  <c:v>5334538.5903714076</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5334559.2314600637</c:v>
+                  <c:v>5334558.9696282614</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5334550.6385281719</c:v>
+                  <c:v>5334546.9000920253</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5334636.2963421168</c:v>
+                  <c:v>5334565.2725932952</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5334634.9249212788</c:v>
+                  <c:v>5334565.8685050961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2212,10 +1969,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="2">
-                  <c:v>4468164.3297255365</c:v>
+                  <c:v>4468147.9283761382</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4468207.4280609814</c:v>
+                  <c:v>4468172.5611035461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2227,10 +1984,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="2">
-                  <c:v>5334521.7789508672</c:v>
+                  <c:v>5334506.6827411791</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5334538.6292689387</c:v>
+                  <c:v>5334545.8570756055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4135,23 +3892,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>1100348</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>67779</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>377698</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>170862</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Diagramm 7">
+        <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3E0733-55FA-4698-B4F5-848EFC0DC11E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4B7668-7D81-44FA-8C4A-D05D6731B91F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4514,13 +4271,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3EB9C-B317-464D-B407-444709E96AF5}">
   <dimension ref="A1:AB78"/>
   <sheetViews>
-    <sheetView topLeftCell="I32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView topLeftCell="R46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6328125" customWidth="1"/>
     <col min="16" max="16" width="22.54296875" customWidth="1"/>
     <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
@@ -4962,11 +4721,11 @@
       </c>
       <c r="W14" s="2">
         <f>Q77</f>
-        <v>72.403770184881495</v>
+        <v>71.619520444809254</v>
       </c>
       <c r="X14" s="2">
         <f>Q78</f>
-        <v>20.830648678737667</v>
+        <v>21.135920841877205</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
@@ -5095,11 +4854,11 @@
       </c>
       <c r="W17">
         <f>W28+Z17*SIN((Y17-(200-Q57))*(PI()/200))</f>
-        <v>53.293182495879037</v>
+        <v>54.140629954721888</v>
       </c>
       <c r="X17">
         <f>X28+Z17*COS((Y17-(200-Q57))*(PI()/200))</f>
-        <v>156.20909535947544</v>
+        <v>156.52553279290464</v>
       </c>
       <c r="Y17">
         <f>C50</f>
@@ -5155,11 +4914,11 @@
       </c>
       <c r="W18">
         <f>W28+Z18*SIN((Y18-(200-Q57))*(PI()/200))</f>
-        <v>55.718379671478417</v>
+        <v>55.400814029086966</v>
       </c>
       <c r="X18">
         <f>X28+Z18*COS((Y18-(200-Q57))*(PI()/200))</f>
-        <v>35.601940661954153</v>
+        <v>35.900579811893778</v>
       </c>
       <c r="Y18">
         <f>C49</f>
@@ -5351,11 +5110,11 @@
       </c>
       <c r="W23" s="2">
         <f>W28+Z23*SIN((Y23-(200-Q57))*(PI()/200))</f>
-        <v>65.424748475756118</v>
+        <v>66.275725480341052</v>
       </c>
       <c r="X23" s="2">
         <f>X28+Z23*COS((Y23-(200-Q57))*(PI()/200))</f>
-        <v>156.63311308670148</v>
+        <v>156.83235642499471</v>
       </c>
       <c r="Y23">
         <f>C51</f>
@@ -5381,15 +5140,15 @@
       </c>
       <c r="W24" s="2">
         <f>W28+Z24*SIN((Y24-(200-Q57))*(PI()/200))</f>
-        <v>69.664341282312535</v>
+        <v>69.016271700649014</v>
       </c>
       <c r="X24" s="2">
         <f>X28+Z24*COS((Y24-(200-Q57))*(PI()/200))</f>
-        <v>34.916742150235358</v>
+        <v>35.24781639052793</v>
       </c>
       <c r="Y24" s="2">
         <f>C48-(200-Q57)</f>
-        <v>232.77181292197565</v>
+        <v>233.38671001543935</v>
       </c>
       <c r="Z24">
         <f>K48</f>
@@ -5910,7 +5669,7 @@
       <c r="P54" t="s">
         <v>31</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54" s="11">
         <f>W7+K47*SIN(((200-Q37)-R53)*(PI()/200))</f>
         <v>86.47828415900706</v>
       </c>
@@ -5920,16 +5679,23 @@
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C55" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="5"/>
       <c r="P55" t="s">
         <v>32</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="Q55" s="11">
         <f>X7+K47*COS(((200-Q37)-R53)*(PI()/200))</f>
         <v>68.629443820959608</v>
       </c>
       <c r="R55" s="2"/>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C56" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="P56" t="s">
         <v>66</v>
       </c>
@@ -5938,8 +5704,8 @@
         <v>9.8127644897336424E-3</v>
       </c>
       <c r="R56" s="2">
-        <f>ASIN(Q56)</f>
-        <v>9.8129219756405497E-3</v>
+        <f>ASIN(Q56)*(200/PI())</f>
+        <v>0.62471001543931237</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.35">
@@ -5948,16 +5714,53 @@
       </c>
       <c r="Q57" s="2">
         <f>Q36+200+(400-I23)+R56-400</f>
-        <v>196.68081292197564</v>
+        <v>197.29571001543934</v>
       </c>
       <c r="R57" s="2"/>
     </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59">
+        <f>K6-K31</f>
+        <v>-4.9999999999954525E-3</v>
+      </c>
+    </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60">
+        <f>K32-K23</f>
+        <v>0</v>
+      </c>
       <c r="P60" s="1" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61">
+        <f>K22-K16</f>
+        <v>3.0000000000143245E-3</v>
+      </c>
+    </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62">
+        <f>K15-K7</f>
+        <v>-1.0000000000047748E-3</v>
+      </c>
       <c r="P62" t="s">
         <v>44</v>
       </c>
@@ -5988,6 +5791,9 @@
       </c>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="C64" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="P64" t="s">
         <v>71</v>
       </c>
@@ -6003,7 +5809,7 @@
         <v>12.22</v>
       </c>
     </row>
-    <row r="65" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P65" t="s">
         <v>72</v>
       </c>
@@ -6015,7 +5821,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C66" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G66" t="s">
+        <v>153</v>
+      </c>
       <c r="P66" t="s">
         <v>75</v>
       </c>
@@ -6027,7 +5839,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="2">
+        <f>(SIN((400-C41)*(PI()/200))*K40)/Q46</f>
+        <v>0.20813424621729573</v>
+      </c>
+      <c r="E67" s="2">
+        <f>ASIN(D67)*(200/PI())</f>
+        <v>13.347818529140827</v>
+      </c>
+      <c r="G67" s="2">
+        <f>(400-C41)+E67+R47</f>
+        <v>200.00038818391025</v>
+      </c>
       <c r="P67" t="s">
         <v>76</v>
       </c>
@@ -6036,7 +5863,11 @@
         <v>7.6292631841364056</v>
       </c>
     </row>
-    <row r="68" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="P68" t="s">
         <v>77</v>
       </c>
@@ -6045,7 +5876,18 @@
         <v>14.792257221406842</v>
       </c>
     </row>
-    <row r="69" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69" s="2">
+        <f>W5+K41*SIN((200+E67)*(PI()/200))</f>
+        <v>-14.314016515102075</v>
+      </c>
+      <c r="E69" s="2">
+        <f>Q48-D69</f>
+        <v>0</v>
+      </c>
       <c r="P69" t="s">
         <v>78</v>
       </c>
@@ -6054,7 +5896,20 @@
         <v>33.737630773642707</v>
       </c>
     </row>
-    <row r="71" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70">
+        <f>X5+K41*COS((200+E67)*(PI()/200))</f>
+        <v>114.56911022348824</v>
+      </c>
+      <c r="E70" s="2">
+        <f>Q49-D70</f>
+        <v>3.1957679920253668E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P71" t="s">
         <v>41</v>
       </c>
@@ -6068,33 +5923,54 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C72" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G72" t="s">
+        <v>153</v>
+      </c>
       <c r="P72" t="s">
         <v>79</v>
       </c>
       <c r="Q72" s="2">
         <f>W24</f>
-        <v>69.664341282312535</v>
+        <v>69.016271700649014</v>
       </c>
       <c r="R72" s="2">
         <f>X24</f>
-        <v>34.916742150235358</v>
+        <v>35.24781639052793</v>
       </c>
       <c r="S72">
         <v>14.35</v>
       </c>
     </row>
-    <row r="73" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="2">
+        <f>(SIN((400-C47)*(PI()/200))*K47)/Q52</f>
+        <v>9.8127644897336424E-3</v>
+      </c>
+      <c r="E73" s="2">
+        <f>ASIN(D73)*(200/PI())</f>
+        <v>0.62471001543931237</v>
+      </c>
+      <c r="G73" s="2">
+        <f>E73+R53+(400-C47)</f>
+        <v>199.9999792759389</v>
+      </c>
       <c r="P73" t="s">
         <v>80</v>
       </c>
       <c r="Q73">
         <f>W18</f>
-        <v>55.718379671478417</v>
+        <v>55.400814029086966</v>
       </c>
       <c r="R73">
         <f>X18</f>
-        <v>35.601940661954153</v>
+        <v>35.900579811893778</v>
       </c>
       <c r="S73" t="s">
         <v>83</v>
@@ -6103,7 +5979,10 @@
         <v>12.17</v>
       </c>
     </row>
-    <row r="74" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="E74" t="s">
+        <v>155</v>
+      </c>
       <c r="P74" t="s">
         <v>82</v>
       </c>
@@ -6112,43 +5991,90 @@
         <v>55.221409395296327</v>
       </c>
     </row>
-    <row r="75" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75">
+        <f>W6+K46*SIN((Q37-E73)*(PI()/200))</f>
+        <v>82.438958935469117</v>
+      </c>
+      <c r="E75" s="11">
+        <f>Q54-D75</f>
+        <v>4.0393252235379435</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="P75" t="s">
         <v>84</v>
       </c>
       <c r="Q75">
         <f>Y24</f>
-        <v>232.77181292197565</v>
-      </c>
-    </row>
-    <row r="76" spans="16:20" x14ac:dyDescent="0.35">
+        <v>233.38671001543935</v>
+      </c>
+    </row>
+    <row r="76" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76">
+        <f>X6+K46*COS((Q37-E73)*(PI()/200))</f>
+        <v>68.640199061751417</v>
+      </c>
+      <c r="E76" s="2">
+        <f>Q55-D76</f>
+        <v>-1.0755240791809229E-2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>158</v>
+      </c>
+      <c r="J76" s="2">
+        <f>((W5-W6)^2+(X5-X6)^2)^0.5</f>
+        <v>75.3293941877305</v>
+      </c>
+      <c r="K76" s="2">
+        <f>J76-K23</f>
+        <v>1.2394187730507156E-2</v>
+      </c>
       <c r="P76" t="s">
         <v>85</v>
       </c>
       <c r="Q76">
         <f>Q75-(90/2)</f>
-        <v>187.77181292197565</v>
+        <v>188.38671001543935</v>
       </c>
       <c r="R76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="I77" t="s">
+        <v>159</v>
+      </c>
+      <c r="J77" s="2">
+        <f>((W7-W6)^2+(X7-X6)^2)^0.5</f>
+        <v>175.20602388982877</v>
+      </c>
+      <c r="K77" s="2">
+        <f>J77-K22</f>
+        <v>7.0238898287584561E-3</v>
+      </c>
       <c r="P77" t="s">
         <v>87</v>
       </c>
       <c r="Q77">
         <f>Q72+S72*SIN(Q76*(PI()/200))</f>
-        <v>72.403770184881495</v>
-      </c>
-    </row>
-    <row r="78" spans="16:20" x14ac:dyDescent="0.35">
+        <v>71.619520444809254</v>
+      </c>
+    </row>
+    <row r="78" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P78" t="s">
         <v>88</v>
       </c>
       <c r="Q78">
         <f>R72+S72*COS(Q76*(PI()/200))</f>
-        <v>20.830648678737667</v>
+        <v>21.135920841877205</v>
       </c>
     </row>
   </sheetData>
@@ -6162,8 +6088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D98FD4-8551-4684-AFF3-F1ED8813F6D1}">
   <dimension ref="A2:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6492,6 +6418,10 @@
         <f>ACOS((W7*W8+X7*X8)/((W7^2+X7^2)^0.5*(X8)^0.5))*(400/PI())</f>
         <v>8.8069188424111822</v>
       </c>
+      <c r="X10">
+        <f>ACOS((W7*W8+X7*X8)/((W7^2+X7^2)^0.5*(X8)^0.5))*(400/PI())</f>
+        <v>8.8069188424111822</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
@@ -7618,8 +7548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A131327-E1C9-4DF2-884D-F315D8715444}">
   <dimension ref="A2:X81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S78" sqref="S78"/>
+    <sheetView tabSelected="1" topLeftCell="O7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7899,11 +7829,11 @@
       </c>
       <c r="S9">
         <f>S5+L6*SIN(W11*(PI()/200))</f>
-        <v>4468054.9543096377</v>
+        <v>4468000.2438050555</v>
       </c>
       <c r="T9">
         <f>T5+L6*COS(W11*(PI()/200))</f>
-        <v>5334622.2571533676</v>
+        <v>5334522.4345107619</v>
       </c>
       <c r="W9" s="2"/>
     </row>
@@ -7934,16 +7864,20 @@
       </c>
       <c r="S10">
         <f>S9+L32*SIN(W12*(PI()/200))</f>
-        <v>4468109.0944624497</v>
+        <v>4468012.6451004166</v>
       </c>
       <c r="T10">
         <f>T9+L32*COS(W12*(PI()/200))</f>
-        <v>5334674.6090366123</v>
+        <v>5334596.7183158556</v>
       </c>
       <c r="V10" t="s">
         <v>96</v>
       </c>
       <c r="W10" s="2">
+        <f>GK!W10</f>
+        <v>8.8069188424111822</v>
+      </c>
+      <c r="X10">
         <f>ACOS((W7*W8+X7*X8)/((W7^2+X7^2)^0.5*(X8)^0.5))*(400/PI())</f>
         <v>49.344944510235905</v>
       </c>
@@ -7975,18 +7909,18 @@
       </c>
       <c r="S11">
         <f>S10+L22*SIN(W13*(PI()/200))</f>
-        <v>4468235.1726084556</v>
+        <v>4468186.3382023834</v>
       </c>
       <c r="T11">
         <f>T10+L22*COS(W13*(PI()/200))</f>
-        <v>5334552.9751638584</v>
+        <v>5334573.8884181203</v>
       </c>
       <c r="V11" t="s">
         <v>101</v>
       </c>
       <c r="W11" s="2">
         <f>W10+200+(I6)</f>
-        <v>352.18694451023589</v>
+        <v>311.64891884241121</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -7996,18 +7930,18 @@
       </c>
       <c r="S12">
         <f>S11+L7*SIN(W14*(PI()/200))</f>
-        <v>4468179.0458679004</v>
+        <v>4468179.0451233694</v>
       </c>
       <c r="T12">
         <f>T11+L7*COS(W14*(PI()/200))</f>
-        <v>5334489.3460221244</v>
+        <v>5334489.3562367829</v>
       </c>
       <c r="V12" t="s">
         <v>102</v>
       </c>
       <c r="W12" s="2">
         <f>200+W11+I32-400-400</f>
-        <v>51.068944510235951</v>
+        <v>10.530918842411211</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
@@ -8020,7 +7954,7 @@
       </c>
       <c r="W13" s="2">
         <f>200+W12+(400-I23)-400</f>
-        <v>148.85794451023594</v>
+        <v>108.3199188424112</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -8030,7 +7964,7 @@
       </c>
       <c r="W14" s="2">
         <f>W13+200+(400-I16)-400</f>
-        <v>246.01694451023593</v>
+        <v>205.47891884241119</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -8114,7 +8048,7 @@
       </c>
       <c r="R17" s="2">
         <f>W10+200+C8</f>
-        <v>389.68494451023594</v>
+        <v>349.1469188424112</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
@@ -8141,11 +8075,11 @@
       </c>
       <c r="S18">
         <f>S5+L8*SIN(R17*(PI()/200))</f>
-        <v>4468175.229549001</v>
+        <v>4468162.1499800812</v>
       </c>
       <c r="T18">
         <f>T5+L8*COS(R17*(PI()/200))</f>
-        <v>5334512.5998251764</v>
+        <v>5334505.7835853081</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
@@ -8182,7 +8116,7 @@
       </c>
       <c r="R20" s="2">
         <f>W11+200+C37-400-400</f>
-        <v>113.90794451023589</v>
+        <v>73.369918842411153</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
@@ -8191,11 +8125,11 @@
       </c>
       <c r="S21">
         <f>S9+L37*SIN(R20*(PI()/200))</f>
-        <v>4468069.9052453917</v>
+        <v>4468014.2382893637</v>
       </c>
       <c r="T21">
         <f>T9+L37*COS(R20*(PI()/200))</f>
-        <v>5334618.93791526</v>
+        <v>5334528.6556224376</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
@@ -8270,18 +8204,18 @@
       </c>
       <c r="R23" s="2">
         <f>W11+200+C36-400-400</f>
-        <v>131.68594451023591</v>
+        <v>91.147918842411173</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L24" s="2"/>
       <c r="S24">
         <f>S9+L36*SIN(R23*(PI()/200))</f>
-        <v>4468080.0035543777</v>
+        <v>4468028.4767091163</v>
       </c>
       <c r="T24">
         <f>T9+L36*COS(R23*(PI()/200))</f>
-        <v>5334608.6467000917</v>
+        <v>5334526.3857420525</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
@@ -8356,7 +8290,7 @@
       </c>
       <c r="R27" s="2">
         <f>W12+200+(400-I23+C27)-400</f>
-        <v>208.85194451023597</v>
+        <v>168.31391884241123</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
@@ -8375,11 +8309,11 @@
       </c>
       <c r="S28">
         <f>S10+L27*SIN(R27*(PI()/200))</f>
-        <v>4468106.3904536339</v>
+        <v>4468021.9595375583</v>
       </c>
       <c r="T28">
         <f>T10+L27*COS(R27*(PI()/200))</f>
-        <v>5334655.2876631785</v>
+        <v>5334579.5757257426</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
@@ -8398,7 +8332,7 @@
       </c>
       <c r="R30" s="2">
         <f>W12+200+(400-I23+C28)-400</f>
-        <v>184.35894451023592</v>
+        <v>143.82091884241117</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
@@ -8435,11 +8369,11 @@
       </c>
       <c r="S31">
         <f>S10+L28*SIN(R30*(PI()/200))</f>
-        <v>4468116.526418779</v>
+        <v>4468036.2435321324</v>
       </c>
       <c r="T31">
         <f>T10+L28*COS(R30*(PI()/200))</f>
-        <v>5334644.9707190217</v>
+        <v>5334577.3075491264</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
@@ -8557,7 +8491,7 @@
       </c>
       <c r="R36" s="2">
         <f>W11-R35</f>
-        <v>344.34699463020331</v>
+        <v>303.80896896237863</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
@@ -8579,11 +8513,11 @@
       </c>
       <c r="S37">
         <f>S5+L40*SIN(R36*(PI()/200))</f>
-        <v>4468090.472752885</v>
+        <v>4468063.7814736459</v>
       </c>
       <c r="T37">
         <f>T5+L40*COS(R36*(PI()/200))</f>
-        <v>5334563.4276468353</v>
+        <v>5334496.2536910716</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
@@ -8628,7 +8562,7 @@
       </c>
       <c r="R40" s="2">
         <f>W13-R39</f>
-        <v>148.23323449479662</v>
+        <v>107.69520882697188</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
@@ -8650,11 +8584,11 @@
       </c>
       <c r="S41">
         <f>S10+L46*SIN(R40*(PI()/200))</f>
-        <v>4468192.4401309593</v>
+        <v>4468126.537130734</v>
       </c>
       <c r="T41">
         <f>T10+L46*COS(R40*(PI()/200))</f>
-        <v>5334595.7656415766</v>
+        <v>5334582.8840529481</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
@@ -8724,7 +8658,7 @@
       </c>
       <c r="R46" s="2">
         <f>R36+200+C43-400-400</f>
-        <v>123.35599463020333</v>
+        <v>82.8179689623787</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.35">
@@ -8743,11 +8677,11 @@
       </c>
       <c r="S47">
         <f>S37+L43*SIN(R46*(PI()/200))</f>
-        <v>4468173.6965218969</v>
+        <v>4468149.7108137105</v>
       </c>
       <c r="T47">
         <f>T37+L43*COS(R46*(PI()/200))</f>
-        <v>5334531.44704061</v>
+        <v>5334520.0255950578</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.35">
@@ -8787,7 +8721,7 @@
       </c>
       <c r="R49" s="2">
         <f>R36+200+C42-400</f>
-        <v>398.0589946302033</v>
+        <v>357.52096896237867</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.35">
@@ -8806,11 +8740,11 @@
       </c>
       <c r="S50">
         <f>S37+L42*SIN(R49*(PI()/200))</f>
-        <v>4468088.8297495879</v>
+        <v>4468030.4285313534</v>
       </c>
       <c r="T50">
         <f>T37+L42*COS(R49*(PI()/200))</f>
-        <v>5334617.2989174873</v>
+        <v>5334538.5903714076</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.35">
@@ -8847,17 +8781,17 @@
       </c>
       <c r="R54" s="2">
         <f>R40+200+C48-400</f>
-        <v>184.32423449479666</v>
+        <v>143.78620882697192</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.35">
       <c r="S55">
         <f>S41+L48*SIN(R54*(PI()/200))</f>
-        <v>4468201.6224343311</v>
+        <v>4468155.6431680107</v>
       </c>
       <c r="T55">
         <f>T41+L48*COS(R54*(PI()/200))</f>
-        <v>5334559.2314600637</v>
+        <v>5334558.9696282614</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.35">
@@ -8871,17 +8805,17 @@
       </c>
       <c r="R57" s="2">
         <f>R40+200+C49-400</f>
-        <v>199.29023449479666</v>
+        <v>158.75220882697192</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.35">
       <c r="S58">
         <f>S41+L49*SIN(R57*(PI()/200))</f>
-        <v>4468192.9432726614</v>
+        <v>4468153.7743125279</v>
       </c>
       <c r="T58">
         <f>T41+L49*COS(R57*(PI()/200))</f>
-        <v>5334550.6385281719</v>
+        <v>5334546.9000920253</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.35">
@@ -8895,17 +8829,17 @@
       </c>
       <c r="R60" s="2">
         <f>R40+200+C50-400</f>
-        <v>328.49423449479673</v>
+        <v>287.95620882697199</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.35">
       <c r="S61">
         <f>S41+L50*SIN(R60*(PI()/200))</f>
-        <v>4468108.0155444238</v>
+        <v>4468034.5584104406</v>
       </c>
       <c r="T61">
         <f>T41+L50*COS(R60*(PI()/200))</f>
-        <v>5334636.2963421168</v>
+        <v>5334565.2725932952</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.35">
@@ -8919,25 +8853,25 @@
       </c>
       <c r="R63" s="2">
         <f>R40+200+C51-400</f>
-        <v>336.60323449479665</v>
+        <v>296.06520882697191</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.35">
       <c r="S64">
         <f>S41+L51*SIN(R60*(PI()/200))</f>
-        <v>4468110.8721848391</v>
+        <v>4468037.6706570089</v>
       </c>
       <c r="T64">
         <f>T41+L51*COS(R60*(PI()/200))</f>
-        <v>5334634.9249212788</v>
+        <v>5334565.8685050961</v>
       </c>
       <c r="U64">
         <f>S31</f>
-        <v>4468116.526418779</v>
+        <v>4468036.2435321324</v>
       </c>
       <c r="V64">
         <f>T31</f>
-        <v>5334644.9707190217</v>
+        <v>5334577.3075491264</v>
       </c>
       <c r="W64" t="s">
         <v>32</v>
@@ -8988,17 +8922,17 @@
       </c>
       <c r="R72" s="2">
         <f>R17-Q71</f>
-        <v>344.55768132609956</v>
+        <v>304.01965565827481</v>
       </c>
     </row>
     <row r="73" spans="16:20" x14ac:dyDescent="0.35">
       <c r="S73">
         <f>S18+Q69*SIN(R72*(PI()/200))</f>
-        <v>4468164.3297255365</v>
+        <v>4468147.9283761382</v>
       </c>
       <c r="T73">
         <f>T18+Q69*COS(R72*(PI()/200))</f>
-        <v>5334521.7789508672</v>
+        <v>5334506.6827411791</v>
       </c>
     </row>
     <row r="75" spans="16:20" x14ac:dyDescent="0.35">
@@ -9040,7 +8974,7 @@
       </c>
       <c r="R79" s="2">
         <f>R57-Q78</f>
-        <v>144.06882509950034</v>
+        <v>103.5307994316756</v>
       </c>
     </row>
     <row r="80" spans="16:20" x14ac:dyDescent="0.35">
@@ -9055,11 +8989,11 @@
     <row r="81" spans="19:20" x14ac:dyDescent="0.35">
       <c r="S81">
         <f>S58+Q80*SIN(R79*(PI()/200))</f>
-        <v>4468207.4280609814</v>
+        <v>4468172.5611035461</v>
       </c>
       <c r="T81">
         <f>T58+Q80*COS(R79*(PI()/200))</f>
-        <v>5334538.6292689387</v>
+        <v>5334545.8570756055</v>
       </c>
     </row>
   </sheetData>

--- a/uebung2_ringpolygon.xlsx
+++ b/uebung2_ringpolygon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgit\geo_inf\GeodäsieGrundlagen1\uebung2\GG1_Uebung2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249E747F-A0FB-4343-9AFA-7CE75DFC6368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8582C218-BA30-449C-A311-CDF8BD83494A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,6 +592,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -605,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -620,6 +626,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -743,7 +751,7 @@
                   <c:v>60.155254699332744</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
-                  <c:v>71.619520444809254</c:v>
+                  <c:v>67.58019522127131</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.000">
                   <c:v>24.790949495208316</c:v>
@@ -752,10 +760,10 @@
                   <c:v>21.203136861863506</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>54.140629954721888</c:v>
+                  <c:v>50.101304731183944</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55.400814029086966</c:v>
+                  <c:v>51.361488805549023</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.000">
                   <c:v>9.0231831486844971</c:v>
@@ -767,10 +775,10 @@
                   <c:v>60.524104664456075</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.000">
-                  <c:v>66.275725480341052</c:v>
+                  <c:v>62.236400256803108</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.000">
-                  <c:v>69.016271700649014</c:v>
+                  <c:v>64.976946477111071</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.000">
                   <c:v>-199.80074199664847</c:v>
@@ -779,7 +787,7 @@
                   <c:v>-14.314016515102081</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.000">
-                  <c:v>86.47828415900706</c:v>
+                  <c:v>82.438958935469117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,7 +823,7 @@
                   <c:v>170.87693289077549</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
-                  <c:v>21.135920841877205</c:v>
+                  <c:v>21.146676082669014</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.000">
                   <c:v>34.442148108617786</c:v>
@@ -824,10 +832,10 @@
                   <c:v>155.11539191247425</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>156.52553279290464</c:v>
+                  <c:v>156.53628803369645</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.900579811893778</c:v>
+                  <c:v>35.911335052685587</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.000">
                   <c:v>154.79155018371983</c:v>
@@ -839,10 +847,10 @@
                   <c:v>156.41769206716418</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.000">
-                  <c:v>156.83235642499471</c:v>
+                  <c:v>156.84311166578652</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.000">
-                  <c:v>35.24781639052793</c:v>
+                  <c:v>35.258571631319739</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.000">
                   <c:v>-8.925441030487848</c:v>
@@ -851,7 +859,7 @@
                   <c:v>114.57230599148026</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.000">
-                  <c:v>68.629443820959608</c:v>
+                  <c:v>68.640199061751417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4271,8 +4279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3EB9C-B317-464D-B407-444709E96AF5}">
   <dimension ref="A1:AB78"/>
   <sheetViews>
-    <sheetView topLeftCell="R46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4721,11 +4729,11 @@
       </c>
       <c r="W14" s="2">
         <f>Q77</f>
-        <v>71.619520444809254</v>
+        <v>67.58019522127131</v>
       </c>
       <c r="X14" s="2">
         <f>Q78</f>
-        <v>21.135920841877205</v>
+        <v>21.146676082669014</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
@@ -4854,11 +4862,11 @@
       </c>
       <c r="W17">
         <f>W28+Z17*SIN((Y17-(200-Q57))*(PI()/200))</f>
-        <v>54.140629954721888</v>
+        <v>50.101304731183944</v>
       </c>
       <c r="X17">
         <f>X28+Z17*COS((Y17-(200-Q57))*(PI()/200))</f>
-        <v>156.52553279290464</v>
+        <v>156.53628803369645</v>
       </c>
       <c r="Y17">
         <f>C50</f>
@@ -4914,11 +4922,11 @@
       </c>
       <c r="W18">
         <f>W28+Z18*SIN((Y18-(200-Q57))*(PI()/200))</f>
-        <v>55.400814029086966</v>
+        <v>51.361488805549023</v>
       </c>
       <c r="X18">
         <f>X28+Z18*COS((Y18-(200-Q57))*(PI()/200))</f>
-        <v>35.900579811893778</v>
+        <v>35.911335052685587</v>
       </c>
       <c r="Y18">
         <f>C49</f>
@@ -5110,11 +5118,11 @@
       </c>
       <c r="W23" s="2">
         <f>W28+Z23*SIN((Y23-(200-Q57))*(PI()/200))</f>
-        <v>66.275725480341052</v>
+        <v>62.236400256803108</v>
       </c>
       <c r="X23" s="2">
         <f>X28+Z23*COS((Y23-(200-Q57))*(PI()/200))</f>
-        <v>156.83235642499471</v>
+        <v>156.84311166578652</v>
       </c>
       <c r="Y23">
         <f>C51</f>
@@ -5140,11 +5148,11 @@
       </c>
       <c r="W24" s="2">
         <f>W28+Z24*SIN((Y24-(200-Q57))*(PI()/200))</f>
-        <v>69.016271700649014</v>
+        <v>64.976946477111071</v>
       </c>
       <c r="X24" s="2">
         <f>X28+Z24*COS((Y24-(200-Q57))*(PI()/200))</f>
-        <v>35.24781639052793</v>
+        <v>35.258571631319739</v>
       </c>
       <c r="Y24" s="2">
         <f>C48-(200-Q57)</f>
@@ -5282,13 +5290,13 @@
       <c r="V28" t="s">
         <v>54</v>
       </c>
-      <c r="W28" s="2">
-        <f>Q54</f>
-        <v>86.47828415900706</v>
-      </c>
-      <c r="X28" s="2">
-        <f>Q55</f>
-        <v>68.629443820959608</v>
+      <c r="W28" s="11">
+        <f>D75</f>
+        <v>82.438958935469117</v>
+      </c>
+      <c r="X28" s="11">
+        <f>D76</f>
+        <v>68.640199061751417</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
@@ -5643,37 +5651,37 @@
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="P52" t="s">
+      <c r="P52" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="Q52" s="11">
         <f>K22</f>
         <v>175.19900000000001</v>
       </c>
-      <c r="R52" s="2"/>
+      <c r="R52" s="11"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="P53" t="s">
+      <c r="P53" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="Q53" s="11">
         <f>(SIN((400-C47)*(PI()/200))*K46)/Q52</f>
         <v>1.8617090403772883E-2</v>
       </c>
-      <c r="R53" s="2">
+      <c r="R53" s="11">
         <f>ASIN(Q53)*(200/PI())</f>
         <v>1.1852692604995791</v>
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="P54" t="s">
+      <c r="P54" s="12" t="s">
         <v>31</v>
       </c>
       <c r="Q54" s="11">
         <f>W7+K47*SIN(((200-Q37)-R53)*(PI()/200))</f>
         <v>86.47828415900706</v>
       </c>
-      <c r="R54" s="2"/>
+      <c r="R54" s="11"/>
       <c r="S54" t="s">
         <v>63</v>
       </c>
@@ -5683,40 +5691,40 @@
         <v>149</v>
       </c>
       <c r="D55" s="5"/>
-      <c r="P55" t="s">
+      <c r="P55" s="12" t="s">
         <v>32</v>
       </c>
       <c r="Q55" s="11">
         <f>X7+K47*COS(((200-Q37)-R53)*(PI()/200))</f>
         <v>68.629443820959608</v>
       </c>
-      <c r="R55" s="2"/>
+      <c r="R55" s="11"/>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C56" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="Q56" s="11">
         <f>(SIN((400-C47)*(PI()/200))*K47)/Q52</f>
         <v>9.8127644897336424E-3</v>
       </c>
-      <c r="R56" s="2">
+      <c r="R56" s="11">
         <f>ASIN(Q56)*(200/PI())</f>
         <v>0.62471001543931237</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="P57" t="s">
+      <c r="P57" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="Q57" s="11">
         <f>Q36+200+(400-I23)+R56-400</f>
         <v>197.29571001543934</v>
       </c>
-      <c r="R57" s="2"/>
+      <c r="R57" s="11"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
@@ -5935,11 +5943,11 @@
       </c>
       <c r="Q72" s="2">
         <f>W24</f>
-        <v>69.016271700649014</v>
+        <v>64.976946477111071</v>
       </c>
       <c r="R72" s="2">
         <f>X24</f>
-        <v>35.24781639052793</v>
+        <v>35.258571631319739</v>
       </c>
       <c r="S72">
         <v>14.35</v>
@@ -5966,11 +5974,11 @@
       </c>
       <c r="Q73">
         <f>W18</f>
-        <v>55.400814029086966</v>
+        <v>51.361488805549023</v>
       </c>
       <c r="R73">
         <f>X18</f>
-        <v>35.900579811893778</v>
+        <v>35.911335052685587</v>
       </c>
       <c r="S73" t="s">
         <v>83</v>
@@ -5995,7 +6003,7 @@
       <c r="C75" t="s">
         <v>31</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="13">
         <f>W6+K46*SIN((Q37-E73)*(PI()/200))</f>
         <v>82.438958935469117</v>
       </c>
@@ -6018,7 +6026,7 @@
       <c r="C76" t="s">
         <v>32</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="13">
         <f>X6+K46*COS((Q37-E73)*(PI()/200))</f>
         <v>68.640199061751417</v>
       </c>
@@ -6065,7 +6073,7 @@
       </c>
       <c r="Q77">
         <f>Q72+S72*SIN(Q76*(PI()/200))</f>
-        <v>71.619520444809254</v>
+        <v>67.58019522127131</v>
       </c>
     </row>
     <row r="78" spans="3:20" x14ac:dyDescent="0.35">
@@ -6074,7 +6082,7 @@
       </c>
       <c r="Q78">
         <f>R72+S72*COS(Q76*(PI()/200))</f>
-        <v>21.135920841877205</v>
+        <v>21.146676082669014</v>
       </c>
     </row>
   </sheetData>
@@ -7548,8 +7556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A131327-E1C9-4DF2-884D-F315D8715444}">
   <dimension ref="A2:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView topLeftCell="O52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U70" sqref="U70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/uebung2_ringpolygon.xlsx
+++ b/uebung2_ringpolygon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgit\geo_inf\GeodäsieGrundlagen1\uebung2\GG1_Uebung2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8582C218-BA30-449C-A311-CDF8BD83494A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A28718-2513-4ADB-863C-7919CEE1651D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="176">
   <si>
     <t>Standpunkt 3021A</t>
   </si>
@@ -515,16 +515,65 @@
   </si>
   <si>
     <t>Strecke 2-3</t>
+  </si>
+  <si>
+    <t>Streckenvergleich</t>
+  </si>
+  <si>
+    <t>Punkte</t>
+  </si>
+  <si>
+    <t>Strecke (gemessen)</t>
+  </si>
+  <si>
+    <t>F,J</t>
+  </si>
+  <si>
+    <t>J,B</t>
+  </si>
+  <si>
+    <t>B,C</t>
+  </si>
+  <si>
+    <t>C,L</t>
+  </si>
+  <si>
+    <t>L,G</t>
+  </si>
+  <si>
+    <t>G,H</t>
+  </si>
+  <si>
+    <t>H,M</t>
+  </si>
+  <si>
+    <t>A,K</t>
+  </si>
+  <si>
+    <t>K,E</t>
+  </si>
+  <si>
+    <t>E,F</t>
+  </si>
+  <si>
+    <t>M,D</t>
+  </si>
+  <si>
+    <t>D,A</t>
+  </si>
+  <si>
+    <t>ds (erlaubte Abweichung)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,8 +603,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,7 +657,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -626,8 +701,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1471,6 +1559,723 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6467247043973803E-2"/>
+          <c:y val="1.9231078460938238E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>UTM!$S$3:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>4468045.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4468045.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4468179.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4468000.2438050555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4468012.6451004166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4468186.3382023834</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4468179.0451233694</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4468162.1499800812</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4468014.2382893637</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4468028.4767091163</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4468021.9595375583</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4468036.2435321324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>UTM!$T$3:$T$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5334182.2300000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5334162.2300000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5334489.3499999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5334522.4345107619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5334596.7183158556</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5334573.8884181203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5334489.3562367829</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5334505.7835853081</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5334528.6556224376</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5334526.3857420525</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5334579.5757257426</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5334577.3075491264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BAE-4700-9182-00F43158F838}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UTM!$S$17:$S$32</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>349,147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4468162,15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73,370</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4468014,238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91,148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4468028,477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168,314</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4468021,96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>143,821</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4468036,244</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>UTM!$S$17:$S$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="1">
+                  <c:v>4468162.1499800812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4468014.2382893637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4468028.4767091163</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4468021.9595375583</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4468036.2435321324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>UTM!$T$17:$T$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>5334505.7835853081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5334528.6556224376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5334526.3857420525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5334579.5757257426</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5334577.3075491264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BAE-4700-9182-00F43158F838}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GK!$R$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GK!$S$35:$S$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>32691109.71453901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32691172.497133248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GK!$T$35:$T$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>5335911.6767340647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5335998.3444818128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7BAE-4700-9182-00F43158F838}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FSP_Punkte</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GK!$S$45:$S$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="2">
+                  <c:v>32691195.681035489</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32691076.347295664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32691201.615573071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32691199.745968465</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32691080.478631593</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32691083.592237521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GK!$T$45:$T$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="2">
+                  <c:v>5335935.4588757679</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5335954.0316064823</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5335974.4198647374</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5335962.3451219816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5335980.7254091483</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5335981.3215810927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7BAE-4700-9182-00F43158F838}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>KP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GK!$S$71:$S$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="2">
+                  <c:v>32691193.904290069</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32691218.532759439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GK!$T$71:$T$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="2">
+                  <c:v>5335922.1096398355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5335961.3021047637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7BAE-4700-9182-00F43158F838}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="409041192"/>
+        <c:axId val="412998184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="409041192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412998184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="412998184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409041192"/>
+        <c:crossesAt val="4468000"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2307,6 +3112,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3340,6 +4185,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3929,6 +5290,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>369550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>115783</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AE6616-424B-4675-AF0F-5A8D20F3B869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4277,15 +5676,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3EB9C-B317-464D-B407-444709E96AF5}">
-  <dimension ref="A1:AB78"/>
+  <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6328125" customWidth="1"/>
@@ -5654,21 +7054,21 @@
       <c r="P52" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="Q52" s="13">
         <f>K22</f>
         <v>175.19900000000001</v>
       </c>
-      <c r="R52" s="11"/>
+      <c r="R52" s="13"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.35">
       <c r="P53" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="Q53" s="11">
+      <c r="Q53" s="13">
         <f>(SIN((400-C47)*(PI()/200))*K46)/Q52</f>
         <v>1.8617090403772883E-2</v>
       </c>
-      <c r="R53" s="11">
+      <c r="R53" s="13">
         <f>ASIN(Q53)*(200/PI())</f>
         <v>1.1852692604995791</v>
       </c>
@@ -5677,41 +7077,45 @@
       <c r="P54" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q54" s="11">
-        <f>W7+K47*SIN(((200-Q37)-R53)*(PI()/200))</f>
-        <v>86.47828415900706</v>
-      </c>
-      <c r="R54" s="11"/>
+      <c r="Q54" s="13">
+        <f>W7+K47*SIN(((Q37-200)+R53)*(PI()/200))</f>
+        <v>82.406159279944106</v>
+      </c>
+      <c r="R54" s="13"/>
       <c r="S54" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="15" t="s">
         <v>149</v>
       </c>
       <c r="D55" s="5"/>
       <c r="P55" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q55" s="11">
-        <f>X7+K47*COS(((200-Q37)-R53)*(PI()/200))</f>
+      <c r="Q55" s="13">
+        <f>X7+K47*COS(((Q37-200)+R53)*(PI()/200))</f>
         <v>68.629443820959608</v>
       </c>
-      <c r="R55" s="11"/>
+      <c r="R55" s="13"/>
+      <c r="S55">
+        <f>X7+K47*COS(((Q37-200)-R53)*(PI()/200))</f>
+        <v>68.511748122389605</v>
+      </c>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="14" t="s">
         <v>150</v>
       </c>
       <c r="P56" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Q56" s="11">
+      <c r="Q56" s="13">
         <f>(SIN((400-C47)*(PI()/200))*K47)/Q52</f>
         <v>9.8127644897336424E-3</v>
       </c>
-      <c r="R56" s="11">
+      <c r="R56" s="13">
         <f>ASIN(Q56)*(200/PI())</f>
         <v>0.62471001543931237</v>
       </c>
@@ -5720,11 +7124,11 @@
       <c r="P57" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Q57" s="11">
+      <c r="Q57" s="13">
         <f>Q36+200+(400-I23)+R56-400</f>
         <v>197.29571001543934</v>
       </c>
-      <c r="R57" s="11"/>
+      <c r="R57" s="13"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
@@ -5799,7 +7203,7 @@
       </c>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="14" t="s">
         <v>151</v>
       </c>
       <c r="P64" t="s">
@@ -6003,13 +7407,13 @@
       <c r="C75" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="12">
         <f>W6+K46*SIN((Q37-E73)*(PI()/200))</f>
         <v>82.438958935469117</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="13">
         <f>Q54-D75</f>
-        <v>4.0393252235379435</v>
+        <v>-3.2799655525010962E-2</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>156</v>
@@ -6026,7 +7430,7 @@
       <c r="C76" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="12">
         <f>X6+K46*COS((Q37-E73)*(PI()/200))</f>
         <v>68.640199061751417</v>
       </c>
@@ -6083,6 +7487,315 @@
       <c r="Q78">
         <f>R72+S72*COS(Q76*(PI()/200))</f>
         <v>21.146676082669014</v>
+      </c>
+    </row>
+    <row r="79" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C79" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="2">
+        <f>((W11-W21)^2+(X11-X21)^2)^0.5</f>
+        <v>14.25</v>
+      </c>
+      <c r="D83">
+        <v>14.25</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" ref="E83:E84" si="0">D83-C83</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="21">
+        <f>0.008*(D83)^0.5+0.0004*D83+0.03</f>
+        <v>6.5899337741083003E-2</v>
+      </c>
+      <c r="G83" s="21">
+        <f>F83-ABS(E83)</f>
+        <v>6.5899337741083003E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B84" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="17">
+        <f>((W15-W21)^2+(X15-X21)^2)^0.5</f>
+        <v>10.023482022803137</v>
+      </c>
+      <c r="D84" s="16">
+        <v>12.22</v>
+      </c>
+      <c r="E84" s="17">
+        <f t="shared" si="0"/>
+        <v>2.1965179771968639</v>
+      </c>
+      <c r="F84" s="21">
+        <f t="shared" ref="F84:F94" si="1">0.008*(D84)^0.5+0.0004*D84+0.03</f>
+        <v>6.2853693268717661E-2</v>
+      </c>
+      <c r="G84" s="22">
+        <f t="shared" ref="G84:G94" si="2">F84-ABS(E84)</f>
+        <v>-2.1336642839281463</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="2">
+        <f>((W15-W16)^2+(X15-X16)^2)^0.5</f>
+        <v>120.72656778703258</v>
+      </c>
+      <c r="D85">
+        <v>120.83</v>
+      </c>
+      <c r="E85" s="2">
+        <f>D85-C85</f>
+        <v>0.10343221296741945</v>
+      </c>
+      <c r="F85" s="21">
+        <f t="shared" si="1"/>
+        <v>0.16627016008991771</v>
+      </c>
+      <c r="G85" s="21">
+        <f t="shared" si="2"/>
+        <v>6.2837947122498267E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="2">
+        <f>((W20-W16)^2+(X20-X16)^2)^0.5</f>
+        <v>12.18425811941235</v>
+      </c>
+      <c r="D86">
+        <v>12.22</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" ref="E86:E94" si="3">D86-C86</f>
+        <v>3.5741880587650598E-2</v>
+      </c>
+      <c r="F86" s="21">
+        <f t="shared" si="1"/>
+        <v>6.2853693268717661E-2</v>
+      </c>
+      <c r="G86" s="21">
+        <f t="shared" si="2"/>
+        <v>2.7111812681067063E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="2">
+        <f>((W20-W12)^2+(X20-X12)^2)^0.5</f>
+        <v>14.419200633054107</v>
+      </c>
+      <c r="D87">
+        <v>14.57</v>
+      </c>
+      <c r="E87" s="2">
+        <f>D87-C87</f>
+        <v>0.15079936694589335</v>
+      </c>
+      <c r="F87" s="21">
+        <f t="shared" si="1"/>
+        <v>6.63645354943877E-2</v>
+      </c>
+      <c r="G87" s="23">
+        <f t="shared" si="2"/>
+        <v>-8.4434831451505654E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" s="2">
+        <f>((W13-W12)^2+(X13-X12)^2)^0.5</f>
+        <v>51.518048027759939</v>
+      </c>
+      <c r="D88">
+        <v>51.52</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9519722400644923E-3</v>
+      </c>
+      <c r="F88" s="21">
+        <f t="shared" si="1"/>
+        <v>0.10802994702376435</v>
+      </c>
+      <c r="G88" s="21">
+        <f t="shared" si="2"/>
+        <v>0.10607797478369986</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="2">
+        <f>((W13-W22)^2+(X13-X22)^2)^0.5</f>
+        <v>14.463944672597423</v>
+      </c>
+      <c r="D89">
+        <v>14.51</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="3"/>
+        <v>4.6055327402577007E-2</v>
+      </c>
+      <c r="F89" s="21">
+        <f t="shared" si="1"/>
+        <v>6.6277595127585451E-2</v>
+      </c>
+      <c r="G89" s="21">
+        <f t="shared" si="2"/>
+        <v>2.0222267725008444E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B90" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="18">
+        <f>((W17-W22)^2+(X17-X22)^2)^0.5</f>
+        <v>10.423474634319176</v>
+      </c>
+      <c r="D90" s="6">
+        <v>12.17</v>
+      </c>
+      <c r="E90" s="18">
+        <f t="shared" si="3"/>
+        <v>1.7465253656808244</v>
+      </c>
+      <c r="F90" s="21">
+        <f t="shared" si="1"/>
+        <v>6.2776421668019847E-2</v>
+      </c>
+      <c r="G90" s="22">
+        <f t="shared" si="2"/>
+        <v>-1.6837489440128046</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="2">
+        <f>((W17-W18)^2+(X17-X18)^2)^0.5</f>
+        <v>120.63153545227037</v>
+      </c>
+      <c r="D91">
+        <v>120.8</v>
+      </c>
+      <c r="E91" s="2">
+        <f>D91-C91</f>
+        <v>0.16846454772962716</v>
+      </c>
+      <c r="F91" s="21">
+        <f t="shared" si="1"/>
+        <v>0.16624724264981816</v>
+      </c>
+      <c r="G91" s="23">
+        <f t="shared" si="2"/>
+        <v>-2.2173050798089955E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B92" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="18">
+        <f>((W24-W18)^2+(X24-X18)^2)^0.5</f>
+        <v>13.631096349537373</v>
+      </c>
+      <c r="D92" s="6">
+        <v>12.17</v>
+      </c>
+      <c r="E92" s="18">
+        <f t="shared" si="3"/>
+        <v>-1.4610963495373728</v>
+      </c>
+      <c r="F92" s="21">
+        <f t="shared" si="1"/>
+        <v>6.2776421668019847E-2</v>
+      </c>
+      <c r="G92" s="22">
+        <f t="shared" si="2"/>
+        <v>-1.398319927869353</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="2">
+        <f>((W24-W14)^2+(X24-X14)^2)^0.5</f>
+        <v>14.35</v>
+      </c>
+      <c r="D93">
+        <v>14.35</v>
+      </c>
+      <c r="E93" s="2">
+        <f>D93-C93</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="21">
+        <f t="shared" si="1"/>
+        <v>6.6045115079801292E-2</v>
+      </c>
+      <c r="G93" s="21">
+        <f t="shared" si="2"/>
+        <v>6.6045115079801292E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="20">
+        <f>((W11-W14)^2+(X11-X14)^2)^0.5</f>
+        <v>54.513811127822272</v>
+      </c>
+      <c r="D94" s="19">
+        <v>51.69</v>
+      </c>
+      <c r="E94" s="18">
+        <f t="shared" si="3"/>
+        <v>-2.8238111278222746</v>
+      </c>
+      <c r="F94" s="21">
+        <f t="shared" si="1"/>
+        <v>0.10819260629765981</v>
+      </c>
+      <c r="G94" s="22">
+        <f t="shared" si="2"/>
+        <v>-2.7156185215246147</v>
       </c>
     </row>
   </sheetData>
@@ -6096,12 +7809,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D98FD4-8551-4684-AFF3-F1ED8813F6D1}">
   <dimension ref="A2:X81"/>
   <sheetViews>
-    <sheetView topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.08984375" customWidth="1"/>
     <col min="17" max="17" width="16.08984375" customWidth="1"/>
@@ -7373,6 +9089,9 @@
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="D60" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="Q60" t="s">
         <v>129</v>
       </c>
@@ -7392,11 +9111,23 @@
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" t="s">
+        <v>162</v>
+      </c>
       <c r="R62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="G63" t="s">
+        <v>175</v>
+      </c>
       <c r="Q63" t="s">
         <v>130</v>
       </c>
@@ -7406,6 +9137,28 @@
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="2">
+        <f>((T73-T18)^2+(S73-S18)^2)^0.5</f>
+        <v>14.250000001610616</v>
+      </c>
+      <c r="E64">
+        <v>14.25</v>
+      </c>
+      <c r="F64" s="2">
+        <f>E64-D64</f>
+        <v>-1.6106156408568495E-9</v>
+      </c>
+      <c r="G64" s="21">
+        <f>0.008*(E64)^0.5+0.0004*E64+0.03</f>
+        <v>6.5899337741083003E-2</v>
+      </c>
+      <c r="H64" s="21">
+        <f>G64-ABS(F64)</f>
+        <v>6.5899336130467362E-2</v>
+      </c>
       <c r="S64">
         <f>S41+L51*SIN(R60*(PI()/200))</f>
         <v>32691083.592237521</v>
@@ -7426,17 +9179,131 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C65" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="17">
+        <f>((T73-T47)^2+(S73-S47)^2)^0.5</f>
+        <v>13.466956755876975</v>
+      </c>
+      <c r="E65" s="16">
+        <v>12.22</v>
+      </c>
+      <c r="F65" s="17">
+        <f>E65-D65</f>
+        <v>-1.2469567558769743</v>
+      </c>
+      <c r="G65" s="21">
+        <f t="shared" ref="G65:G75" si="0">0.008*(E65)^0.5+0.0004*E65+0.03</f>
+        <v>6.2853693268717661E-2</v>
+      </c>
+      <c r="H65" s="22">
+        <f t="shared" ref="H65:H75" si="1">G65-ABS(F65)</f>
+        <v>-1.1841030626082567</v>
+      </c>
+    </row>
+    <row r="66" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" s="2">
+        <f>((S47-S50)^2+(T47-T50)^2)^0.5</f>
+        <v>120.7703928399479</v>
+      </c>
+      <c r="E66">
+        <v>120.83</v>
+      </c>
+      <c r="F66" s="2">
+        <f>E66-D66</f>
+        <v>5.9607160052095765E-2</v>
+      </c>
+      <c r="G66" s="21">
+        <f t="shared" si="0"/>
+        <v>0.16627016008991771</v>
+      </c>
+      <c r="H66" s="21">
+        <f t="shared" si="1"/>
+        <v>0.10666300003782195</v>
+      </c>
       <c r="P66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="2">
+        <f>((S24-S50)^2+(T24-T50)^2)^0.5</f>
+        <v>12.365079182360498</v>
+      </c>
+      <c r="E67">
+        <v>12.22</v>
+      </c>
+      <c r="F67" s="2">
+        <f>E67-D67</f>
+        <v>-0.14507918236049733</v>
+      </c>
+      <c r="G67" s="21">
+        <f t="shared" si="0"/>
+        <v>6.2853693268717661E-2</v>
+      </c>
+      <c r="H67" s="23">
+        <f>G67-ABS(F67)</f>
+        <v>-8.2225489091779666E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="2">
+        <f>((S24-S21)^2+(T24-T21)^2)^0.5</f>
+        <v>14.424466381369534</v>
+      </c>
+      <c r="E68">
+        <v>14.57</v>
+      </c>
+      <c r="F68" s="2">
+        <f>E68-D68</f>
+        <v>0.14553361863046632</v>
+      </c>
+      <c r="G68" s="21">
+        <f t="shared" si="0"/>
+        <v>6.63645354943877E-2</v>
+      </c>
+      <c r="H68" s="23">
+        <f>G68-ABS(F68)</f>
+        <v>-7.9169083136078622E-2</v>
+      </c>
       <c r="P68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="2">
+        <f>((S28-S21)^2+(T28-T21)^2)^0.5</f>
+        <v>51.524809405148389</v>
+      </c>
+      <c r="E69">
+        <v>51.52</v>
+      </c>
+      <c r="F69" s="2">
+        <f>E69-D69</f>
+        <v>-4.8094051483857925E-3</v>
+      </c>
+      <c r="G69" s="21">
+        <f t="shared" si="0"/>
+        <v>0.10802994702376435</v>
+      </c>
+      <c r="H69" s="21">
+        <f>G69-ABS(F69)</f>
+        <v>0.10322054187537856</v>
+      </c>
       <c r="P69" t="s">
         <v>132</v>
       </c>
@@ -7444,7 +9311,29 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="70" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="2">
+        <f>((S28-S31)^2+(T28-T31)^2)^0.5</f>
+        <v>14.469172789182094</v>
+      </c>
+      <c r="E70">
+        <v>14.51</v>
+      </c>
+      <c r="F70" s="2">
+        <f>E70-D70</f>
+        <v>4.0827210817905524E-2</v>
+      </c>
+      <c r="G70" s="21">
+        <f t="shared" si="0"/>
+        <v>6.6277595127585451E-2</v>
+      </c>
+      <c r="H70" s="21">
+        <f>G70-ABS(F70)</f>
+        <v>2.5450384309679927E-2</v>
+      </c>
       <c r="P70" t="s">
         <v>133</v>
       </c>
@@ -7453,7 +9342,29 @@
         <v>12.22</v>
       </c>
     </row>
-    <row r="71" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C71" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="13">
+        <f>((S61-S31)^2+(T61-T31)^2)^0.5</f>
+        <v>12.157753691142897</v>
+      </c>
+      <c r="E71" s="12">
+        <v>12.17</v>
+      </c>
+      <c r="F71" s="13">
+        <f t="shared" ref="F67:F75" si="2">E71-D71</f>
+        <v>1.2246308857102761E-2</v>
+      </c>
+      <c r="G71" s="21">
+        <f t="shared" si="0"/>
+        <v>6.2776421668019847E-2</v>
+      </c>
+      <c r="H71" s="24">
+        <f t="shared" si="1"/>
+        <v>5.0530112810917086E-2</v>
+      </c>
       <c r="P71" t="s">
         <v>134</v>
       </c>
@@ -7462,7 +9373,29 @@
         <v>45.12726318413641</v>
       </c>
     </row>
-    <row r="72" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C72" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="13">
+        <f>((S61-S58)^2+(T61-T58)^2)^0.5</f>
+        <v>120.67531893781634</v>
+      </c>
+      <c r="E72" s="12">
+        <v>120.8</v>
+      </c>
+      <c r="F72" s="13">
+        <f>E72-D72</f>
+        <v>0.12468106218365449</v>
+      </c>
+      <c r="G72" s="21">
+        <f t="shared" si="0"/>
+        <v>0.16624724264981816</v>
+      </c>
+      <c r="H72" s="24">
+        <f t="shared" si="1"/>
+        <v>4.1566180466163671E-2</v>
+      </c>
       <c r="P72" t="s">
         <v>135</v>
       </c>
@@ -7474,7 +9407,29 @@
         <v>304.01965565827481</v>
       </c>
     </row>
-    <row r="73" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C73" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="13">
+        <f>((S55-S58)^2+(T55-T58)^2)^0.5</f>
+        <v>12.218626518699654</v>
+      </c>
+      <c r="E73" s="12">
+        <v>12.17</v>
+      </c>
+      <c r="F73" s="13">
+        <f t="shared" si="2"/>
+        <v>-4.8626518699654397E-2</v>
+      </c>
+      <c r="G73" s="21">
+        <f t="shared" si="0"/>
+        <v>6.2776421668019847E-2</v>
+      </c>
+      <c r="H73" s="24">
+        <f t="shared" si="1"/>
+        <v>1.4149902968365449E-2</v>
+      </c>
       <c r="S73">
         <f>S18+Q69*SIN(R72*(PI()/200))</f>
         <v>32691193.904290069</v>
@@ -7484,12 +9439,58 @@
         <v>5335922.1096398355</v>
       </c>
     </row>
-    <row r="75" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C74" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="20">
+        <f>((S55-S81)^2+(T55-T81)^2)^0.5</f>
+        <v>21.407167522749091</v>
+      </c>
+      <c r="E74" s="19">
+        <v>14.35</v>
+      </c>
+      <c r="F74" s="20">
+        <f>E74-D74</f>
+        <v>-7.0571675227490918</v>
+      </c>
+      <c r="G74" s="21">
+        <f t="shared" si="0"/>
+        <v>6.6045115079801292E-2</v>
+      </c>
+      <c r="H74" s="22">
+        <f t="shared" si="1"/>
+        <v>-6.9911224076692902</v>
+      </c>
+    </row>
+    <row r="75" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C75" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" s="20">
+        <f>((S18-S81)^2+(T18-T81)^2)^0.5</f>
+        <v>41.420295825666322</v>
+      </c>
+      <c r="E75" s="19">
+        <v>51.69</v>
+      </c>
+      <c r="F75" s="18">
+        <f t="shared" si="2"/>
+        <v>10.269704174333675</v>
+      </c>
+      <c r="G75" s="21">
+        <f t="shared" si="0"/>
+        <v>0.10819260629765981</v>
+      </c>
+      <c r="H75" s="22">
+        <f t="shared" si="1"/>
+        <v>-10.161511568036016</v>
+      </c>
       <c r="P75" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P76" t="s">
         <v>137</v>
       </c>
@@ -7497,7 +9498,7 @@
         <v>14.35</v>
       </c>
     </row>
-    <row r="77" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P77" t="s">
         <v>138</v>
       </c>
@@ -7505,7 +9506,7 @@
         <v>12.17</v>
       </c>
     </row>
-    <row r="78" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P78" t="s">
         <v>139</v>
       </c>
@@ -7514,7 +9515,7 @@
         <v>55.221409395296327</v>
       </c>
     </row>
-    <row r="79" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P79" t="s">
         <v>140</v>
       </c>
@@ -7526,7 +9527,7 @@
         <v>103.53080213643861</v>
       </c>
     </row>
-    <row r="80" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P80" t="s">
         <v>142</v>
       </c>
@@ -7556,14 +9557,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A131327-E1C9-4DF2-884D-F315D8715444}">
   <dimension ref="A2:X81"/>
   <sheetViews>
-    <sheetView topLeftCell="O52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U70" sqref="U70"/>
+    <sheetView topLeftCell="I58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.08984375" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.08984375" customWidth="1"/>
     <col min="21" max="21" width="15.36328125" customWidth="1"/>
     <col min="22" max="22" width="16.26953125" customWidth="1"/>
@@ -7727,7 +9730,7 @@
       <c r="O6" t="s">
         <v>94</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <f>((P5^2)/(2*P3^2))-(P4/P3)</f>
         <v>-6.828286215076401E-5</v>
       </c>
@@ -8832,6 +10835,9 @@
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>160</v>
+      </c>
       <c r="Q60" t="s">
         <v>129</v>
       </c>
@@ -8851,11 +10857,23 @@
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" t="s">
+        <v>162</v>
+      </c>
       <c r="R62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="H63" t="s">
+        <v>175</v>
+      </c>
       <c r="Q63" t="s">
         <v>130</v>
       </c>
@@ -8865,6 +10883,32 @@
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="2">
+        <f>((T73-T18)^2+(S73-S18)^2)^0.5</f>
+        <v>14.249999999751683</v>
+      </c>
+      <c r="E64" s="2">
+        <v>14.25</v>
+      </c>
+      <c r="F64" s="2">
+        <f>E64*P6+E64</f>
+        <v>14.249026969214352</v>
+      </c>
+      <c r="G64" s="2">
+        <f>F64-D64</f>
+        <v>-9.7303053733099887E-4</v>
+      </c>
+      <c r="H64" s="2">
+        <f>0.008*(E64)^0.5+0.0004*E64+0.03</f>
+        <v>6.5899337741083003E-2</v>
+      </c>
+      <c r="I64" s="2">
+        <f>H64-ABS(G64)</f>
+        <v>6.4926307203752004E-2</v>
+      </c>
       <c r="S64">
         <f>S41+L51*SIN(R60*(PI()/200))</f>
         <v>4468037.6706570089</v>
@@ -8885,17 +10929,151 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="2">
+        <f>((T73-T47)^2+(S73-S47)^2)^0.5</f>
+        <v>13.461383039098177</v>
+      </c>
+      <c r="E65" s="2">
+        <v>12.22</v>
+      </c>
+      <c r="F65" s="2">
+        <f>E65*P6+E65</f>
+        <v>12.219165583424518</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" ref="G65:G75" si="0">F65-D65</f>
+        <v>-1.2422174556736589</v>
+      </c>
+      <c r="H65" s="2">
+        <f>0.008*(E65)^0.5+0.0004*E65+0.03</f>
+        <v>6.2853693268717661E-2</v>
+      </c>
+      <c r="I65" s="11">
+        <f t="shared" ref="I65:I75" si="1">H65-ABS(G65)</f>
+        <v>-1.1793637624049413</v>
+      </c>
+    </row>
+    <row r="66" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" s="2">
+        <f>((S47-S50)^2+(T47-T50)^2)^0.5</f>
+        <v>120.7183242314044</v>
+      </c>
+      <c r="E66" s="2">
+        <v>120.83</v>
+      </c>
+      <c r="F66" s="2">
+        <f>E66*P6+E66</f>
+        <v>120.82174938176632</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10342515036192879</v>
+      </c>
+      <c r="H66" s="2">
+        <f>0.008*(E66)^0.5+0.0004*E66+0.03</f>
+        <v>0.16627016008991771</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2845009727988926E-2</v>
+      </c>
       <c r="P66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="2">
+        <f>((S24-S50)^2+(T24-T50)^2)^0.5</f>
+        <v>12.359716329305529</v>
+      </c>
+      <c r="E67" s="2">
+        <v>12.22</v>
+      </c>
+      <c r="F67" s="2">
+        <f>E67*P6+E67</f>
+        <v>12.219165583424518</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.14055074588101135</v>
+      </c>
+      <c r="H67" s="2">
+        <f>0.008*(E67)^0.5+0.0004*E67+0.03</f>
+        <v>6.2853693268717661E-2</v>
+      </c>
+      <c r="I67" s="25">
+        <f>H67-ABS(G67)</f>
+        <v>-7.7697052612293691E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="2">
+        <f>((S24-S21)^2+(T24-T21)^2)^0.5</f>
+        <v>14.418216048220161</v>
+      </c>
+      <c r="E68" s="2">
+        <v>14.57</v>
+      </c>
+      <c r="F68" s="2">
+        <f>E68*P6+E68</f>
+        <v>14.569005118698463</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15078907047830192</v>
+      </c>
+      <c r="H68" s="2">
+        <f>0.008*(E68)^0.5+0.0004*E68+0.03</f>
+        <v>6.63645354943877E-2</v>
+      </c>
+      <c r="I68" s="25">
+        <f>H68-ABS(G68)</f>
+        <v>-8.4424534983914223E-2</v>
+      </c>
       <c r="P68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="2">
+        <f>((S28-S21)^2+(T28-T21)^2)^0.5</f>
+        <v>51.502180480792113</v>
+      </c>
+      <c r="E69" s="2">
+        <v>51.52</v>
+      </c>
+      <c r="F69" s="2">
+        <f>E69*P6+E69</f>
+        <v>51.516482066941997</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="0"/>
+        <v>1.430158614988386E-2</v>
+      </c>
+      <c r="H69" s="2">
+        <f>0.008*(E69)^0.5+0.0004*E69+0.03</f>
+        <v>0.10802994702376435</v>
+      </c>
+      <c r="I69" s="2">
+        <f>H69-ABS(G69)</f>
+        <v>9.3728360873880492E-2</v>
+      </c>
       <c r="P69" t="s">
         <v>132</v>
       </c>
@@ -8903,7 +11081,33 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="70" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="2">
+        <f>((S28-S31)^2+(T28-T31)^2)^0.5</f>
+        <v>14.462957033575469</v>
+      </c>
+      <c r="E70" s="2">
+        <v>14.51</v>
+      </c>
+      <c r="F70" s="2">
+        <f>E70*P6+E70</f>
+        <v>14.509009215670192</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6052182094722838E-2</v>
+      </c>
+      <c r="H70" s="2">
+        <f>0.008*(E70)^0.5+0.0004*E70+0.03</f>
+        <v>6.6277595127585451E-2</v>
+      </c>
+      <c r="I70" s="2">
+        <f>H70-ABS(G70)</f>
+        <v>2.0225413032862613E-2</v>
+      </c>
       <c r="P70" t="s">
         <v>133</v>
       </c>
@@ -8912,7 +11116,33 @@
         <v>12.22</v>
       </c>
     </row>
-    <row r="71" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="2">
+        <f>((S61-S31)^2+(T61-T31)^2)^0.5</f>
+        <v>12.152357671502884</v>
+      </c>
+      <c r="E71" s="2">
+        <v>12.17</v>
+      </c>
+      <c r="F71" s="2">
+        <f>E71*P6+E71</f>
+        <v>12.169168997567626</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6811326064742005E-2</v>
+      </c>
+      <c r="H71" s="2">
+        <f>0.008*(E71)^0.5+0.0004*E71+0.03</f>
+        <v>6.2776421668019847E-2</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5965095603277842E-2</v>
+      </c>
       <c r="P71" t="s">
         <v>134</v>
       </c>
@@ -8921,7 +11151,33 @@
         <v>45.12726318413641</v>
       </c>
     </row>
-    <row r="72" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="2">
+        <f>((S61-S58)^2+(T61-T58)^2)^0.5</f>
+        <v>120.62329838549687</v>
+      </c>
+      <c r="E72" s="2">
+        <v>120.8</v>
+      </c>
+      <c r="F72" s="2">
+        <f>E72*P6+E72</f>
+        <v>120.79175143025219</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1684530447553243</v>
+      </c>
+      <c r="H72" s="2">
+        <f>0.008*(E72)^0.5+0.0004*E72+0.03</f>
+        <v>0.16624724264981816</v>
+      </c>
+      <c r="I72" s="26">
+        <f t="shared" si="1"/>
+        <v>-2.2058021055061383E-3</v>
+      </c>
       <c r="P72" t="s">
         <v>135</v>
       </c>
@@ -8933,7 +11189,33 @@
         <v>304.01965565827481</v>
       </c>
     </row>
-    <row r="73" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="2">
+        <f>((S55-S58)^2+(T55-T58)^2)^0.5</f>
+        <v>12.213366684532508</v>
+      </c>
+      <c r="E73" s="2">
+        <v>12.17</v>
+      </c>
+      <c r="F73" s="2">
+        <f>E73*P6+E73</f>
+        <v>12.169168997567626</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.419768696488191E-2</v>
+      </c>
+      <c r="H73" s="2">
+        <f>0.008*(E73)^0.5+0.0004*E73+0.03</f>
+        <v>6.2776421668019847E-2</v>
+      </c>
+      <c r="I73" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8578734703137936E-2</v>
+      </c>
       <c r="S73">
         <f>S18+Q69*SIN(R72*(PI()/200))</f>
         <v>4468147.9283761382</v>
@@ -8943,12 +11225,66 @@
         <v>5334506.6827411791</v>
       </c>
     </row>
-    <row r="75" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="2">
+        <f>((S55-S81)^2+(T55-T81)^2)^0.5</f>
+        <v>21.404569136744705</v>
+      </c>
+      <c r="E74" s="2">
+        <v>14.35</v>
+      </c>
+      <c r="F74" s="2">
+        <f>E74*P6+E74</f>
+        <v>14.349020140928136</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.0555489958165687</v>
+      </c>
+      <c r="H74" s="2">
+        <f>0.008*(E74)^0.5+0.0004*E74+0.03</f>
+        <v>6.6045115079801292E-2</v>
+      </c>
+      <c r="I74" s="11">
+        <f t="shared" si="1"/>
+        <v>-6.9895038807367671</v>
+      </c>
+    </row>
+    <row r="75" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" s="2">
+        <f>((S18-S81)^2+(T18-T81)^2)^0.5</f>
+        <v>41.403817655105044</v>
+      </c>
+      <c r="E75" s="2">
+        <v>51.69</v>
+      </c>
+      <c r="F75" s="2">
+        <f>E75*P6+E75</f>
+        <v>51.686470458855425</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="0"/>
+        <v>10.282652803750381</v>
+      </c>
+      <c r="H75" s="2">
+        <f>0.008*(E75)^0.5+0.0004*E75+0.03</f>
+        <v>0.10819260629765981</v>
+      </c>
+      <c r="I75" s="11">
+        <f t="shared" si="1"/>
+        <v>-10.174460197452721</v>
+      </c>
       <c r="P75" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P76" t="s">
         <v>137</v>
       </c>
@@ -8956,7 +11292,7 @@
         <v>14.35</v>
       </c>
     </row>
-    <row r="77" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P77" t="s">
         <v>138</v>
       </c>
@@ -8964,7 +11300,7 @@
         <v>12.17</v>
       </c>
     </row>
-    <row r="78" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P78" t="s">
         <v>139</v>
       </c>
@@ -8973,7 +11309,7 @@
         <v>55.221409395296327</v>
       </c>
     </row>
-    <row r="79" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P79" t="s">
         <v>140</v>
       </c>
@@ -8985,7 +11321,7 @@
         <v>103.5307994316756</v>
       </c>
     </row>
-    <row r="80" spans="16:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P80" t="s">
         <v>142</v>
       </c>

--- a/uebung2_ringpolygon.xlsx
+++ b/uebung2_ringpolygon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgit\geo_inf\GeodäsieGrundlagen1\uebung2\GG1_Uebung2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A28718-2513-4ADB-863C-7919CEE1651D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E697A5-99F8-466E-B5BD-506F51D60CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="184">
   <si>
     <t>Standpunkt 3021A</t>
   </si>
@@ -563,6 +563,30 @@
   </si>
   <si>
     <t>ds (erlaubte Abweichung)</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>t(A,M)</t>
+  </si>
+  <si>
+    <t>t(A,E)</t>
+  </si>
+  <si>
+    <t>t(E,A)</t>
+  </si>
+  <si>
+    <t>Winkel beta E</t>
+  </si>
+  <si>
+    <t>t(E,K)</t>
   </si>
 </sst>
 </file>
@@ -571,7 +595,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -686,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -710,12 +734,14 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -839,7 +865,7 @@
                   <c:v>60.155254699332744</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
-                  <c:v>67.58019522127131</c:v>
+                  <c:v>64.766319218841218</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.000">
                   <c:v>24.790949495208316</c:v>
@@ -857,7 +883,7 @@
                   <c:v>9.0231831486844971</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.000">
-                  <c:v>14.792257221406842</c:v>
+                  <c:v>11.384981305743809</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.000">
                   <c:v>60.524104664456075</c:v>
@@ -911,7 +937,7 @@
                   <c:v>170.87693289077549</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
-                  <c:v>21.146676082669014</c:v>
+                  <c:v>18.462259400649806</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.000">
                   <c:v>34.442148108617786</c:v>
@@ -5676,10 +5702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3EB9C-B317-464D-B407-444709E96AF5}">
-  <dimension ref="A1:AB94"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="K82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V87" sqref="V87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6124,16 +6150,16 @@
         <f>COS(Q14*PI()/200)*R14</f>
         <v>-174.96031559759794</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="W14" s="2">
-        <f>Q77</f>
-        <v>67.58019522127131</v>
-      </c>
-      <c r="X14" s="2">
-        <f>Q78</f>
-        <v>21.146676082669014</v>
+      <c r="W14" s="28">
+        <f>Q86</f>
+        <v>64.766319218841218</v>
+      </c>
+      <c r="X14" s="28">
+        <f>Q87</f>
+        <v>18.462259400649806</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
@@ -6416,7 +6442,7 @@
       </c>
       <c r="W21" s="2">
         <f>Q68</f>
-        <v>14.792257221406842</v>
+        <v>11.384981305743809</v>
       </c>
       <c r="X21" s="2">
         <f>Q69</f>
@@ -7271,8 +7297,12 @@
         <v>76</v>
       </c>
       <c r="Q67">
-        <f>Q65-Q66</f>
-        <v>7.6292631841364056</v>
+        <f>400-(Q65-Q66)</f>
+        <v>392.37073681586361</v>
+      </c>
+      <c r="R67">
+        <f>Q66-Q65+400</f>
+        <v>392.37073681586361</v>
       </c>
     </row>
     <row r="68" spans="3:20" x14ac:dyDescent="0.35">
@@ -7285,7 +7315,11 @@
       </c>
       <c r="Q68">
         <f>Q63+S63*SIN(Q67*(PI()/200))</f>
-        <v>14.792257221406842</v>
+        <v>11.384981305743809</v>
+      </c>
+      <c r="R68">
+        <f>Q63+S63*SIN(Q67*(PI()/200))</f>
+        <v>11.384981305743809</v>
       </c>
     </row>
     <row r="69" spans="3:20" x14ac:dyDescent="0.35">
@@ -7307,6 +7341,10 @@
         <f>R63+S63*COS(Q67*(PI()/200))</f>
         <v>33.737630773642707</v>
       </c>
+      <c r="R69">
+        <f>R63+S63*COS(Q67*(PI()/200))</f>
+        <v>33.737630773642707</v>
+      </c>
     </row>
     <row r="70" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
@@ -7494,7 +7532,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="P80" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>31</v>
+      </c>
+      <c r="R80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>161</v>
       </c>
@@ -7504,19 +7553,51 @@
       <c r="D81" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="P81" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q81" s="2">
+        <f>W11</f>
+        <v>13.088619263575319</v>
+      </c>
+      <c r="R81" s="2">
+        <f>X11</f>
+        <v>19.589835266616333</v>
+      </c>
+      <c r="S81">
+        <v>51.69</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.35">
       <c r="F82" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="P82" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q82" s="2">
+        <f>W24</f>
+        <v>64.976946477111071</v>
+      </c>
+      <c r="R82" s="2">
+        <f>X24</f>
+        <v>35.258571631319739</v>
+      </c>
+      <c r="S82">
+        <v>14.35</v>
+      </c>
+      <c r="T82">
+        <f>(S81^2+S82^2)^0.5</f>
+        <v>53.644930794996839</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>170</v>
       </c>
       <c r="C83" s="2">
         <f>((W11-W21)^2+(X11-X21)^2)^0.5</f>
-        <v>14.25</v>
+        <v>14.249999999999998</v>
       </c>
       <c r="D83">
         <v>14.25</v>
@@ -7533,21 +7614,31 @@
         <f>F83-ABS(E83)</f>
         <v>6.5899337741083003E-2</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="P83" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q83">
+        <f>ATAN(S82/S81)*(200/PI())</f>
+        <v>17.239483599205755</v>
+      </c>
+      <c r="R83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B84" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C84" s="17">
         <f>((W15-W21)^2+(X15-X21)^2)^0.5</f>
-        <v>10.023482022803137</v>
+        <v>13.424467504233258</v>
       </c>
       <c r="D84" s="16">
         <v>12.22</v>
       </c>
       <c r="E84" s="17">
-        <f t="shared" si="0"/>
-        <v>2.1965179771968639</v>
+        <f>D84-C84</f>
+        <v>-1.2044675042332571</v>
       </c>
       <c r="F84" s="21">
         <f t="shared" ref="F84:F94" si="1">0.008*(D84)^0.5+0.0004*D84+0.03</f>
@@ -7555,10 +7646,35 @@
       </c>
       <c r="G84" s="22">
         <f t="shared" ref="G84:G94" si="2">F84-ABS(E84)</f>
-        <v>-2.1336642839281463</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+        <v>-1.1416138109645395</v>
+      </c>
+      <c r="I84" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="J84" s="26">
+        <f>((W15-W11)^2+(X15-X11)^2)^0.5</f>
+        <v>18.908615221820792</v>
+      </c>
+      <c r="K84" s="27">
+        <f>((D83)^2+(D84)^2)^0.5</f>
+        <v>18.772077668707851</v>
+      </c>
+      <c r="L84" s="26">
+        <f>J84-K84</f>
+        <v>0.13653755311294091</v>
+      </c>
+      <c r="P84" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q84">
+        <f>Y11</f>
+        <v>37.498000000000005</v>
+      </c>
+      <c r="R84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>172</v>
       </c>
@@ -7581,8 +7697,19 @@
         <f t="shared" si="2"/>
         <v>6.2837947122498267E-2</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="P85" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q85">
+        <f>ACOS(R85*(PI()/200))*(200/PI())</f>
+        <v>84.1493615059956</v>
+      </c>
+      <c r="R85">
+        <f>(1/T82)+R82-R81</f>
+        <v>15.687377455020432</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>163</v>
       </c>
@@ -7605,8 +7732,19 @@
         <f t="shared" si="2"/>
         <v>2.7111812681067063E-2</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="P86" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q86">
+        <f>Q81+S81*SIN((Q85+Q83)*(PI()/200))</f>
+        <v>64.766319218841218</v>
+      </c>
+      <c r="R86">
+        <f>Q81+S81*SIN(Q85*(PI()/200))</f>
+        <v>63.184704476811405</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>164</v>
       </c>
@@ -7629,8 +7767,19 @@
         <f t="shared" si="2"/>
         <v>-8.4434831451505654E-2</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="P87" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q87">
+        <f>R81+S81*COS((Q85+Q83)*(PI()/200))</f>
+        <v>18.462259400649806</v>
+      </c>
+      <c r="R87">
+        <f>R81+S81*COS(Q85*(PI()/200))</f>
+        <v>32.327117013841232</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>165</v>
       </c>
@@ -7654,7 +7803,7 @@
         <v>0.10607797478369986</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>166</v>
       </c>
@@ -7677,8 +7826,32 @@
         <f t="shared" si="2"/>
         <v>2.0222267725008444E-2</v>
       </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I89" t="s">
+        <v>177</v>
+      </c>
+      <c r="J89" s="2">
+        <f>((W13-W17)^2+(X13-X17)^2)^0.5</f>
+        <v>17.513880348994817</v>
+      </c>
+      <c r="K89">
+        <f>((D89)^2+(D90)^2)^0.5</f>
+        <v>18.938030520621727</v>
+      </c>
+      <c r="L89" s="2">
+        <f>K89-J89</f>
+        <v>1.4241501716269092</v>
+      </c>
+      <c r="P89" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>31</v>
+      </c>
+      <c r="R89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B90" s="6" t="s">
         <v>167</v>
       </c>
@@ -7701,8 +7874,37 @@
         <f t="shared" si="2"/>
         <v>-1.6837489440128046</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I90" t="s">
+        <v>178</v>
+      </c>
+      <c r="J90" s="2">
+        <f>((W18-W22)^2+(X18-X22)^2)^0.5</f>
+        <v>120.85419152962329</v>
+      </c>
+      <c r="K90">
+        <f>((D91)^2+(D90)^2)^0.5</f>
+        <v>121.41148586521787</v>
+      </c>
+      <c r="L90" s="2">
+        <f>K90-J90</f>
+        <v>0.55729433559457675</v>
+      </c>
+      <c r="P90" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q90" s="2">
+        <f>W11</f>
+        <v>13.088619263575319</v>
+      </c>
+      <c r="R90" s="2">
+        <f>X11</f>
+        <v>19.589835266616333</v>
+      </c>
+      <c r="S90">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>168</v>
       </c>
@@ -7725,8 +7927,26 @@
         <f t="shared" si="2"/>
         <v>-2.2173050798089955E-3</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="P91" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q91" s="2">
+        <f>W15</f>
+        <v>24.790949495208316</v>
+      </c>
+      <c r="R91" s="2">
+        <f>X15</f>
+        <v>34.442148108617786</v>
+      </c>
+      <c r="S91">
+        <v>12.22</v>
+      </c>
+      <c r="T91">
+        <f>(S90^2+S91^2)^0.5</f>
+        <v>18.772077668707851</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B92" s="6" t="s">
         <v>169</v>
       </c>
@@ -7749,21 +7969,38 @@
         <f t="shared" si="2"/>
         <v>-1.398319927869353</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="P92" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q92">
+        <f>ATAN(S91/S90)*(200/PI())</f>
+        <v>45.12726318413641</v>
+      </c>
+      <c r="R92" t="s">
+        <v>74</v>
+      </c>
+      <c r="S92" t="s">
+        <v>182</v>
+      </c>
+      <c r="T92">
+        <f>ATAN(S90/S91)*(200/PI())</f>
+        <v>54.87273681586359</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>173</v>
       </c>
       <c r="C93" s="2">
         <f>((W24-W14)^2+(X24-X14)^2)^0.5</f>
-        <v>14.35</v>
+        <v>16.797632821087578</v>
       </c>
       <c r="D93">
         <v>14.35</v>
       </c>
       <c r="E93" s="2">
         <f>D93-C93</f>
-        <v>0</v>
+        <v>-2.4476328210875788</v>
       </c>
       <c r="F93" s="21">
         <f t="shared" si="1"/>
@@ -7771,31 +8008,88 @@
       </c>
       <c r="G93" s="21">
         <f t="shared" si="2"/>
-        <v>6.6045115079801292E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B94" s="19" t="s">
+        <v>-2.3815877060077777</v>
+      </c>
+      <c r="P93" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q93">
+        <f>Q97+T92</f>
+        <v>339.82749295693134</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B94" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C94" s="20">
+      <c r="C94" s="13">
         <f>((W11-W14)^2+(X11-X14)^2)^0.5</f>
-        <v>54.513811127822272</v>
-      </c>
-      <c r="D94" s="19">
         <v>51.69</v>
       </c>
-      <c r="E94" s="18">
+      <c r="D94" s="12">
+        <v>51.69</v>
+      </c>
+      <c r="E94" s="13">
         <f t="shared" si="3"/>
-        <v>-2.8238111278222746</v>
+        <v>0</v>
       </c>
       <c r="F94" s="21">
         <f t="shared" si="1"/>
         <v>0.10819260629765981</v>
       </c>
-      <c r="G94" s="22">
+      <c r="G94" s="24">
         <f t="shared" si="2"/>
-        <v>-2.7156185215246147</v>
+        <v>0.10819260629765981</v>
+      </c>
+      <c r="P94" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q94">
+        <f>ACOS(R94*(PI()/200))*(200/PI())</f>
+        <v>84.954756141067691</v>
+      </c>
+      <c r="R94">
+        <f>(1/T91)+R91-R90</f>
+        <v>14.905583450489665</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="P95" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q95">
+        <f>Q91+S91*SIN(Q93*(PI()/200))</f>
+        <v>14.885334837709912</v>
+      </c>
+      <c r="R95">
+        <f>Q90+S90*SIN(Q94*(PI()/200))</f>
+        <v>26.94252295511248</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="P96" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q96">
+        <f>R91+S91*COS(Q93*(PI()/200))</f>
+        <v>41.598068612449055</v>
+      </c>
+      <c r="R96">
+        <f>R90+S90*COS(Q94*(PI()/200))</f>
+        <v>22.926278358535196</v>
+      </c>
+    </row>
+    <row r="97" spans="16:18" x14ac:dyDescent="0.35">
+      <c r="P97" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q97">
+        <f>ACOS(R94*(PI()/200))*(200/PI())+200</f>
+        <v>284.95475614106772</v>
+      </c>
+      <c r="R97">
+        <f>(1/T91)+R90-R91</f>
+        <v>-14.799042233513244</v>
       </c>
     </row>
   </sheetData>
@@ -7809,8 +8103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D98FD4-8551-4684-AFF3-F1ED8813F6D1}">
   <dimension ref="A2:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9148,7 +9442,7 @@
         <v>14.25</v>
       </c>
       <c r="F64" s="2">
-        <f>E64-D64</f>
+        <f t="shared" ref="F64:F70" si="0">E64-D64</f>
         <v>-1.6106156408568495E-9</v>
       </c>
       <c r="G64" s="21">
@@ -9191,15 +9485,15 @@
         <v>12.22</v>
       </c>
       <c r="F65" s="17">
-        <f>E65-D65</f>
+        <f t="shared" si="0"/>
         <v>-1.2469567558769743</v>
       </c>
       <c r="G65" s="21">
-        <f t="shared" ref="G65:G75" si="0">0.008*(E65)^0.5+0.0004*E65+0.03</f>
+        <f t="shared" ref="G65:G75" si="1">0.008*(E65)^0.5+0.0004*E65+0.03</f>
         <v>6.2853693268717661E-2</v>
       </c>
       <c r="H65" s="22">
-        <f t="shared" ref="H65:H75" si="1">G65-ABS(F65)</f>
+        <f t="shared" ref="H65:H75" si="2">G65-ABS(F65)</f>
         <v>-1.1841030626082567</v>
       </c>
     </row>
@@ -9215,15 +9509,15 @@
         <v>120.83</v>
       </c>
       <c r="F66" s="2">
-        <f>E66-D66</f>
+        <f t="shared" si="0"/>
         <v>5.9607160052095765E-2</v>
       </c>
       <c r="G66" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16627016008991771</v>
       </c>
       <c r="H66" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10666300003782195</v>
       </c>
       <c r="P66" t="s">
@@ -9242,11 +9536,11 @@
         <v>12.22</v>
       </c>
       <c r="F67" s="2">
-        <f>E67-D67</f>
+        <f t="shared" si="0"/>
         <v>-0.14507918236049733</v>
       </c>
       <c r="G67" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2853693268717661E-2</v>
       </c>
       <c r="H67" s="23">
@@ -9266,11 +9560,11 @@
         <v>14.57</v>
       </c>
       <c r="F68" s="2">
-        <f>E68-D68</f>
+        <f t="shared" si="0"/>
         <v>0.14553361863046632</v>
       </c>
       <c r="G68" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.63645354943877E-2</v>
       </c>
       <c r="H68" s="23">
@@ -9293,11 +9587,11 @@
         <v>51.52</v>
       </c>
       <c r="F69" s="2">
-        <f>E69-D69</f>
+        <f t="shared" si="0"/>
         <v>-4.8094051483857925E-3</v>
       </c>
       <c r="G69" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10802994702376435</v>
       </c>
       <c r="H69" s="21">
@@ -9323,11 +9617,11 @@
         <v>14.51</v>
       </c>
       <c r="F70" s="2">
-        <f>E70-D70</f>
+        <f t="shared" si="0"/>
         <v>4.0827210817905524E-2</v>
       </c>
       <c r="G70" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6277595127585451E-2</v>
       </c>
       <c r="H70" s="21">
@@ -9354,15 +9648,15 @@
         <v>12.17</v>
       </c>
       <c r="F71" s="13">
-        <f t="shared" ref="F67:F75" si="2">E71-D71</f>
+        <f t="shared" ref="F71:F75" si="3">E71-D71</f>
         <v>1.2246308857102761E-2</v>
       </c>
       <c r="G71" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2776421668019847E-2</v>
       </c>
       <c r="H71" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0530112810917086E-2</v>
       </c>
       <c r="P71" t="s">
@@ -9389,11 +9683,11 @@
         <v>0.12468106218365449</v>
       </c>
       <c r="G72" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16624724264981816</v>
       </c>
       <c r="H72" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1566180466163671E-2</v>
       </c>
       <c r="P72" t="s">
@@ -9419,15 +9713,15 @@
         <v>12.17</v>
       </c>
       <c r="F73" s="13">
+        <f t="shared" si="3"/>
+        <v>-4.8626518699654397E-2</v>
+      </c>
+      <c r="G73" s="21">
+        <f t="shared" si="1"/>
+        <v>6.2776421668019847E-2</v>
+      </c>
+      <c r="H73" s="24">
         <f t="shared" si="2"/>
-        <v>-4.8626518699654397E-2</v>
-      </c>
-      <c r="G73" s="21">
-        <f t="shared" si="0"/>
-        <v>6.2776421668019847E-2</v>
-      </c>
-      <c r="H73" s="24">
-        <f t="shared" si="1"/>
         <v>1.4149902968365449E-2</v>
       </c>
       <c r="S73">
@@ -9455,11 +9749,11 @@
         <v>-7.0571675227490918</v>
       </c>
       <c r="G74" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6045115079801292E-2</v>
       </c>
       <c r="H74" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.9911224076692902</v>
       </c>
     </row>
@@ -9475,15 +9769,15 @@
         <v>51.69</v>
       </c>
       <c r="F75" s="18">
+        <f t="shared" si="3"/>
+        <v>10.269704174333675</v>
+      </c>
+      <c r="G75" s="21">
+        <f t="shared" si="1"/>
+        <v>0.10819260629765981</v>
+      </c>
+      <c r="H75" s="22">
         <f t="shared" si="2"/>
-        <v>10.269704174333675</v>
-      </c>
-      <c r="G75" s="21">
-        <f t="shared" si="0"/>
-        <v>0.10819260629765981</v>
-      </c>
-      <c r="H75" s="22">
-        <f t="shared" si="1"/>
         <v>-10.161511568036016</v>
       </c>
       <c r="P75" t="s">
@@ -10902,7 +11196,7 @@
         <v>-9.7303053733099887E-4</v>
       </c>
       <c r="H64" s="2">
-        <f>0.008*(E64)^0.5+0.0004*E64+0.03</f>
+        <f t="shared" ref="H64:H75" si="0">0.008*(E64)^0.5+0.0004*E64+0.03</f>
         <v>6.5899337741083003E-2</v>
       </c>
       <c r="I64" s="2">
@@ -10945,15 +11239,15 @@
         <v>12.219165583424518</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" ref="G65:G75" si="0">F65-D65</f>
+        <f t="shared" ref="G65:G75" si="1">F65-D65</f>
         <v>-1.2422174556736589</v>
       </c>
       <c r="H65" s="2">
-        <f>0.008*(E65)^0.5+0.0004*E65+0.03</f>
+        <f t="shared" si="0"/>
         <v>6.2853693268717661E-2</v>
       </c>
       <c r="I65" s="11">
-        <f t="shared" ref="I65:I75" si="1">H65-ABS(G65)</f>
+        <f t="shared" ref="I65:I75" si="2">H65-ABS(G65)</f>
         <v>-1.1793637624049413</v>
       </c>
     </row>
@@ -10973,15 +11267,15 @@
         <v>120.82174938176632</v>
       </c>
       <c r="G66" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10342515036192879</v>
+      </c>
+      <c r="H66" s="2">
         <f t="shared" si="0"/>
-        <v>0.10342515036192879</v>
-      </c>
-      <c r="H66" s="2">
-        <f>0.008*(E66)^0.5+0.0004*E66+0.03</f>
         <v>0.16627016008991771</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2845009727988926E-2</v>
       </c>
       <c r="P66" t="s">
@@ -11004,11 +11298,11 @@
         <v>12.219165583424518</v>
       </c>
       <c r="G67" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.14055074588101135</v>
+      </c>
+      <c r="H67" s="2">
         <f t="shared" si="0"/>
-        <v>-0.14055074588101135</v>
-      </c>
-      <c r="H67" s="2">
-        <f>0.008*(E67)^0.5+0.0004*E67+0.03</f>
         <v>6.2853693268717661E-2</v>
       </c>
       <c r="I67" s="25">
@@ -11032,11 +11326,11 @@
         <v>14.569005118698463</v>
       </c>
       <c r="G68" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15078907047830192</v>
+      </c>
+      <c r="H68" s="2">
         <f t="shared" si="0"/>
-        <v>0.15078907047830192</v>
-      </c>
-      <c r="H68" s="2">
-        <f>0.008*(E68)^0.5+0.0004*E68+0.03</f>
         <v>6.63645354943877E-2</v>
       </c>
       <c r="I68" s="25">
@@ -11063,11 +11357,11 @@
         <v>51.516482066941997</v>
       </c>
       <c r="G69" s="2">
+        <f t="shared" si="1"/>
+        <v>1.430158614988386E-2</v>
+      </c>
+      <c r="H69" s="2">
         <f t="shared" si="0"/>
-        <v>1.430158614988386E-2</v>
-      </c>
-      <c r="H69" s="2">
-        <f>0.008*(E69)^0.5+0.0004*E69+0.03</f>
         <v>0.10802994702376435</v>
       </c>
       <c r="I69" s="2">
@@ -11097,11 +11391,11 @@
         <v>14.509009215670192</v>
       </c>
       <c r="G70" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6052182094722838E-2</v>
+      </c>
+      <c r="H70" s="2">
         <f t="shared" si="0"/>
-        <v>4.6052182094722838E-2</v>
-      </c>
-      <c r="H70" s="2">
-        <f>0.008*(E70)^0.5+0.0004*E70+0.03</f>
         <v>6.6277595127585451E-2</v>
       </c>
       <c r="I70" s="2">
@@ -11132,15 +11426,15 @@
         <v>12.169168997567626</v>
       </c>
       <c r="G71" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6811326064742005E-2</v>
+      </c>
+      <c r="H71" s="2">
         <f t="shared" si="0"/>
-        <v>1.6811326064742005E-2</v>
-      </c>
-      <c r="H71" s="2">
-        <f>0.008*(E71)^0.5+0.0004*E71+0.03</f>
         <v>6.2776421668019847E-2</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5965095603277842E-2</v>
       </c>
       <c r="P71" t="s">
@@ -11167,15 +11461,15 @@
         <v>120.79175143025219</v>
       </c>
       <c r="G72" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1684530447553243</v>
+      </c>
+      <c r="H72" s="2">
         <f t="shared" si="0"/>
-        <v>0.1684530447553243</v>
-      </c>
-      <c r="H72" s="2">
-        <f>0.008*(E72)^0.5+0.0004*E72+0.03</f>
         <v>0.16624724264981816</v>
       </c>
       <c r="I72" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.2058021055061383E-3</v>
       </c>
       <c r="P72" t="s">
@@ -11205,15 +11499,15 @@
         <v>12.169168997567626</v>
       </c>
       <c r="G73" s="2">
+        <f t="shared" si="1"/>
+        <v>-4.419768696488191E-2</v>
+      </c>
+      <c r="H73" s="2">
         <f t="shared" si="0"/>
-        <v>-4.419768696488191E-2</v>
-      </c>
-      <c r="H73" s="2">
-        <f>0.008*(E73)^0.5+0.0004*E73+0.03</f>
         <v>6.2776421668019847E-2</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8578734703137936E-2</v>
       </c>
       <c r="S73">
@@ -11241,15 +11535,15 @@
         <v>14.349020140928136</v>
       </c>
       <c r="G74" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.0555489958165687</v>
+      </c>
+      <c r="H74" s="2">
         <f t="shared" si="0"/>
-        <v>-7.0555489958165687</v>
-      </c>
-      <c r="H74" s="2">
-        <f>0.008*(E74)^0.5+0.0004*E74+0.03</f>
         <v>6.6045115079801292E-2</v>
       </c>
       <c r="I74" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.9895038807367671</v>
       </c>
     </row>
@@ -11269,15 +11563,15 @@
         <v>51.686470458855425</v>
       </c>
       <c r="G75" s="2">
+        <f t="shared" si="1"/>
+        <v>10.282652803750381</v>
+      </c>
+      <c r="H75" s="2">
         <f t="shared" si="0"/>
-        <v>10.282652803750381</v>
-      </c>
-      <c r="H75" s="2">
-        <f>0.008*(E75)^0.5+0.0004*E75+0.03</f>
         <v>0.10819260629765981</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-10.174460197452721</v>
       </c>
       <c r="P75" t="s">

--- a/uebung2_ringpolygon.xlsx
+++ b/uebung2_ringpolygon.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgit\geo_inf\GeodäsieGrundlagen1\uebung2\GG1_Uebung2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E697A5-99F8-466E-B5BD-506F51D60CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F2A5AB-BDDB-459F-B82D-C01990411E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="GK" sheetId="2" r:id="rId2"/>
-    <sheet name="UTM" sheetId="3" r:id="rId3"/>
+    <sheet name="UTM_KOORDS" sheetId="2" r:id="rId2"/>
+    <sheet name="GK_KOORDS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="212">
   <si>
     <t>Standpunkt 3021A</t>
   </si>
@@ -587,6 +587,90 @@
   </si>
   <si>
     <t>t(E,K)</t>
+  </si>
+  <si>
+    <t>Absteckung</t>
+  </si>
+  <si>
+    <t>Seite 1 (P3021A - P1)</t>
+  </si>
+  <si>
+    <t>Festpunkt E</t>
+  </si>
+  <si>
+    <t>Anschlusspunkt F</t>
+  </si>
+  <si>
+    <t>Absteckwinkel</t>
+  </si>
+  <si>
+    <t>Absteckstrecke</t>
+  </si>
+  <si>
+    <t>s (E,F)</t>
+  </si>
+  <si>
+    <t>Absteckweite</t>
+  </si>
+  <si>
+    <t>Seite 2 (P1 - P2)</t>
+  </si>
+  <si>
+    <t>Festpunkt B</t>
+  </si>
+  <si>
+    <t>Anschlusspunkt C</t>
+  </si>
+  <si>
+    <t>s (B,C)</t>
+  </si>
+  <si>
+    <t>Seite 3 (P2 - P3)</t>
+  </si>
+  <si>
+    <t>Festpunkt G</t>
+  </si>
+  <si>
+    <t>Anschlusspunkt H</t>
+  </si>
+  <si>
+    <t>s (G,H)</t>
+  </si>
+  <si>
+    <t>Seite 2 (P3 - P0)</t>
+  </si>
+  <si>
+    <t>Festpunkt A</t>
+  </si>
+  <si>
+    <t>Anschlusspunkt D</t>
+  </si>
+  <si>
+    <t>s (A,D)</t>
+  </si>
+  <si>
+    <t>Absteckpunkt</t>
+  </si>
+  <si>
+    <t>Fest- Anschlusspunkt</t>
+  </si>
+  <si>
+    <t>E, F</t>
+  </si>
+  <si>
+    <t>B, C</t>
+  </si>
+  <si>
+    <t>G, H</t>
+  </si>
+  <si>
+    <t>A, D</t>
+  </si>
+  <si>
+    <t>x Ostwert</t>
+  </si>
+  <si>
+    <t>y Hochwert</t>
   </si>
 </sst>
 </file>
@@ -597,7 +681,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,8 +725,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +789,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -710,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -742,6 +846,12 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1249,7 +1359,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>GK!$S$3:$S$81</c:f>
+              <c:f>UTM_KOORDS!$S$3:$S$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
@@ -1324,7 +1434,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>GK!$T$3:$T$81</c:f>
+              <c:f>UTM_KOORDS!$T$3:$T$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
@@ -1669,7 +1779,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>UTM!$S$3:$S$32</c:f>
+              <c:f>GK_KOORDS!$S$3:$S$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1714,7 +1824,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>UTM!$T$3:$T$32</c:f>
+              <c:f>GK_KOORDS!$T$3:$T$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1769,7 +1879,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>UTM!$S$17:$S$32</c:f>
+              <c:f>GK_KOORDS!$S$17:$S$32</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1841,7 +1951,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>UTM!$S$17:$S$33</c:f>
+              <c:f>GK_KOORDS!$S$17:$S$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1865,7 +1975,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>UTM!$T$17:$T$32</c:f>
+              <c:f>GK_KOORDS!$T$17:$T$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1899,7 +2009,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>GK!$R$37</c:f>
+              <c:f>UTM_KOORDS!$R$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1932,7 +2042,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>GK!$S$35:$S$42</c:f>
+              <c:f>UTM_KOORDS!$S$35:$S$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1947,7 +2057,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>GK!$T$35:$T$42</c:f>
+              <c:f>UTM_KOORDS!$T$35:$T$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1997,7 +2107,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>GK!$S$45:$S$65</c:f>
+              <c:f>UTM_KOORDS!$S$45:$S$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2024,7 +2134,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>GK!$T$45:$T$64</c:f>
+              <c:f>UTM_KOORDS!$T$45:$T$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2086,7 +2196,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>GK!$S$71:$S$93</c:f>
+              <c:f>UTM_KOORDS!$S$71:$S$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -2101,7 +2211,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>GK!$T$71:$T$93</c:f>
+              <c:f>UTM_KOORDS!$T$71:$T$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -2386,7 +2496,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>UTM!$S$3:$S$32</c:f>
+              <c:f>GK_KOORDS!$S$3:$S$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2431,7 +2541,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>UTM!$T$3:$T$32</c:f>
+              <c:f>GK_KOORDS!$T$3:$T$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2486,7 +2596,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>UTM!$S$17:$S$32</c:f>
+              <c:f>GK_KOORDS!$S$17:$S$32</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -2558,7 +2668,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>UTM!$S$17:$S$33</c:f>
+              <c:f>GK_KOORDS!$S$17:$S$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2582,7 +2692,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>UTM!$T$17:$T$32</c:f>
+              <c:f>GK_KOORDS!$T$17:$T$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2616,7 +2726,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>UTM!$R$37</c:f>
+              <c:f>GK_KOORDS!$R$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2649,7 +2759,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>UTM!$S$35:$S$42</c:f>
+              <c:f>GK_KOORDS!$S$35:$S$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2664,7 +2774,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>UTM!$T$35:$T$42</c:f>
+              <c:f>GK_KOORDS!$T$35:$T$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2714,7 +2824,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>UTM!$S$45:$S$65</c:f>
+              <c:f>GK_KOORDS!$S$45:$S$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2741,7 +2851,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>UTM!$T$45:$T$64</c:f>
+              <c:f>GK_KOORDS!$T$45:$T$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2803,7 +2913,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>UTM!$S$71:$S$93</c:f>
+              <c:f>GK_KOORDS!$S$71:$S$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -2818,7 +2928,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>UTM!$T$71:$T$93</c:f>
+              <c:f>GK_KOORDS!$T$71:$T$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -5704,8 +5814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3EB9C-B317-464D-B407-444709E96AF5}">
   <dimension ref="A1:AB97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V87" sqref="V87"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5719,7 +5829,10 @@
     <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="22" max="22" width="17.81640625" customWidth="1"/>
+    <col min="25" max="25" width="14.1796875" customWidth="1"/>
+    <col min="26" max="26" width="19.36328125" customWidth="1"/>
+    <col min="27" max="27" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
@@ -6716,11 +6829,11 @@
       <c r="V28" t="s">
         <v>54</v>
       </c>
-      <c r="W28" s="11">
+      <c r="W28" s="13">
         <f>D75</f>
         <v>82.438958935469117</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X28" s="13">
         <f>D76</f>
         <v>68.640199061751417</v>
       </c>
@@ -6804,7 +6917,7 @@
         <v>75.316999999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2</v>
       </c>
@@ -6830,7 +6943,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -6857,8 +6970,11 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="V35" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -6876,7 +6992,7 @@
         <v>98.882000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -6893,8 +7009,26 @@
         <f>Q36+200+(400-I23)-400</f>
         <v>196.67100000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="V37" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="W37" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P38" t="s">
         <v>60</v>
       </c>
@@ -6902,13 +7036,50 @@
         <f>Q37+200+(400-I16)-400</f>
         <v>293.83000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="V38" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="W38" s="12">
+        <v>50</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA38" s="2">
+        <f>W43</f>
+        <v>355.98726155955796</v>
+      </c>
+      <c r="AB38" s="2">
+        <f>W44</f>
+        <v>78.421758619658604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="V39" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y39">
+        <v>2</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA39" s="2">
+        <f>W53</f>
+        <v>350.95310259624915</v>
+      </c>
+      <c r="AB39" s="2">
+        <f>W54</f>
+        <v>35.89676308526996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>13</v>
       </c>
@@ -6918,8 +7089,25 @@
       <c r="K40">
         <v>115.46299999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="V40" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y40">
+        <v>3</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA40" s="2">
+        <f>W63</f>
+        <v>355.979496724591</v>
+      </c>
+      <c r="AB40" s="2">
+        <f>W64</f>
+        <v>78.410203417667518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>2</v>
       </c>
@@ -6929,8 +7117,28 @@
       <c r="K41">
         <v>68.772999999999996</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="V41" t="s">
+        <v>190</v>
+      </c>
+      <c r="W41">
+        <v>120.83</v>
+      </c>
+      <c r="Y41">
+        <v>4</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA41" s="2">
+        <f>W73</f>
+        <v>48.942090294142709</v>
+      </c>
+      <c r="AB41" s="2">
+        <f>W74</f>
+        <v>35.957808957165341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>22</v>
       </c>
@@ -6940,8 +7148,15 @@
       <c r="K42">
         <v>53.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="V42" t="s">
+        <v>52</v>
+      </c>
+      <c r="W42" s="21">
+        <f>ATAN(W38/(W41/2))*(200/PI())</f>
+        <v>44.012738440442035</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>23</v>
       </c>
@@ -6951,13 +7166,27 @@
       <c r="K43">
         <v>89.162999999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="V43" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="W43" s="32">
+        <f>400-W42</f>
+        <v>355.98726155955796</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="P44" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="V44" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="W44" s="32">
+        <f>(W38^2+(W41/2)^2)^0.5</f>
+        <v>78.421758619658604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -6965,7 +7194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>14</v>
       </c>
@@ -6984,7 +7213,7 @@
       </c>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>3</v>
       </c>
@@ -7005,8 +7234,14 @@
         <f>ASIN(Q47)*(200/PI())</f>
         <v>7.9125696547694231</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="V47" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="W47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>25</v>
       </c>
@@ -7024,8 +7259,14 @@
         <v>-14.314016515102081</v>
       </c>
       <c r="R48" s="2"/>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V48" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="W48" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>26</v>
       </c>
@@ -7043,8 +7284,11 @@
         <v>114.57230599148026</v>
       </c>
       <c r="R49" s="2"/>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>27</v>
       </c>
@@ -7056,8 +7300,11 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>28</v>
       </c>
@@ -7075,8 +7322,14 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V51" t="s">
+        <v>195</v>
+      </c>
+      <c r="W51" s="2">
+        <v>51.52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.35">
       <c r="P52" s="12" t="s">
         <v>62</v>
       </c>
@@ -7085,8 +7338,15 @@
         <v>175.19900000000001</v>
       </c>
       <c r="R52" s="13"/>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V52" t="s">
+        <v>52</v>
+      </c>
+      <c r="W52" s="2">
+        <f>ATAN(W48/(W51/2))*(200/PI())</f>
+        <v>49.046897403750847</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
       <c r="P53" s="12" t="s">
         <v>65</v>
       </c>
@@ -7098,8 +7358,15 @@
         <f>ASIN(Q53)*(200/PI())</f>
         <v>1.1852692604995791</v>
       </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V53" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="W53" s="33">
+        <f>400-W52</f>
+        <v>350.95310259624915</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.35">
       <c r="P54" s="12" t="s">
         <v>31</v>
       </c>
@@ -7111,8 +7378,15 @@
       <c r="S54" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V54" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="W54" s="33">
+        <f>(W48^2+(W51/2)^2)^0.5</f>
+        <v>35.89676308526996</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C55" s="15" t="s">
         <v>149</v>
       </c>
@@ -7130,7 +7404,7 @@
         <v>68.511748122389605</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C56" s="14" t="s">
         <v>150</v>
       </c>
@@ -7146,7 +7420,7 @@
         <v>0.62471001543931237</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.35">
       <c r="P57" s="12" t="s">
         <v>67</v>
       </c>
@@ -7155,13 +7429,25 @@
         <v>197.29571001543934</v>
       </c>
       <c r="R57" s="13"/>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V57" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="W57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V58" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="W58" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>144</v>
       </c>
@@ -7169,8 +7455,11 @@
         <f>K6-K31</f>
         <v>-4.9999999999954525E-3</v>
       </c>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>145</v>
       </c>
@@ -7181,8 +7470,11 @@
       <c r="P60" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
         <v>146</v>
       </c>
@@ -7190,8 +7482,14 @@
         <f>K22-K16</f>
         <v>3.0000000000143245E-3</v>
       </c>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V61" t="s">
+        <v>199</v>
+      </c>
+      <c r="W61" s="2">
+        <v>120.8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>147</v>
       </c>
@@ -7211,8 +7509,15 @@
       <c r="S62" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V62" t="s">
+        <v>52</v>
+      </c>
+      <c r="W62" s="2">
+        <f>ATAN(W58/(W61/2))*(200/PI())</f>
+        <v>44.020503275408977</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.35">
       <c r="P63" t="s">
         <v>70</v>
       </c>
@@ -7227,8 +7532,15 @@
       <c r="S63">
         <v>14.25</v>
       </c>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V63" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="W63" s="33">
+        <f>400-W62</f>
+        <v>355.979496724591</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C64" s="14" t="s">
         <v>151</v>
       </c>
@@ -7246,8 +7558,15 @@
       <c r="S64">
         <v>12.22</v>
       </c>
-    </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="V64" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="W64" s="33">
+        <f>(W58^2+(W61/2)^2)^0.5</f>
+        <v>78.410203417667518</v>
+      </c>
+    </row>
+    <row r="65" spans="3:23" x14ac:dyDescent="0.35">
       <c r="P65" t="s">
         <v>72</v>
       </c>
@@ -7258,8 +7577,9 @@
       <c r="R65" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="W65" s="2"/>
+    </row>
+    <row r="66" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C66" s="9" t="s">
         <v>152</v>
       </c>
@@ -7276,8 +7596,9 @@
       <c r="R66" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="W66" s="2"/>
+    </row>
+    <row r="67" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>157</v>
       </c>
@@ -7304,8 +7625,14 @@
         <f>Q66-Q65+400</f>
         <v>392.37073681586361</v>
       </c>
-    </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="V67" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="3:23" x14ac:dyDescent="0.35">
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
         <v>155</v>
@@ -7321,8 +7648,14 @@
         <f>Q63+S63*SIN(Q67*(PI()/200))</f>
         <v>11.384981305743809</v>
       </c>
-    </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="V68" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="W68" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>154</v>
       </c>
@@ -7345,8 +7678,12 @@
         <f>R63+S63*COS(Q67*(PI()/200))</f>
         <v>33.737630773642707</v>
       </c>
-    </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="V69" t="s">
+        <v>201</v>
+      </c>
+      <c r="W69" s="2"/>
+    </row>
+    <row r="70" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>32</v>
       </c>
@@ -7358,8 +7695,12 @@
         <f>Q49-D70</f>
         <v>3.1957679920253668E-3</v>
       </c>
-    </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="V70" t="s">
+        <v>202</v>
+      </c>
+      <c r="W70" s="2"/>
+    </row>
+    <row r="71" spans="3:23" x14ac:dyDescent="0.35">
       <c r="P71" t="s">
         <v>41</v>
       </c>
@@ -7372,8 +7713,14 @@
       <c r="S71" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="V71" t="s">
+        <v>203</v>
+      </c>
+      <c r="W71" s="2">
+        <v>51.69</v>
+      </c>
+    </row>
+    <row r="72" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C72" s="9" t="s">
         <v>156</v>
       </c>
@@ -7394,8 +7741,15 @@
       <c r="S72">
         <v>14.35</v>
       </c>
-    </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="V72" t="s">
+        <v>52</v>
+      </c>
+      <c r="W72" s="2">
+        <f>ATAN(W68/(W71/2))*(200/PI())</f>
+        <v>48.942090294142709</v>
+      </c>
+    </row>
+    <row r="73" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
         <v>66</v>
       </c>
@@ -7428,8 +7782,15 @@
       <c r="T73">
         <v>12.17</v>
       </c>
-    </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="V73" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="W73" s="33">
+        <f>W72</f>
+        <v>48.942090294142709</v>
+      </c>
+    </row>
+    <row r="74" spans="3:23" x14ac:dyDescent="0.35">
       <c r="E74" t="s">
         <v>155</v>
       </c>
@@ -7440,8 +7801,15 @@
         <f>ATAN(S72/T73)*(200/PI())</f>
         <v>55.221409395296327</v>
       </c>
-    </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="V74" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="W74" s="33">
+        <f>(W68^2+(W71/2)^2)^0.5</f>
+        <v>35.957808957165341</v>
+      </c>
+    </row>
+    <row r="75" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>31</v>
       </c>
@@ -7464,7 +7832,7 @@
         <v>233.38671001543935</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>32</v>
       </c>
@@ -7498,7 +7866,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:23" x14ac:dyDescent="0.35">
       <c r="I77" t="s">
         <v>159</v>
       </c>
@@ -7518,7 +7886,7 @@
         <v>67.58019522127131</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:23" x14ac:dyDescent="0.35">
       <c r="P78" t="s">
         <v>88</v>
       </c>
@@ -7527,12 +7895,12 @@
         <v>21.146676082669014</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C79" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:23" x14ac:dyDescent="0.35">
       <c r="P80" t="s">
         <v>41</v>
       </c>
@@ -7603,10 +7971,10 @@
         <v>14.25</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" ref="E83:E84" si="0">D83-C83</f>
-        <v>0</v>
-      </c>
-      <c r="F83" s="21">
+        <f t="shared" ref="E83" si="0">D83-C83</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
         <f>0.008*(D83)^0.5+0.0004*D83+0.03</f>
         <v>6.5899337741083003E-2</v>
       </c>
@@ -7640,7 +8008,7 @@
         <f>D84-C84</f>
         <v>-1.2044675042332571</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F84" s="2">
         <f t="shared" ref="F84:F94" si="1">0.008*(D84)^0.5+0.0004*D84+0.03</f>
         <v>6.2853693268717661E-2</v>
       </c>
@@ -7689,7 +8057,7 @@
         <f>D85-C85</f>
         <v>0.10343221296741945</v>
       </c>
-      <c r="F85" s="21">
+      <c r="F85" s="2">
         <f t="shared" si="1"/>
         <v>0.16627016008991771</v>
       </c>
@@ -7724,7 +8092,7 @@
         <f t="shared" ref="E86:E94" si="3">D86-C86</f>
         <v>3.5741880587650598E-2</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="2">
         <f t="shared" si="1"/>
         <v>6.2853693268717661E-2</v>
       </c>
@@ -7759,7 +8127,7 @@
         <f>D87-C87</f>
         <v>0.15079936694589335</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="2">
         <f t="shared" si="1"/>
         <v>6.63645354943877E-2</v>
       </c>
@@ -7794,7 +8162,7 @@
         <f t="shared" si="3"/>
         <v>1.9519722400644923E-3</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="2">
         <f t="shared" si="1"/>
         <v>0.10802994702376435</v>
       </c>
@@ -7818,7 +8186,7 @@
         <f t="shared" si="3"/>
         <v>4.6055327402577007E-2</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F89" s="2">
         <f t="shared" si="1"/>
         <v>6.6277595127585451E-2</v>
       </c>
@@ -7866,7 +8234,7 @@
         <f t="shared" si="3"/>
         <v>1.7465253656808244</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="2">
         <f t="shared" si="1"/>
         <v>6.2776421668019847E-2</v>
       </c>
@@ -7919,7 +8287,7 @@
         <f>D91-C91</f>
         <v>0.16846454772962716</v>
       </c>
-      <c r="F91" s="21">
+      <c r="F91" s="2">
         <f t="shared" si="1"/>
         <v>0.16624724264981816</v>
       </c>
@@ -7961,7 +8329,7 @@
         <f t="shared" si="3"/>
         <v>-1.4610963495373728</v>
       </c>
-      <c r="F92" s="21">
+      <c r="F92" s="2">
         <f t="shared" si="1"/>
         <v>6.2776421668019847E-2</v>
       </c>
@@ -7988,21 +8356,21 @@
       </c>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B93" t="s">
+      <c r="B93" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="20">
         <f>((W24-W14)^2+(X24-X14)^2)^0.5</f>
         <v>16.797632821087578</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="19">
         <v>14.35</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="20">
         <f>D93-C93</f>
         <v>-2.4476328210875788</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="2">
         <f t="shared" si="1"/>
         <v>6.6045115079801292E-2</v>
       </c>
@@ -8033,7 +8401,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F94" s="21">
+      <c r="F94" s="2">
         <f t="shared" si="1"/>
         <v>0.10819260629765981</v>
       </c>
@@ -8101,10 +8469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D98FD4-8551-4684-AFF3-F1ED8813F6D1}">
-  <dimension ref="A2:X81"/>
+  <dimension ref="A2:AC81"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8118,9 +8486,11 @@
     <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.36328125" customWidth="1"/>
     <col min="22" max="22" width="16.26953125" customWidth="1"/>
+    <col min="28" max="28" width="13.6328125" customWidth="1"/>
+    <col min="29" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
@@ -8157,7 +8527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -8182,7 +8552,7 @@
         <v>5334182.2300000004</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="O4" t="s">
         <v>92</v>
       </c>
@@ -8201,8 +8571,17 @@
       <c r="V4" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8243,8 +8622,19 @@
       <c r="T5">
         <v>5335904.7699999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <f>T4</f>
+        <v>5334162.2300000004</v>
+      </c>
+      <c r="AC5">
+        <f>S4</f>
+        <v>32691104.289999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -8285,8 +8675,19 @@
       <c r="V6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA6" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB6">
+        <f>T5</f>
+        <v>5335904.7699999996</v>
+      </c>
+      <c r="AC6">
+        <f>S5</f>
+        <v>32691225.013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -8332,8 +8733,19 @@
         <f>T5-T4</f>
         <v>1742.5399999991059</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA7" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <f>T9</f>
+        <v>5335937.8688882738</v>
+      </c>
+      <c r="AC7">
+        <f>S9</f>
+        <v>32691046.149110068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -8359,8 +8771,19 @@
       <c r="X8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB8">
+        <f>T10</f>
+        <v>5336012.1847437089</v>
+      </c>
+      <c r="AC8">
+        <f>S10</f>
+        <v>32691058.555756066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8395,8 +8818,19 @@
         <v>5335937.8688882738</v>
       </c>
       <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA9" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <f>T11</f>
+        <v>5335989.3449267028</v>
+      </c>
+      <c r="AC9">
+        <f>S11</f>
+        <v>32691232.324325249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -8441,7 +8875,7 @@
         <v>8.8069188424111822</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -8482,7 +8916,7 @@
         <v>311.64891884241121</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="L12" s="2"/>
       <c r="R12" t="s">
         <v>29</v>
@@ -8503,7 +8937,7 @@
         <v>10.530918842411211</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -8516,7 +8950,7 @@
         <v>108.3199188424112</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="L14" s="2"/>
       <c r="V14" t="s">
         <v>104</v>
@@ -8526,7 +8960,7 @@
         <v>205.47891884241119</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -8562,7 +8996,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -9849,10 +10283,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A131327-E1C9-4DF2-884D-F315D8715444}">
-  <dimension ref="A2:X81"/>
+  <dimension ref="A2:AC81"/>
   <sheetViews>
-    <sheetView topLeftCell="I58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9866,7 +10300,7 @@
     <col min="22" max="22" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
@@ -9903,7 +10337,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -9928,7 +10362,7 @@
         <v>5334182.2300000004</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="O4" t="s">
         <v>92</v>
       </c>
@@ -9947,8 +10381,17 @@
       <c r="V4" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -9989,8 +10432,19 @@
       <c r="T5">
         <v>5334489.3499999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <f>T4</f>
+        <v>5334162.2300000004</v>
+      </c>
+      <c r="AC5">
+        <f>S4</f>
+        <v>4468045.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -10031,8 +10485,19 @@
       <c r="V6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA6" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB6">
+        <f>T5</f>
+        <v>5334489.3499999996</v>
+      </c>
+      <c r="AC6">
+        <f>S5</f>
+        <v>4468179.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -10078,8 +10543,19 @@
         <f>T5-T4</f>
         <v>327.11999999918044</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA7" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <f>T9</f>
+        <v>5334522.4345107619</v>
+      </c>
+      <c r="AC7">
+        <f>S9</f>
+        <v>4468000.2438050555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -10105,8 +10581,19 @@
       <c r="X8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB8">
+        <f>T10</f>
+        <v>5334596.7183158556</v>
+      </c>
+      <c r="AC8">
+        <f>S10</f>
+        <v>4468012.6451004166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -10141,8 +10628,19 @@
         <v>5334522.4345107619</v>
       </c>
       <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA9" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <f>T11</f>
+        <v>5334573.8884181203</v>
+      </c>
+      <c r="AC9">
+        <f>S11</f>
+        <v>4468186.3382023834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -10179,7 +10677,7 @@
         <v>96</v>
       </c>
       <c r="W10" s="2">
-        <f>GK!W10</f>
+        <f>UTM_KOORDS!W10</f>
         <v>8.8069188424111822</v>
       </c>
       <c r="X10">
@@ -10187,7 +10685,7 @@
         <v>49.344944510235905</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -10228,7 +10726,7 @@
         <v>311.64891884241121</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="L12" s="2"/>
       <c r="R12" t="s">
         <v>29</v>
@@ -10249,7 +10747,7 @@
         <v>10.530918842411211</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -10262,7 +10760,7 @@
         <v>108.3199188424112</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="L14" s="2"/>
       <c r="V14" t="s">
         <v>104</v>
@@ -10272,7 +10770,7 @@
         <v>205.47891884241119</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -10308,7 +10806,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>14</v>
       </c>

--- a/uebung2_ringpolygon.xlsx
+++ b/uebung2_ringpolygon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgit\geo_inf\GeodäsieGrundlagen1\uebung2\GG1_Uebung2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F2A5AB-BDDB-459F-B82D-C01990411E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8669CA6A-B829-4295-A5B5-BBFBCFC89648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{322649BC-9BD6-49F6-A3FA-A1E1C677AF44}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="241">
   <si>
     <t>Standpunkt 3021A</t>
   </si>
@@ -127,9 +127,6 @@
     <t>P3021A</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -671,6 +668,108 @@
   </si>
   <si>
     <t>y Hochwert</t>
+  </si>
+  <si>
+    <t>Ringpolygonzug Winkelkontrolle</t>
+  </si>
+  <si>
+    <t>Außenwinkel</t>
+  </si>
+  <si>
+    <t>∑</t>
+  </si>
+  <si>
+    <t>∆</t>
+  </si>
+  <si>
+    <t>Verbesserung</t>
+  </si>
+  <si>
+    <t>Streckenkontrolle von mehrfach gemessenen Strecken</t>
+  </si>
+  <si>
+    <t>Strecke</t>
+  </si>
+  <si>
+    <t>P3021A - P1</t>
+  </si>
+  <si>
+    <t>P1 - P3021A</t>
+  </si>
+  <si>
+    <t>P1- P2</t>
+  </si>
+  <si>
+    <t>P2 - P1</t>
+  </si>
+  <si>
+    <t>P2 - P3</t>
+  </si>
+  <si>
+    <t>P3 - P2</t>
+  </si>
+  <si>
+    <t>P3 - P3021A</t>
+  </si>
+  <si>
+    <t>P3021A - P3</t>
+  </si>
+  <si>
+    <t>s [m]</t>
+  </si>
+  <si>
+    <t>s[m] Mittel</t>
+  </si>
+  <si>
+    <r>
+      <t>∆</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>Ausgangspunkt</t>
+  </si>
+  <si>
+    <t>Objektpunkt</t>
+  </si>
+  <si>
+    <t>t [gon]</t>
+  </si>
+  <si>
+    <t>ds Koods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontrolle </t>
+  </si>
+  <si>
+    <t>B-J</t>
+  </si>
+  <si>
+    <t>s gemessen</t>
+  </si>
+  <si>
+    <t>s berechnet (koordinaten)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>C - L</t>
+  </si>
+  <si>
+    <t>erlaubte Abweichung</t>
+  </si>
+  <si>
+    <t>B-C</t>
   </si>
 </sst>
 </file>
@@ -681,7 +780,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,6 +828,33 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.35"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -814,13 +940,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -852,6 +975,16 @@
     <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -946,144 +1079,120 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$W$4:$W$29</c:f>
+              <c:f>Tabelle1!$X$4:$X$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>181.83600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>75.317828093290672</c:v>
+                  <c:v>183.15417587465905</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.000">
-                  <c:v>84.442221719475583</c:v>
+                  <c:v>8.1959047818665169</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.000">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.000">
-                  <c:v>13.088619263575319</c:v>
+                  <c:v>19.589835266616333</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.000">
-                  <c:v>8.664302048364835</c:v>
+                  <c:v>169.20628400894537</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.000">
-                  <c:v>60.155254699332744</c:v>
+                  <c:v>170.87510876543453</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
-                  <c:v>64.766319218841218</c:v>
+                  <c:v>18.460731557749131</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.000">
-                  <c:v>24.790949495208316</c:v>
+                  <c:v>34.442148108617786</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.000">
-                  <c:v>21.203136861863506</c:v>
+                  <c:v>155.11539191247425</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.101304731183944</c:v>
+                  <c:v>156.53446390835549</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51.361488805549023</c:v>
+                  <c:v>35.909510927344627</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.000">
-                  <c:v>9.0231831486844971</c:v>
+                  <c:v>154.79155018371983</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.000">
-                  <c:v>11.384981305743809</c:v>
+                  <c:v>33.737630773642707</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.000">
-                  <c:v>60.524104664456075</c:v>
+                  <c:v>156.41586794182325</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.000">
-                  <c:v>62.236400256803108</c:v>
+                  <c:v>156.84128754044556</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.000">
-                  <c:v>64.976946477111071</c:v>
+                  <c:v>35.25674750597878</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.000">
-                  <c:v>-199.80074199664847</c:v>
+                  <c:v>-8.925441030487848</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.000">
-                  <c:v>-14.314016515102081</c:v>
+                  <c:v>114.57230599148026</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.000">
-                  <c:v>82.438958935469117</c:v>
+                  <c:v>68.638374936410457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$X$4:$X$29</c:f>
+              <c:f>Tabelle1!$Y$4:$Y$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
+                <c:ptCount val="25"/>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>181.83600000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>183.15600000000001</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.000">
-                  <c:v>8.1877278812021643</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.000">
-                  <c:v>4.0551907112629237E-4</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.000">
-                  <c:v>19.589835266616333</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.000">
-                  <c:v>169.20628400894537</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.000">
-                  <c:v>170.87693289077549</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.000">
-                  <c:v>18.462259400649806</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.000">
-                  <c:v>34.442148108617786</c:v>
+                <c:pt idx="7">
+                  <c:v>37.498000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161.721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.66499999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171.0964303452306</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.000">
-                  <c:v>155.11539191247425</c:v>
+                  <c:v>45.799430345230569</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>156.53628803369645</c:v>
+                  <c:v>380.26100000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.911335052685587</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.000">
-                  <c:v>154.79155018371983</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.000">
-                  <c:v>33.737630773642707</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.000">
-                  <c:v>156.41769206716418</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.000">
-                  <c:v>156.84311166578652</c:v>
+                  <c:v>251.05699999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>179.49900000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>232.17199999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>388.37</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.000">
-                  <c:v>35.258571631319739</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.000">
-                  <c:v>-8.925441030487848</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.000">
-                  <c:v>114.57230599148026</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.000">
-                  <c:v>68.640199061751417</c:v>
+                  <c:v>233.38671001543935</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>297.15800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,7 +1200,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A83-4CF6-ACBC-4ACA68910ACE}"/>
+              <c16:uniqueId val="{00000000-BCC8-4A08-A3C5-726960259769}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1103,11 +1212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404831216"/>
-        <c:axId val="404833184"/>
+        <c:axId val="350778160"/>
+        <c:axId val="350778488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404831216"/>
+        <c:axId val="350778160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,12 +1273,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404833184"/>
+        <c:crossAx val="350778488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404833184"/>
+        <c:axId val="350778488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,7 +1335,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404831216"/>
+        <c:crossAx val="350778160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1240,13 +1349,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5356,23 +5458,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133723</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>681131</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>102721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>75453</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>674781</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>143809</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A4C5A1-1719-4BAC-8029-E7F8B1AAD827}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4C9012-6076-456F-9AEB-D242E026608C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5434,15 +5536,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>369550</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>115783</xdr:rowOff>
+      <xdr:colOff>258425</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>39583</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5812,10 +5914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3EB9C-B317-464D-B407-444709E96AF5}">
-  <dimension ref="A1:AB97"/>
+  <dimension ref="A1:AR97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="Y13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE45" sqref="AE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5829,15 +5931,19 @@
     <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.81640625" customWidth="1"/>
     <col min="25" max="25" width="14.1796875" customWidth="1"/>
     <col min="26" max="26" width="19.36328125" customWidth="1"/>
     <col min="27" max="27" width="15.453125" customWidth="1"/>
+    <col min="28" max="28" width="13.08984375" customWidth="1"/>
+    <col min="32" max="32" width="14.90625" customWidth="1"/>
+    <col min="33" max="33" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
@@ -5860,19 +5966,19 @@
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
@@ -5886,10 +5992,10 @@
         <v>6</v>
       </c>
       <c r="W3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" t="s">
         <v>31</v>
-      </c>
-      <c r="X3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
@@ -5980,6 +6086,7 @@
         <v>181.834</v>
       </c>
       <c r="R6">
+        <f>AD70</f>
         <v>181.83600000000001</v>
       </c>
       <c r="S6">
@@ -5994,11 +6101,11 @@
       </c>
       <c r="W6" s="2">
         <f>W5+S11</f>
-        <v>75.317828093290672</v>
-      </c>
-      <c r="X6">
+        <v>75.311327476819272</v>
+      </c>
+      <c r="X6" s="2">
         <f>X5+T11</f>
-        <v>183.15600000000001</v>
+        <v>183.15417587465905</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
@@ -6034,11 +6141,11 @@
       </c>
       <c r="W7" s="2">
         <f>W6+S15</f>
-        <v>84.442221719475583</v>
+        <v>84.448672839820915</v>
       </c>
       <c r="X7" s="2">
         <f>X6+T15</f>
-        <v>8.1877278812021643</v>
+        <v>8.1959047818665169</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
@@ -6054,8 +6161,9 @@
       <c r="P8" t="s">
         <v>2</v>
       </c>
-      <c r="Q8">
-        <v>298.88200000000001</v>
+      <c r="Q8" s="2">
+        <f>AC58</f>
+        <v>298.88574999999997</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
@@ -6089,7 +6197,7 @@
       </c>
       <c r="X9" s="2">
         <f>X7+T19</f>
-        <v>4.0551907112629237E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
@@ -6115,27 +6223,28 @@
       </c>
       <c r="Q10">
         <f>200+Q8+P31-400+Q4</f>
-        <v>98.884500000000003</v>
+        <v>98.885749999999973</v>
       </c>
       <c r="R10">
+        <f>AD72</f>
         <v>75.316999999999993</v>
       </c>
       <c r="S10" s="2">
         <f>SIN(Q10*PI()/200)*R10</f>
-        <v>75.305438057401759</v>
+        <v>75.305463954240835</v>
       </c>
       <c r="T10" s="2">
         <f>COS(Q10*PI()/200)*R10</f>
-        <v>1.3196544937318881</v>
+        <v>1.3181758746590351</v>
       </c>
       <c r="Y10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" t="s">
         <v>46</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>47</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
@@ -6159,12 +6268,13 @@
       <c r="H11">
         <v>196.69</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="37">
         <f>-R27*(ABS(S10)/(ABS(S18)+ABS(S14)+ABS(S10)))+S10</f>
-        <v>75.317828093290672</v>
-      </c>
-      <c r="T11" s="4">
-        <v>1.32</v>
+        <v>75.311327476819272</v>
+      </c>
+      <c r="T11" s="37">
+        <f>T10</f>
+        <v>1.3181758746590351</v>
       </c>
       <c r="V11" t="s">
         <v>4</v>
@@ -6193,9 +6303,9 @@
       <c r="P12" t="s">
         <v>14</v>
       </c>
-      <c r="Q12">
-        <f>400-102.211</f>
-        <v>297.78899999999999</v>
+      <c r="Q12" s="2">
+        <f>AC59</f>
+        <v>297.79274999999996</v>
       </c>
       <c r="V12" t="s">
         <v>20</v>
@@ -6229,11 +6339,11 @@
       </c>
       <c r="W13" s="2">
         <f>W6+SIN(Y13*(PI()/200))*Z13</f>
-        <v>60.155254699332744</v>
+        <v>60.148754082861345</v>
       </c>
       <c r="X13" s="2">
         <f>X6+COS(Y13*(PI()/200))*Z13</f>
-        <v>170.87693289077549</v>
+        <v>170.87510876543453</v>
       </c>
       <c r="Y13">
         <f>C27+I32-200+200-I23</f>
@@ -6250,29 +6360,30 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="Q14">
         <f>200+Q12+P29-400+Q10</f>
-        <v>196.68349999999998</v>
+        <v>196.67849999999993</v>
       </c>
       <c r="R14">
+        <f>AD74</f>
         <v>175.19800000000001</v>
       </c>
       <c r="S14" s="2">
         <f>SIN(Q14*PI()/200)*R14</f>
-        <v>9.1228926327633619</v>
+        <v>9.1366339556657419</v>
       </c>
       <c r="T14" s="2">
         <f>COS(Q14*PI()/200)*R14</f>
-        <v>-174.96031559759794</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="W14" s="28">
+        <v>-174.95959854766522</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="27">
         <f>Q86</f>
-        <v>64.766319218841218</v>
-      </c>
-      <c r="X14" s="28">
+        <v>64.766285859645834</v>
+      </c>
+      <c r="X14" s="27">
         <f>Q87</f>
-        <v>18.462259400649806</v>
+        <v>18.460731557749131</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
@@ -6303,13 +6414,13 @@
       <c r="K15">
         <v>84.850999999999999</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="37">
         <f>-R27*(ABS(S14)/(ABS(S18)+ABS(S14)+ABS(S10)))+S14</f>
-        <v>9.1243936261849061</v>
-      </c>
-      <c r="T15" s="2">
-        <f>-R29*(ABS(T14)/(ABS(T18)+ABS(T14)+ABS(T10)))+T14</f>
-        <v>-174.96827211879784</v>
+        <v>9.1373453630016357</v>
+      </c>
+      <c r="T15" s="37">
+        <f>T14+(T22*(-1))</f>
+        <v>-174.95827109279253</v>
       </c>
       <c r="V15" t="s">
         <v>23</v>
@@ -6331,7 +6442,7 @@
         <v>89.162999999999997</v>
       </c>
       <c r="AA15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
@@ -6365,9 +6476,9 @@
       <c r="P16" t="s">
         <v>3</v>
       </c>
-      <c r="Q16">
-        <f>400-102.838</f>
-        <v>297.16200000000003</v>
+      <c r="Q16" s="2">
+        <f>AC60</f>
+        <v>297.16274999999996</v>
       </c>
       <c r="V16" t="s">
         <v>22</v>
@@ -6389,23 +6500,23 @@
         <v>53.9</v>
       </c>
       <c r="AA16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="V17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W17">
         <f>W28+Z17*SIN((Y17-(200-Q57))*(PI()/200))</f>
-        <v>50.101304731183944</v>
+        <v>50.094804114712545</v>
       </c>
       <c r="X17">
         <f>X28+Z17*COS((Y17-(200-Q57))*(PI()/200))</f>
-        <v>156.53628803369645</v>
+        <v>156.53446390835549</v>
       </c>
       <c r="Y17">
         <f>C50</f>
@@ -6416,10 +6527,10 @@
         <v>93.656000000000006</v>
       </c>
       <c r="AA17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -6443,29 +6554,30 @@
       </c>
       <c r="Q18">
         <f>200+Q16+P31-400+Q14</f>
-        <v>293.84800000000001</v>
+        <v>293.84124999999989</v>
       </c>
       <c r="R18">
+        <f>AD76</f>
         <v>84.852000000000004</v>
       </c>
       <c r="S18" s="2">
         <f>SIN(Q18*PI()/200)*R18</f>
-        <v>-84.456117320532201</v>
+        <v>-84.455248793704811</v>
       </c>
       <c r="T18" s="2">
         <f>COS(Q18*PI()/200)*R18</f>
-        <v>-8.1869500511791387</v>
+        <v>-8.1959047818665258</v>
       </c>
       <c r="V18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W18">
         <f>W28+Z18*SIN((Y18-(200-Q57))*(PI()/200))</f>
-        <v>51.361488805549023</v>
+        <v>51.354988189077623</v>
       </c>
       <c r="X18">
         <f>X28+Z18*COS((Y18-(200-Q57))*(PI()/200))</f>
-        <v>35.911335052685587</v>
+        <v>35.909510927344627</v>
       </c>
       <c r="Y18">
         <f>C49</f>
@@ -6476,10 +6588,10 @@
         <v>45.133000000000003</v>
       </c>
       <c r="AA18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -6500,28 +6612,22 @@
       <c r="H19">
         <v>102.843</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="37">
         <f>-R27*(ABS(S18)/(ABS(S18)+ABS(S14)+ABS(S10)))+S18</f>
-        <v>-84.442221719475583</v>
-      </c>
-      <c r="T19" s="3">
-        <f>-R29*(ABS(T18)/(ABS(T18)+ABS(T14)+ABS(T10)))+T18</f>
-        <v>-8.187322362131038</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+        <v>-84.448672839820901</v>
+      </c>
+      <c r="T19" s="39">
+        <f>T18</f>
+        <v>-8.1959047818665258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="P20" t="s">
         <v>29</v>
       </c>
-      <c r="Q20">
-        <f>400-93.843</f>
-        <v>306.15699999999998</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
+      <c r="Q20" s="2">
+        <f>AC57</f>
+        <v>306.15874999999994</v>
       </c>
       <c r="V20" t="s">
         <v>19</v>
@@ -6546,12 +6652,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="V21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W21" s="2">
         <f>Q68</f>
@@ -6562,10 +6668,10 @@
         <v>33.737630773642707</v>
       </c>
       <c r="AB21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6595,26 +6701,26 @@
       </c>
       <c r="Q22">
         <f>200+Q20+P31-400+Q18</f>
-        <v>400.00749999999999</v>
+        <v>399.99999999999983</v>
       </c>
       <c r="S22" s="2">
         <f>S18+S14+S10+S6</f>
-        <v>-2.7786630367074849E-2</v>
-      </c>
-      <c r="T22" s="2">
-        <f>T18+T14+T10+T6</f>
-        <v>8.3888449548226163E-3</v>
+        <v>-1.3150883798232371E-2</v>
+      </c>
+      <c r="T22" s="38">
+        <f>T6+T10+T14+T18</f>
+        <v>-1.3274548727029156E-3</v>
       </c>
       <c r="V22" t="s">
         <v>17</v>
       </c>
       <c r="W22" s="2">
         <f>W6+SIN(Y22*(PI()/200))*Z22</f>
-        <v>60.524104664456075</v>
+        <v>60.517604047984676</v>
       </c>
       <c r="X22" s="2">
         <f>X6+COS(Y22*(PI()/200))*Z22</f>
-        <v>156.41769206716418</v>
+        <v>156.41586794182325</v>
       </c>
       <c r="Y22">
         <f>C28+I32-200+200-I23</f>
@@ -6628,7 +6734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -6655,13 +6761,21 @@
       <c r="K23">
         <v>75.316999999999993</v>
       </c>
+      <c r="S23" s="37">
+        <f>S11+S15+S19+S7</f>
+        <v>1.4210854715202004E-14</v>
+      </c>
+      <c r="T23" s="37">
+        <f>T6+T11+T15+T19</f>
+        <v>0</v>
+      </c>
       <c r="W23" s="2">
         <f>W28+Z23*SIN((Y23-(200-Q57))*(PI()/200))</f>
-        <v>62.236400256803108</v>
+        <v>62.229899640331709</v>
       </c>
       <c r="X23" s="2">
         <f>X28+Z23*COS((Y23-(200-Q57))*(PI()/200))</f>
-        <v>156.84311166578652</v>
+        <v>156.84128754044556</v>
       </c>
       <c r="Y23">
         <f>C51</f>
@@ -6672,26 +6786,26 @@
         <v>90.486999999999995</v>
       </c>
       <c r="AA23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="P24" t="s">
         <v>2</v>
       </c>
       <c r="V24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W24" s="2">
         <f>W28+Z24*SIN((Y24-(200-Q57))*(PI()/200))</f>
-        <v>64.976946477111071</v>
+        <v>64.970445860639671</v>
       </c>
       <c r="X24" s="2">
         <f>X28+Z24*COS((Y24-(200-Q57))*(PI()/200))</f>
-        <v>35.258571631319739</v>
+        <v>35.25674750597878</v>
       </c>
       <c r="Y24" s="2">
         <f>C48-(200-Q57)</f>
@@ -6702,10 +6816,10 @@
         <v>37.673000000000002</v>
       </c>
       <c r="AA24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -6750,7 +6864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -6772,15 +6886,16 @@
         <v>102.212</v>
       </c>
       <c r="P26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="U26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -6790,16 +6905,16 @@
       <c r="K27">
         <v>19.510999999999999</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="2">
         <f>Q16+Q12+Q8+Q20</f>
-        <v>1199.99</v>
+        <v>1200</v>
       </c>
       <c r="R27" s="2">
         <f>S22</f>
-        <v>-2.7786630367074849E-2</v>
+        <v>-1.3150883798232371E-2</v>
       </c>
       <c r="V27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W27" s="2">
         <f>Q48</f>
@@ -6810,7 +6925,7 @@
         <v>114.57230599148026</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>17</v>
       </c>
@@ -6821,42 +6936,66 @@
         <v>30.558</v>
       </c>
       <c r="P28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V28" t="s">
-        <v>54</v>
-      </c>
-      <c r="W28" s="13">
+        <v>53</v>
+      </c>
+      <c r="W28" s="12">
         <f>D75</f>
-        <v>82.438958935469117</v>
-      </c>
-      <c r="X28" s="13">
+        <v>82.432458318997718</v>
+      </c>
+      <c r="X28" s="12">
         <f>D76</f>
-        <v>68.640199061751417</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+        <v>68.638374936410457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="P29">
         <f>1200-P27</f>
-        <v>9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2">
         <f>T22</f>
-        <v>8.3888449548226163E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+        <v>-1.3274548727029156E-3</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN29" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -6886,10 +7025,48 @@
       </c>
       <c r="P31">
         <f>P29/4</f>
-        <v>2.4999999999977263E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH31">
+        <f>C8-I6</f>
+        <v>37.498000000000005</v>
+      </c>
+      <c r="AI31">
+        <f>K8</f>
+        <v>23.56</v>
+      </c>
+      <c r="AJ31" s="2">
+        <f>W5+AI31*SIN(AH31*(PI()/200))</f>
+        <v>13.088619263575319</v>
+      </c>
+      <c r="AK31" s="2">
+        <f>X4+AI31*COS(AH31*(PI()/200))</f>
+        <v>19.589835266616333</v>
+      </c>
+      <c r="AL31">
+        <f>((AJ31-W4)^2+(AK31-X4)^2)^0.5</f>
+        <v>23.56</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -6916,8 +7093,78 @@
       <c r="K32">
         <v>75.316999999999993</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AF32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH32" s="35">
+        <f>C37+200+Q4-400</f>
+        <v>161.721</v>
+      </c>
+      <c r="AI32">
+        <f>K37</f>
+        <v>15.316000000000001</v>
+      </c>
+      <c r="AJ32" s="2">
+        <f>W5+AI32*SIN(AH32*(PI()/200))</f>
+        <v>8.664302048364835</v>
+      </c>
+      <c r="AK32" s="2">
+        <f>X5+AI32*COS(AH32*(PI()/200))</f>
+        <v>169.20628400894537</v>
+      </c>
+      <c r="AL32">
+        <f>((AJ32-W5)^2+(AK32-X5)^2)^0.5</f>
+        <v>15.31600000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AF33" s="1"/>
+      <c r="AG33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH33" s="35">
+        <f>C36+200+Q4-400</f>
+        <v>179.49900000000002</v>
+      </c>
+      <c r="AI33">
+        <f>K36</f>
+        <v>28.51</v>
+      </c>
+      <c r="AJ33" s="2">
+        <f>W5+AI33*SIN(AH33*(PI()/200))</f>
+        <v>9.0231831486844971</v>
+      </c>
+      <c r="AK33" s="2">
+        <f>X5+AI33*COS(AH33*(PI()/200))</f>
+        <v>154.79155018371983</v>
+      </c>
+      <c r="AL33" s="2">
+        <f>((AJ33-W5)^2+(AK33-X5)^2)^0.5</f>
+        <v>28.510000000000016</v>
+      </c>
+      <c r="AN33" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO33" s="26">
+        <v>14.57</v>
+      </c>
+      <c r="AP33" s="25">
+        <f>((AJ33-AJ32)^2+(AK33-AK32)^2)^0.5</f>
+        <v>14.419200633054107</v>
+      </c>
+      <c r="AQ33" s="25">
+        <f>AO33-AP33</f>
+        <v>0.15079936694589335</v>
+      </c>
+      <c r="AR33" s="26">
+        <f>0.008*(AO33)^0.5+0.0004*AO33+0.03</f>
+        <v>6.63645354943877E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2</v>
       </c>
@@ -6940,10 +7187,57 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH34" s="35">
+        <f>Q14+C27</f>
+        <v>256.6724999999999</v>
+      </c>
+      <c r="AI34">
+        <f>K27</f>
+        <v>19.510999999999999</v>
+      </c>
+      <c r="AJ34" s="2">
+        <f>W6+AI34*SIN(AH34*(PI()/200))</f>
+        <v>60.147307594573</v>
+      </c>
+      <c r="AK34" s="2">
+        <f>X6+AI34*COS(AH34*(PI()/200))</f>
+        <v>170.87689514923619</v>
+      </c>
+      <c r="AL34">
+        <f>((AJ34-W6)^2+(AK34-X6)^2)^0.5</f>
+        <v>19.510999999999996</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO34">
+        <v>14.51</v>
+      </c>
+      <c r="AP34" s="2">
+        <f>((AJ34-AJ35)^2+(AK34-AK35)^2)^0.5</f>
+        <v>14.463944672597412</v>
+      </c>
+      <c r="AQ34" s="2">
+        <f>AO34-AP34</f>
+        <v>4.6055327402587665E-2</v>
+      </c>
+      <c r="AR34">
+        <f>0.008*(AO34)^0.5+0.0004*AO34+0.03</f>
+        <v>6.6277595127585451E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -6965,16 +7259,57 @@
         <v>298.88099999999997</v>
       </c>
       <c r="P35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="V35" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="V35" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH35">
+        <f>Q14+C28</f>
+        <v>232.17949999999993</v>
+      </c>
+      <c r="AI35">
+        <f>K28</f>
+        <v>30.558</v>
+      </c>
+      <c r="AJ35" s="2">
+        <f>W6+AI35*SIN(AH35*(PI()/200))</f>
+        <v>60.514454117962565</v>
+      </c>
+      <c r="AK35" s="2">
+        <f>X6+AI35*COS(AH35*(PI()/200))</f>
+        <v>156.41761097185307</v>
+      </c>
+      <c r="AL35" s="2">
+        <f>((AJ35-W6)^2+(AK35-X6)^2)^0.5</f>
+        <v>30.558</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO35">
+        <v>51.52</v>
+      </c>
+      <c r="AP35" s="2">
+        <f>((AJ32-AJ34)^2+(AK32-AK34)^2)^0.5</f>
+        <v>51.510103879267845</v>
+      </c>
+      <c r="AQ35" s="2">
+        <f>AO35-AP35</f>
+        <v>9.8961207321579536E-3</v>
+      </c>
+      <c r="AR35">
+        <f>0.008*(AO35)^0.5+0.0004*AO35+0.03</f>
+        <v>0.10802994702376435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -6985,14 +7320,15 @@
         <v>28.51</v>
       </c>
       <c r="P36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q36">
         <f>Q35+200+I32-400</f>
         <v>98.882000000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AF36" s="1"/>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -7003,50 +7339,50 @@
         <v>15.316000000000001</v>
       </c>
       <c r="P37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q37">
         <f>Q36+200+(400-I23)-400</f>
         <v>196.67100000000005</v>
       </c>
-      <c r="V37" s="29" t="s">
-        <v>185</v>
+      <c r="V37" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="W37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z37" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="Z37" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="AA37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB37" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AB37" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
       <c r="P38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q38">
         <f>Q37+200+(400-I16)-400</f>
         <v>293.83000000000004</v>
       </c>
-      <c r="V38" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="W38" s="12">
+      <c r="V38" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="W38" s="11">
         <v>50</v>
       </c>
       <c r="Y38">
         <v>1</v>
       </c>
       <c r="Z38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA38" s="2">
         <f>W43</f>
@@ -7057,18 +7393,18 @@
         <v>78.421758619658604</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="V39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y39">
         <v>2</v>
       </c>
       <c r="Z39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA39" s="2">
         <f>W53</f>
@@ -7079,7 +7415,7 @@
         <v>35.89676308526996</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>13</v>
       </c>
@@ -7090,13 +7426,13 @@
         <v>115.46299999999999</v>
       </c>
       <c r="V40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y40">
         <v>3</v>
       </c>
       <c r="Z40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA40" s="2">
         <f>W63</f>
@@ -7107,7 +7443,7 @@
         <v>78.410203417667518</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>2</v>
       </c>
@@ -7118,7 +7454,7 @@
         <v>68.772999999999996</v>
       </c>
       <c r="V41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W41">
         <v>120.83</v>
@@ -7127,7 +7463,7 @@
         <v>4</v>
       </c>
       <c r="Z41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA41" s="2">
         <f>W73</f>
@@ -7138,7 +7474,7 @@
         <v>35.957808957165341</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>22</v>
       </c>
@@ -7149,14 +7485,14 @@
         <v>53.9</v>
       </c>
       <c r="V42" t="s">
-        <v>52</v>
-      </c>
-      <c r="W42" s="21">
+        <v>51</v>
+      </c>
+      <c r="W42" s="20">
         <f>ATAN(W38/(W41/2))*(200/PI())</f>
         <v>44.012738440442035</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>23</v>
       </c>
@@ -7166,35 +7502,35 @@
       <c r="K43">
         <v>89.162999999999997</v>
       </c>
-      <c r="V43" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="W43" s="32">
+      <c r="V43" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="W43" s="31">
         <f>400-W42</f>
         <v>355.98726155955796</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
       <c r="P44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V44" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="W44" s="32">
+        <v>48</v>
+      </c>
+      <c r="V44" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="W44" s="31">
         <f>(W38^2+(W41/2)^2)^0.5</f>
         <v>78.421758619658604</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>14</v>
       </c>
@@ -7205,7 +7541,7 @@
         <v>114.73699999999999</v>
       </c>
       <c r="P46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q46" s="2">
         <f>T6</f>
@@ -7213,7 +7549,7 @@
       </c>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>3</v>
       </c>
@@ -7224,7 +7560,7 @@
         <v>60.475999999999999</v>
       </c>
       <c r="P47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q47" s="2">
         <f>(SIN((400-C41)*(PI()/200))*K41)/Q46</f>
@@ -7234,14 +7570,14 @@
         <f>ASIN(Q47)*(200/PI())</f>
         <v>7.9125696547694231</v>
       </c>
-      <c r="V47" s="29" t="s">
-        <v>192</v>
+      <c r="V47" s="28" t="s">
+        <v>191</v>
       </c>
       <c r="W47" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>25</v>
       </c>
@@ -7252,21 +7588,21 @@
         <v>37.673000000000002</v>
       </c>
       <c r="P48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q48" s="2">
         <f>S4+K40*SIN(-R47*(PI()/200))</f>
         <v>-14.314016515102081</v>
       </c>
       <c r="R48" s="2"/>
-      <c r="V48" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="W48" s="12">
+      <c r="V48" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="W48" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>26</v>
       </c>
@@ -7277,7 +7613,7 @@
         <v>45.133000000000003</v>
       </c>
       <c r="P49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q49" s="2">
         <f>S4+K40*COS(-R47*(PI()/200))</f>
@@ -7285,10 +7621,10 @@
       </c>
       <c r="R49" s="2"/>
       <c r="V49" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>27</v>
       </c>
@@ -7301,10 +7637,10 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="V50" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>28</v>
       </c>
@@ -7312,214 +7648,281 @@
         <v>388.37</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K51">
         <v>90.486999999999995</v>
       </c>
       <c r="P51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="V51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W51" s="2">
         <v>51.52</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="P52" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q52" s="13">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="P52" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q52" s="12">
         <f>K22</f>
         <v>175.19900000000001</v>
       </c>
-      <c r="R52" s="13"/>
+      <c r="R52" s="12"/>
       <c r="V52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W52" s="2">
         <f>ATAN(W48/(W51/2))*(200/PI())</f>
         <v>49.046897403750847</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="P53" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q53" s="13">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="P53" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q53" s="12">
         <f>(SIN((400-C47)*(PI()/200))*K46)/Q52</f>
         <v>1.8617090403772883E-2</v>
       </c>
-      <c r="R53" s="13">
+      <c r="R53" s="12">
         <f>ASIN(Q53)*(200/PI())</f>
         <v>1.1852692604995791</v>
       </c>
-      <c r="V53" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="W53" s="33">
+      <c r="V53" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="W53" s="32">
         <f>400-W52</f>
         <v>350.95310259624915</v>
       </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="P54" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q54" s="13">
+      <c r="AA53" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="P54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q54" s="12">
         <f>W7+K47*SIN(((Q37-200)+R53)*(PI()/200))</f>
-        <v>82.406159279944106</v>
-      </c>
-      <c r="R54" s="13"/>
+        <v>82.412610400289438</v>
+      </c>
+      <c r="R54" s="12"/>
       <c r="S54" t="s">
-        <v>63</v>
-      </c>
-      <c r="V54" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="W54" s="33">
+        <v>62</v>
+      </c>
+      <c r="V54" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="W54" s="32">
         <f>(W48^2+(W51/2)^2)^0.5</f>
         <v>35.89676308526996</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C55" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="P55" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" s="13">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="C55" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="P55" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="12">
         <f>X7+K47*COS(((Q37-200)+R53)*(PI()/200))</f>
-        <v>68.629443820959608</v>
-      </c>
-      <c r="R55" s="13"/>
+        <v>68.637620721623961</v>
+      </c>
+      <c r="R55" s="12"/>
       <c r="S55">
         <f>X7+K47*COS(((Q37-200)-R53)*(PI()/200))</f>
-        <v>68.511748122389605</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C56" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="P56" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q56" s="13">
+        <v>68.519925023053958</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC55" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="C56" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q56" s="12">
         <f>(SIN((400-C47)*(PI()/200))*K47)/Q52</f>
         <v>9.8127644897336424E-3</v>
       </c>
-      <c r="R56" s="13">
+      <c r="R56" s="12">
         <f>ASIN(Q56)*(200/PI())</f>
         <v>0.62471001543931237</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="P57" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q57" s="13">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="P57" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q57" s="12">
         <f>Q36+200+(400-I23)+R56-400</f>
         <v>197.29571001543934</v>
       </c>
-      <c r="R57" s="13"/>
-      <c r="V57" s="29" t="s">
-        <v>196</v>
+      <c r="R57" s="12"/>
+      <c r="V57" s="28" t="s">
+        <v>195</v>
       </c>
       <c r="W57" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB57">
+        <f>400-(I7-I6)</f>
+        <v>306.15499999999997</v>
+      </c>
+      <c r="AC57" s="2">
+        <f>AB57+(AB63/4)</f>
+        <v>306.15874999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
-        <v>148</v>
-      </c>
-      <c r="V58" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="W58" s="12">
+        <v>147</v>
+      </c>
+      <c r="V58" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="W58" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="AA58" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB58">
+        <f>I32</f>
+        <v>298.88200000000001</v>
+      </c>
+      <c r="AC58" s="2">
+        <f>AB58+(AB63/4)</f>
+        <v>298.88574999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D59">
         <f>K6-K31</f>
         <v>-4.9999999999954525E-3</v>
       </c>
       <c r="V59" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB59">
+        <f>400-I23</f>
+        <v>297.78899999999999</v>
+      </c>
+      <c r="AC59" s="2">
+        <f>AB59+(AB63/4)</f>
+        <v>297.79274999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D60">
         <f>K32-K23</f>
         <v>0</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB60">
+        <f>400-I16</f>
+        <v>297.15899999999999</v>
+      </c>
+      <c r="AC60" s="2">
+        <f>AB60+(AB63/4)</f>
+        <v>297.16274999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D61">
         <f>K22-K16</f>
         <v>3.0000000000143245E-3</v>
       </c>
       <c r="V61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W61" s="2">
         <v>120.8</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D62">
         <f>K15-K7</f>
         <v>-1.0000000000047748E-3</v>
       </c>
       <c r="P62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q62" t="s">
+        <v>30</v>
+      </c>
+      <c r="R62" t="s">
         <v>31</v>
       </c>
-      <c r="R62" t="s">
-        <v>32</v>
-      </c>
       <c r="S62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W62" s="2">
         <f>ATAN(W58/(W61/2))*(200/PI())</f>
         <v>44.020503275408977</v>
       </c>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="AA62" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB62">
+        <f>SUM(AB57:AB61)</f>
+        <v>1199.9850000000001</v>
+      </c>
+      <c r="AC62" s="2">
+        <f>SUM(AC57:AC61)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.35">
       <c r="P63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q63">
         <f>W11</f>
@@ -7532,20 +7935,27 @@
       <c r="S63">
         <v>14.25</v>
       </c>
-      <c r="V63" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="W63" s="33">
+      <c r="V63" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="W63" s="32">
         <f>400-W62</f>
         <v>355.979496724591</v>
       </c>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="C64" s="14" t="s">
-        <v>151</v>
+      <c r="AA63" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB63">
+        <f>1200-AB62</f>
+        <v>1.4999999999872671E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="C64" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="P64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q64" s="2">
         <f>W15</f>
@@ -7558,49 +7968,52 @@
       <c r="S64">
         <v>12.22</v>
       </c>
-      <c r="V64" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="W64" s="33">
+      <c r="V64" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="W64" s="32">
         <f>(W58^2+(W61/2)^2)^0.5</f>
         <v>78.410203417667518</v>
       </c>
     </row>
-    <row r="65" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:30" x14ac:dyDescent="0.35">
       <c r="P65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q65">
         <f>ATAN(S64/S63)*(200/PI())</f>
         <v>45.12726318413641</v>
       </c>
       <c r="R65" t="s">
+        <v>73</v>
+      </c>
+      <c r="W65" s="2"/>
+    </row>
+    <row r="66" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C66" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G66" t="s">
+        <v>152</v>
+      </c>
+      <c r="P66" t="s">
         <v>74</v>
-      </c>
-      <c r="W65" s="2"/>
-    </row>
-    <row r="66" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C66" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G66" t="s">
-        <v>153</v>
-      </c>
-      <c r="P66" t="s">
-        <v>75</v>
       </c>
       <c r="Q66">
         <f>Y11</f>
         <v>37.498000000000005</v>
       </c>
       <c r="R66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W66" s="2"/>
-    </row>
-    <row r="67" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="AA66" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D67" s="2">
         <f>(SIN((400-C41)*(PI()/200))*K40)/Q46</f>
@@ -7615,7 +8028,7 @@
         <v>200.00038818391025</v>
       </c>
       <c r="P67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q67">
         <f>400-(Q65-Q66)</f>
@@ -7625,20 +8038,20 @@
         <f>Q66-Q65+400</f>
         <v>392.37073681586361</v>
       </c>
-      <c r="V67" s="29" t="s">
-        <v>200</v>
+      <c r="V67" s="28" t="s">
+        <v>199</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="3:23" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="3:30" x14ac:dyDescent="0.35">
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q68">
         <f>Q63+S63*SIN(Q67*(PI()/200))</f>
@@ -7648,16 +8061,28 @@
         <f>Q63+S63*SIN(Q67*(PI()/200))</f>
         <v>11.384981305743809</v>
       </c>
-      <c r="V68" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="W68" s="13">
+      <c r="V68" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="W68" s="12">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="AA68" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC68" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD68" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D69" s="2">
         <f>W5+K41*SIN((200+E67)*(PI()/200))</f>
@@ -7668,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q69">
         <f>R63+S63*COS(Q67*(PI()/200))</f>
@@ -7679,13 +8104,13 @@
         <v>33.737630773642707</v>
       </c>
       <c r="V69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70">
         <f>X5+K41*COS((200+E67)*(PI()/200))</f>
@@ -7696,62 +8121,98 @@
         <v>3.1957679920253668E-3</v>
       </c>
       <c r="V70" t="s">
+        <v>201</v>
+      </c>
+      <c r="W70" s="2"/>
+      <c r="AA70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB70">
+        <f>K6</f>
+        <v>181.834</v>
+      </c>
+      <c r="AC70">
+        <f>AB70-AB71</f>
+        <v>-4.9999999999954525E-3</v>
+      </c>
+      <c r="AD70">
+        <v>181.83600000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="P71" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>30</v>
+      </c>
+      <c r="R71" t="s">
+        <v>31</v>
+      </c>
+      <c r="S71" t="s">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s">
         <v>202</v>
-      </c>
-      <c r="W70" s="2"/>
-    </row>
-    <row r="71" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="P71" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>31</v>
-      </c>
-      <c r="R71" t="s">
-        <v>32</v>
-      </c>
-      <c r="S71" t="s">
-        <v>81</v>
-      </c>
-      <c r="V71" t="s">
-        <v>203</v>
       </c>
       <c r="W71" s="2">
         <v>51.69</v>
       </c>
-    </row>
-    <row r="72" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C72" s="9" t="s">
-        <v>156</v>
+      <c r="AA71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB71">
+        <f>K31</f>
+        <v>181.839</v>
+      </c>
+    </row>
+    <row r="72" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C72" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="G72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q72" s="2">
         <f>W24</f>
-        <v>64.976946477111071</v>
+        <v>64.970445860639671</v>
       </c>
       <c r="R72" s="2">
         <f>X24</f>
-        <v>35.258571631319739</v>
+        <v>35.25674750597878</v>
       </c>
       <c r="S72">
         <v>14.35</v>
       </c>
       <c r="V72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W72" s="2">
         <f>ATAN(W68/(W71/2))*(200/PI())</f>
         <v>48.942090294142709</v>
       </c>
-    </row>
-    <row r="73" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="AA72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB72">
+        <f>K32</f>
+        <v>75.316999999999993</v>
+      </c>
+      <c r="AC72">
+        <f>AB72-AB73</f>
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <f>AB72</f>
+        <v>75.316999999999993</v>
+      </c>
+    </row>
+    <row r="73" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" s="2">
         <f>(SIN((400-C47)*(PI()/200))*K47)/Q52</f>
@@ -7766,163 +8227,213 @@
         <v>199.9999792759389</v>
       </c>
       <c r="P73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q73">
         <f>W18</f>
-        <v>51.361488805549023</v>
+        <v>51.354988189077623</v>
       </c>
       <c r="R73">
         <f>X18</f>
-        <v>35.911335052685587</v>
+        <v>35.909510927344627</v>
       </c>
       <c r="S73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T73">
         <v>12.17</v>
       </c>
-      <c r="V73" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="W73" s="33">
+      <c r="V73" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="W73" s="32">
         <f>W72</f>
         <v>48.942090294142709</v>
       </c>
-    </row>
-    <row r="74" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="AA73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB73">
+        <f>K23</f>
+        <v>75.316999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="3:30" x14ac:dyDescent="0.35">
       <c r="E74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q74">
         <f>ATAN(S72/T73)*(200/PI())</f>
         <v>55.221409395296327</v>
       </c>
-      <c r="V74" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="W74" s="33">
+      <c r="V74" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="W74" s="32">
         <f>(W68^2+(W71/2)^2)^0.5</f>
         <v>35.957808957165341</v>
       </c>
-    </row>
-    <row r="75" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="AA74" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB74">
+        <f>K22</f>
+        <v>175.19900000000001</v>
+      </c>
+      <c r="AC74">
+        <f>AB74-AB75</f>
+        <v>3.0000000000143245E-3</v>
+      </c>
+      <c r="AD74">
+        <v>175.19800000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="12">
+        <v>30</v>
+      </c>
+      <c r="D75" s="11">
         <f>W6+K46*SIN((Q37-E73)*(PI()/200))</f>
-        <v>82.438958935469117</v>
-      </c>
-      <c r="E75" s="13">
+        <v>82.432458318997718</v>
+      </c>
+      <c r="E75" s="12">
         <f>Q54-D75</f>
-        <v>-3.2799655525010962E-2</v>
-      </c>
-      <c r="I75" s="10" t="s">
-        <v>156</v>
+        <v>-1.9847918708279622E-2</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="P75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q75">
         <f>Y24</f>
         <v>233.38671001543935</v>
       </c>
-    </row>
-    <row r="76" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="AA75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB75">
+        <f>K16</f>
+        <v>175.196</v>
+      </c>
+    </row>
+    <row r="76" spans="3:30" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" s="12">
+        <v>31</v>
+      </c>
+      <c r="D76" s="11">
         <f>X6+K46*COS((Q37-E73)*(PI()/200))</f>
-        <v>68.640199061751417</v>
+        <v>68.638374936410457</v>
       </c>
       <c r="E76" s="2">
         <f>Q55-D76</f>
-        <v>-1.0755240791809229E-2</v>
+        <v>-7.542147864967319E-4</v>
       </c>
       <c r="I76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J76" s="2">
         <f>((W5-W6)^2+(X5-X6)^2)^0.5</f>
-        <v>75.3293941877305</v>
+        <v>75.322862624552755</v>
       </c>
       <c r="K76" s="2">
         <f>J76-K23</f>
-        <v>1.2394187730507156E-2</v>
+        <v>5.8626245527619858E-3</v>
       </c>
       <c r="P76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q76">
         <f>Q75-(90/2)</f>
         <v>188.38671001543935</v>
       </c>
       <c r="R76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="3:23" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB76">
+        <f>K15</f>
+        <v>84.850999999999999</v>
+      </c>
+      <c r="AC76">
+        <f>AB76-AB77</f>
+        <v>-1.0000000000047748E-3</v>
+      </c>
+      <c r="AD76">
+        <f>AB77</f>
+        <v>84.852000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="3:30" x14ac:dyDescent="0.35">
       <c r="I77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J77" s="2">
         <f>((W7-W6)^2+(X7-X6)^2)^0.5</f>
-        <v>175.20602388982877</v>
+        <v>175.19671145333137</v>
       </c>
       <c r="K77" s="2">
         <f>J77-K22</f>
-        <v>7.0238898287584561E-3</v>
+        <v>-2.2885466686375366E-3</v>
       </c>
       <c r="P77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q77">
         <f>Q72+S72*SIN(Q76*(PI()/200))</f>
-        <v>67.58019522127131</v>
-      </c>
-    </row>
-    <row r="78" spans="3:23" x14ac:dyDescent="0.35">
+        <v>67.573694604799911</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB77">
+        <f>K7</f>
+        <v>84.852000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="3:30" x14ac:dyDescent="0.35">
       <c r="P78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q78">
         <f>R72+S72*COS(Q76*(PI()/200))</f>
-        <v>21.146676082669014</v>
-      </c>
-    </row>
-    <row r="79" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C79" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="3:23" x14ac:dyDescent="0.35">
+        <v>21.144851957328054</v>
+      </c>
+    </row>
+    <row r="79" spans="3:30" x14ac:dyDescent="0.35">
+      <c r="C79" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="3:30" x14ac:dyDescent="0.35">
       <c r="P80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q80" t="s">
+        <v>30</v>
+      </c>
+      <c r="R80" t="s">
         <v>31</v>
-      </c>
-      <c r="R80" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" t="s">
         <v>161</v>
       </c>
-      <c r="C81" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81" t="s">
-        <v>162</v>
-      </c>
       <c r="P81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q81" s="2">
         <f>W11</f>
@@ -7938,18 +8449,18 @@
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.35">
       <c r="F82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q82" s="2">
         <f>W24</f>
-        <v>64.976946477111071</v>
+        <v>64.970445860639671</v>
       </c>
       <c r="R82" s="2">
         <f>X24</f>
-        <v>35.258571631319739</v>
+        <v>35.25674750597878</v>
       </c>
       <c r="S82">
         <v>14.35</v>
@@ -7961,7 +8472,7 @@
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C83" s="2">
         <f>((W11-W21)^2+(X11-X21)^2)^0.5</f>
@@ -7978,73 +8489,73 @@
         <f>0.008*(D83)^0.5+0.0004*D83+0.03</f>
         <v>6.5899337741083003E-2</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G83" s="20">
         <f>F83-ABS(E83)</f>
         <v>6.5899337741083003E-2</v>
       </c>
       <c r="P83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q83">
         <f>ATAN(S82/S81)*(200/PI())</f>
         <v>17.239483599205755</v>
       </c>
       <c r="R83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B84" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C84" s="17">
+      <c r="B84" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="16">
         <f>((W15-W21)^2+(X15-X21)^2)^0.5</f>
         <v>13.424467504233258</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D84" s="15">
         <v>12.22</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E84" s="16">
         <f>D84-C84</f>
         <v>-1.2044675042332571</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" ref="F84:F94" si="1">0.008*(D84)^0.5+0.0004*D84+0.03</f>
+        <f>0.008*(D84)^0.5+0.0004*D84+0.03</f>
         <v>6.2853693268717661E-2</v>
       </c>
-      <c r="G84" s="22">
-        <f t="shared" ref="G84:G94" si="2">F84-ABS(E84)</f>
+      <c r="G84" s="21">
+        <f t="shared" ref="G84:G94" si="1">F84-ABS(E84)</f>
         <v>-1.1416138109645395</v>
       </c>
-      <c r="I84" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="J84" s="26">
+      <c r="I84" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J84" s="25">
         <f>((W15-W11)^2+(X15-X11)^2)^0.5</f>
         <v>18.908615221820792</v>
       </c>
-      <c r="K84" s="27">
+      <c r="K84" s="26">
         <f>((D83)^2+(D84)^2)^0.5</f>
         <v>18.772077668707851</v>
       </c>
-      <c r="L84" s="26">
+      <c r="L84" s="25">
         <f>J84-K84</f>
         <v>0.13653755311294091</v>
       </c>
       <c r="P84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q84">
         <f>Y11</f>
         <v>37.498000000000005</v>
       </c>
       <c r="R84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C85" s="2">
         <f>((W15-W16)^2+(X15-X16)^2)^0.5</f>
@@ -8058,28 +8569,28 @@
         <v>0.10343221296741945</v>
       </c>
       <c r="F85" s="2">
+        <f t="shared" ref="F85:F94" si="2">0.008*(D85)^0.5+0.0004*D85+0.03</f>
+        <v>0.16627016008991771</v>
+      </c>
+      <c r="G85" s="20">
         <f t="shared" si="1"/>
-        <v>0.16627016008991771</v>
-      </c>
-      <c r="G85" s="21">
-        <f t="shared" si="2"/>
         <v>6.2837947122498267E-2</v>
       </c>
       <c r="P85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q85">
         <f>ACOS(R85*(PI()/200))*(200/PI())</f>
-        <v>84.1493615059956</v>
+        <v>84.151243662736988</v>
       </c>
       <c r="R85">
         <f>(1/T82)+R82-R81</f>
-        <v>15.687377455020432</v>
+        <v>15.685553329679472</v>
       </c>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C86" s="2">
         <f>((W20-W16)^2+(X20-X16)^2)^0.5</f>
@@ -8093,28 +8604,28 @@
         <v>3.5741880587650598E-2</v>
       </c>
       <c r="F86" s="2">
+        <f t="shared" si="2"/>
+        <v>6.2853693268717661E-2</v>
+      </c>
+      <c r="G86" s="20">
         <f t="shared" si="1"/>
-        <v>6.2853693268717661E-2</v>
-      </c>
-      <c r="G86" s="21">
-        <f t="shared" si="2"/>
         <v>2.7111812681067063E-2</v>
       </c>
       <c r="P86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q86">
         <f>Q81+S81*SIN((Q85+Q83)*(PI()/200))</f>
-        <v>64.766319218841218</v>
+        <v>64.766285859645834</v>
       </c>
       <c r="R86">
         <f>Q81+S81*SIN(Q85*(PI()/200))</f>
-        <v>63.184704476811405</v>
+        <v>63.185081030728348</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C87" s="2">
         <f>((W20-W12)^2+(X20-X12)^2)^0.5</f>
@@ -8128,74 +8639,74 @@
         <v>0.15079936694589335</v>
       </c>
       <c r="F87" s="2">
+        <f t="shared" si="2"/>
+        <v>6.63645354943877E-2</v>
+      </c>
+      <c r="G87" s="22">
         <f t="shared" si="1"/>
-        <v>6.63645354943877E-2</v>
-      </c>
-      <c r="G87" s="23">
-        <f t="shared" si="2"/>
         <v>-8.4434831451505654E-2</v>
       </c>
       <c r="P87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q87">
         <f>R81+S81*COS((Q85+Q83)*(PI()/200))</f>
-        <v>18.462259400649806</v>
+        <v>18.460731557749131</v>
       </c>
       <c r="R87">
         <f>R81+S81*COS(Q85*(PI()/200))</f>
-        <v>32.327117013841232</v>
+        <v>32.325635925082011</v>
       </c>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C88" s="2">
         <f>((W13-W12)^2+(X13-X12)^2)^0.5</f>
-        <v>51.518048027759939</v>
+        <v>51.511491701951741</v>
       </c>
       <c r="D88">
         <v>51.52</v>
       </c>
       <c r="E88" s="2">
         <f t="shared" si="3"/>
-        <v>1.9519722400644923E-3</v>
+        <v>8.5082980482624748E-3</v>
       </c>
       <c r="F88" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10802994702376435</v>
+      </c>
+      <c r="G88" s="20">
         <f t="shared" si="1"/>
-        <v>0.10802994702376435</v>
-      </c>
-      <c r="G88" s="21">
-        <f t="shared" si="2"/>
-        <v>0.10607797478369986</v>
+        <v>9.9521648975501878E-2</v>
       </c>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C89" s="2">
         <f>((W13-W22)^2+(X13-X22)^2)^0.5</f>
-        <v>14.463944672597423</v>
+        <v>14.463944672597394</v>
       </c>
       <c r="D89">
         <v>14.51</v>
       </c>
       <c r="E89" s="2">
         <f t="shared" si="3"/>
-        <v>4.6055327402577007E-2</v>
+        <v>4.6055327402605428E-2</v>
       </c>
       <c r="F89" s="2">
+        <f t="shared" si="2"/>
+        <v>6.6277595127585451E-2</v>
+      </c>
+      <c r="G89" s="20">
         <f t="shared" si="1"/>
-        <v>6.6277595127585451E-2</v>
-      </c>
-      <c r="G89" s="21">
-        <f t="shared" si="2"/>
-        <v>2.0222267725008444E-2</v>
+        <v>2.0222267724980023E-2</v>
       </c>
       <c r="I89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J89" s="2">
         <f>((W13-W17)^2+(X13-X17)^2)^0.5</f>
@@ -8210,44 +8721,44 @@
         <v>1.4241501716269092</v>
       </c>
       <c r="P89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q89" t="s">
+        <v>30</v>
+      </c>
+      <c r="R89" t="s">
         <v>31</v>
       </c>
-      <c r="R89" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B90" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C90" s="18">
+      <c r="B90" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" s="17">
         <f>((W17-W22)^2+(X17-X22)^2)^0.5</f>
         <v>10.423474634319176</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="5">
         <v>12.17</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="17">
         <f t="shared" si="3"/>
         <v>1.7465253656808244</v>
       </c>
       <c r="F90" s="2">
+        <f t="shared" si="2"/>
+        <v>6.2776421668019847E-2</v>
+      </c>
+      <c r="G90" s="21">
         <f t="shared" si="1"/>
-        <v>6.2776421668019847E-2</v>
-      </c>
-      <c r="G90" s="22">
-        <f t="shared" si="2"/>
         <v>-1.6837489440128046</v>
       </c>
       <c r="I90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J90" s="2">
         <f>((W18-W22)^2+(X18-X22)^2)^0.5</f>
-        <v>120.85419152962329</v>
+        <v>120.85419152962332</v>
       </c>
       <c r="K90">
         <f>((D91)^2+(D90)^2)^0.5</f>
@@ -8255,10 +8766,10 @@
       </c>
       <c r="L90" s="2">
         <f>K90-J90</f>
-        <v>0.55729433559457675</v>
+        <v>0.55729433559454833</v>
       </c>
       <c r="P90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q90" s="2">
         <f>W11</f>
@@ -8274,7 +8785,7 @@
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C91" s="2">
         <f>((W17-W18)^2+(X17-X18)^2)^0.5</f>
@@ -8288,15 +8799,15 @@
         <v>0.16846454772962716</v>
       </c>
       <c r="F91" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16624724264981816</v>
+      </c>
+      <c r="G91" s="22">
         <f t="shared" si="1"/>
-        <v>0.16624724264981816</v>
-      </c>
-      <c r="G91" s="23">
-        <f t="shared" si="2"/>
         <v>-2.2173050798089955E-3</v>
       </c>
       <c r="P91" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q91" s="2">
         <f>W15</f>
@@ -8315,40 +8826,40 @@
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B92" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C92" s="18">
+      <c r="B92" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" s="17">
         <f>((W24-W18)^2+(X24-X18)^2)^0.5</f>
         <v>13.631096349537373</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="5">
         <v>12.17</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="17">
         <f t="shared" si="3"/>
         <v>-1.4610963495373728</v>
       </c>
       <c r="F92" s="2">
+        <f t="shared" si="2"/>
+        <v>6.2776421668019847E-2</v>
+      </c>
+      <c r="G92" s="21">
         <f t="shared" si="1"/>
-        <v>6.2776421668019847E-2</v>
-      </c>
-      <c r="G92" s="22">
-        <f t="shared" si="2"/>
         <v>-1.398319927869353</v>
       </c>
       <c r="P92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q92">
         <f>ATAN(S91/S90)*(200/PI())</f>
         <v>45.12726318413641</v>
       </c>
       <c r="R92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T92">
         <f>ATAN(S90/S91)*(200/PI())</f>
@@ -8356,30 +8867,30 @@
       </c>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B93" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C93" s="20">
+      <c r="B93" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="19">
         <f>((W24-W14)^2+(X24-X14)^2)^0.5</f>
-        <v>16.797632821087578</v>
-      </c>
-      <c r="D93" s="19">
+        <v>16.797256711713089</v>
+      </c>
+      <c r="D93" s="18">
         <v>14.35</v>
       </c>
-      <c r="E93" s="20">
+      <c r="E93" s="19">
         <f>D93-C93</f>
-        <v>-2.4476328210875788</v>
+        <v>-2.4472567117130897</v>
       </c>
       <c r="F93" s="2">
+        <f t="shared" si="2"/>
+        <v>6.6045115079801292E-2</v>
+      </c>
+      <c r="G93" s="20">
         <f t="shared" si="1"/>
-        <v>6.6045115079801292E-2</v>
-      </c>
-      <c r="G93" s="21">
-        <f t="shared" si="2"/>
-        <v>-2.3815877060077777</v>
+        <v>-2.3812115966332885</v>
       </c>
       <c r="P93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q93">
         <f>Q97+T92</f>
@@ -8387,30 +8898,30 @@
       </c>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B94" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C94" s="13">
+      <c r="B94" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" s="12">
         <f>((W11-W14)^2+(X11-X14)^2)^0.5</f>
+        <v>51.690000000000005</v>
+      </c>
+      <c r="D94" s="11">
         <v>51.69</v>
       </c>
-      <c r="D94" s="12">
-        <v>51.69</v>
-      </c>
-      <c r="E94" s="13">
+      <c r="E94" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F94" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10819260629765981</v>
+      </c>
+      <c r="G94" s="23">
         <f t="shared" si="1"/>
         <v>0.10819260629765981</v>
       </c>
-      <c r="G94" s="24">
-        <f t="shared" si="2"/>
-        <v>0.10819260629765981</v>
-      </c>
       <c r="P94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q94">
         <f>ACOS(R94*(PI()/200))*(200/PI())</f>
@@ -8423,7 +8934,7 @@
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.35">
       <c r="P95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q95">
         <f>Q91+S91*SIN(Q93*(PI()/200))</f>
@@ -8436,7 +8947,7 @@
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.35">
       <c r="P96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q96">
         <f>R91+S91*COS(Q93*(PI()/200))</f>
@@ -8449,7 +8960,7 @@
     </row>
     <row r="97" spans="16:18" x14ac:dyDescent="0.35">
       <c r="P97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q97">
         <f>ACOS(R94*(PI()/200))*(200/PI())+200</f>
@@ -8471,8 +8982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D98FD4-8551-4684-AFF3-F1ED8813F6D1}">
   <dimension ref="A2:AC81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8486,6 +8997,8 @@
     <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.36328125" customWidth="1"/>
     <col min="22" max="22" width="16.26953125" customWidth="1"/>
+    <col min="26" max="26" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.6328125" customWidth="1"/>
     <col min="29" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -8508,23 +9021,23 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="R2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>100</v>
+      <c r="P2" s="4"/>
+      <c r="R2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="V2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
@@ -8541,7 +9054,7 @@
         <v>6380000</v>
       </c>
       <c r="R3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S3">
         <f>S4</f>
@@ -8554,7 +9067,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="O4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P4">
         <v>515</v>
@@ -8568,17 +9081,17 @@
       <c r="T4">
         <v>5334162.2300000004</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>56</v>
+      <c r="V4" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
@@ -8607,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P5">
         <f>S5-32500000</f>
@@ -8622,7 +9135,7 @@
       <c r="T5">
         <v>5335904.7699999996</v>
       </c>
-      <c r="AA5" s="34" t="s">
+      <c r="AA5" s="33" t="s">
         <v>1</v>
       </c>
       <c r="AB5">
@@ -8666,16 +9179,16 @@
         <v>181.90059792833327</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P6">
         <f>((P5^2)/(2*P3^2))-(P4/P3)</f>
         <v>3.6845655011313606E-4</v>
       </c>
       <c r="V6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA6" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA6" s="33" t="s">
         <v>29</v>
       </c>
       <c r="AB6">
@@ -8719,11 +9232,11 @@
         <f>K7*P6+K7-0.0004</f>
         <v>84.882864275190201</v>
       </c>
-      <c r="R7" s="8" t="s">
-        <v>107</v>
+      <c r="R7" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="V7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W7">
         <f>S5-S4</f>
@@ -8733,7 +9246,7 @@
         <f>T5-T4</f>
         <v>1742.5399999991059</v>
       </c>
-      <c r="AA7" s="34" t="s">
+      <c r="AA7" s="33" t="s">
         <v>2</v>
       </c>
       <c r="AB7">
@@ -8759,11 +9272,11 @@
         <f>K8*P6+K8-0.0004</f>
         <v>23.568280836320664</v>
       </c>
-      <c r="R8" s="8" t="s">
-        <v>105</v>
+      <c r="R8" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="V8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W8" s="2">
         <v>0</v>
@@ -8771,7 +9284,7 @@
       <c r="X8">
         <v>1</v>
       </c>
-      <c r="AA8" s="34" t="s">
+      <c r="AA8" s="33" t="s">
         <v>14</v>
       </c>
       <c r="AB8">
@@ -8818,7 +9331,7 @@
         <v>5335937.8688882738</v>
       </c>
       <c r="W9" s="2"/>
-      <c r="AA9" s="34" t="s">
+      <c r="AA9" s="33" t="s">
         <v>3</v>
       </c>
       <c r="AB9">
@@ -8864,7 +9377,7 @@
         <v>5336012.1847437089</v>
       </c>
       <c r="V10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W10" s="2">
         <f>ACOS((W7*W8+X7*X8)/((W7^2+X7^2)^0.5*(X8)^0.5))*(400/PI())</f>
@@ -8909,7 +9422,7 @@
         <v>5335989.3449267028</v>
       </c>
       <c r="V11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W11" s="2">
         <f>W10+200+(I6)</f>
@@ -8930,7 +9443,7 @@
         <v>5335904.7762228288</v>
       </c>
       <c r="V12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W12" s="2">
         <f>200+W11+I32-400-400</f>
@@ -8943,7 +9456,7 @@
       </c>
       <c r="L13" s="2"/>
       <c r="V13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W13" s="2">
         <f>200+W12+(400-I23)-400</f>
@@ -8953,7 +9466,7 @@
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="L14" s="2"/>
       <c r="V14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W14" s="2">
         <f>W13+200+(400-I16)-400</f>
@@ -8992,8 +9505,8 @@
         <f>K15*P6+K15-0.0004</f>
         <v>84.881863906733656</v>
       </c>
-      <c r="R15" s="8" t="s">
-        <v>108</v>
+      <c r="R15" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
@@ -9028,23 +9541,41 @@
         <f>K16*P6+K16-0.0004</f>
         <v>175.26015211375361</v>
       </c>
-      <c r="Q16" s="9" t="s">
-        <v>109</v>
+      <c r="Q16" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="R16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R17" s="2">
         <f>W10+200+C8</f>
         <v>349.1469188424112</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -9075,7 +9606,7 @@
         <v>5335921.2104839645</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -9096,23 +9627,67 @@
       <c r="H19">
         <v>102.843</v>
       </c>
-      <c r="Q19" s="9" t="s">
-        <v>111</v>
+      <c r="Q19" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="R19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" t="s">
+        <v>4</v>
+      </c>
+      <c r="X19">
+        <f>Tabelle1!AH31</f>
+        <v>37.498000000000005</v>
+      </c>
+      <c r="Y19" s="2">
+        <f>L8</f>
+        <v>23.568280836320664</v>
+      </c>
+      <c r="Z19" s="2">
+        <f>S5+Y19*SIN(X19*(PI()/200))</f>
+        <v>32691238.106219634</v>
+      </c>
+      <c r="AA19" s="2">
+        <f>T5+Y19*COS(X19*(PI()/200))</f>
+        <v>5335924.3667206746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="Q20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R20" s="2">
         <f>W11+200+C37-400-400</f>
         <v>73.369918842411153</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>20</v>
+      </c>
+      <c r="X20">
+        <f>Tabelle1!AH32</f>
+        <v>161.721</v>
+      </c>
+      <c r="Y20" s="2">
+        <f>L37</f>
+        <v>15.321243280521532</v>
+      </c>
+      <c r="Z20" s="2">
+        <f>S9+Y20*SIN(X20*(PI()/200))</f>
+        <v>32691054.816378254</v>
+      </c>
+      <c r="AA20" s="2">
+        <f>T9+Y20*COS(X20*(PI()/200))</f>
+        <v>5335925.234848625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -9124,8 +9699,28 @@
         <f>T9+L37*COS(R20*(PI()/200))</f>
         <v>5335944.0925546549</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V21" s="1"/>
+      <c r="W21" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21">
+        <f>Tabelle1!AH33</f>
+        <v>179.49900000000002</v>
+      </c>
+      <c r="Y21" s="2">
+        <f>L36</f>
+        <v>28.520104696243727</v>
+      </c>
+      <c r="Z21" s="2">
+        <f>S9+Y21*SIN(X21*(PI()/200))</f>
+        <v>32691055.17549127</v>
+      </c>
+      <c r="AA21" s="2">
+        <f>T9+Y21*COS(X21*(PI()/200))</f>
+        <v>5335910.8148531914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -9160,8 +9755,30 @@
       <c r="R22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W22" t="s">
+        <v>16</v>
+      </c>
+      <c r="X22">
+        <f>Tabelle1!AH34</f>
+        <v>256.6724999999999</v>
+      </c>
+      <c r="Y22" s="2">
+        <f>L27</f>
+        <v>19.517788955749257</v>
+      </c>
+      <c r="Z22" s="2">
+        <f>S10+Y22*SIN(X22*(PI()/200))</f>
+        <v>32691043.386459783</v>
+      </c>
+      <c r="AA22" s="2">
+        <f>T10+Y22*COS(X22*(PI()/200))</f>
+        <v>5335999.9031910384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -9193,14 +9810,33 @@
         <v>75.344351041984865</v>
       </c>
       <c r="Q23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R23" s="2">
         <f>W11+200+C36-400-400</f>
         <v>91.147918842411173</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W23" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23">
+        <f>Tabelle1!AH35</f>
+        <v>232.17949999999993</v>
+      </c>
+      <c r="Y23" s="2">
+        <f>L28</f>
+        <v>30.568859295258356</v>
+      </c>
+      <c r="Z23" s="2">
+        <f>S10+Y23*SIN(X23*(PI()/200))</f>
+        <v>32691043.753624391</v>
+      </c>
+      <c r="AA23" s="2">
+        <f>T10+Y23*COS(X23*(PI()/200))</f>
+        <v>5335985.4386775214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="L24" s="2"/>
       <c r="S24">
         <f>S9+L36*SIN(R23*(PI()/200))</f>
@@ -9211,7 +9847,7 @@
         <v>5335941.8217898998</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -9235,7 +9871,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -9257,14 +9893,14 @@
         <v>102.212</v>
       </c>
       <c r="L26" s="2"/>
-      <c r="Q26" s="9" t="s">
-        <v>114</v>
+      <c r="Q26" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="R26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -9279,14 +9915,14 @@
         <v>19.517788955749257</v>
       </c>
       <c r="Q27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R27" s="2">
         <f>W12+200+(400-I23+C27)-400</f>
         <v>168.31391884241123</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>17</v>
       </c>
@@ -9309,26 +9945,26 @@
         <v>5335995.0350177083</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="L29" s="2"/>
       <c r="R29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L30" s="2"/>
       <c r="Q30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R30" s="2">
         <f>W12+200+(400-I23+C28)-400</f>
         <v>143.82091884241117</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -9369,7 +10005,7 @@
         <v>5335992.765753055</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -9402,8 +10038,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="P33" s="8" t="s">
-        <v>49</v>
+      <c r="P33" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
@@ -9428,11 +10064,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="P34" s="9" t="s">
-        <v>117</v>
+      <c r="P34" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="Q34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
@@ -9480,7 +10116,7 @@
         <v>28.520104696243727</v>
       </c>
       <c r="Q36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R36" s="2">
         <f>W11-R35</f>
@@ -9502,7 +10138,7 @@
         <v>15.321243280521532</v>
       </c>
       <c r="R37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S37">
         <f>S5+L40*SIN(R36*(PI()/200))</f>
@@ -9515,11 +10151,11 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L38" s="2"/>
-      <c r="P38" s="9" t="s">
+      <c r="P38" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q38" t="s">
         <v>120</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
@@ -9551,7 +10187,7 @@
         <v>115.5051430986457</v>
       </c>
       <c r="Q40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R40" s="2">
         <f>W13-R39</f>
@@ -9573,7 +10209,7 @@
         <v>68.797939862320931</v>
       </c>
       <c r="R41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S41">
         <f>S10+L46*SIN(R40*(PI()/200))</f>
@@ -9613,14 +10249,14 @@
         <f>K43*P6+K43-0.0004</f>
         <v>89.195452691377739</v>
       </c>
-      <c r="P43" s="8" t="s">
-        <v>123</v>
+      <c r="P43" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L44" s="2"/>
-      <c r="Q44" s="9" t="s">
-        <v>124</v>
+      <c r="Q44" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.35">
@@ -9647,7 +10283,7 @@
         <v>114.77887559919033</v>
       </c>
       <c r="Q46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R46" s="2">
         <f>R36+200+C43-400-400</f>
@@ -9710,7 +10346,7 @@
         <v>45.14922954947626</v>
       </c>
       <c r="Q49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R49" s="2">
         <f>R36+200+C42-400</f>
@@ -9748,7 +10384,7 @@
         <v>388.37</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K51">
         <v>90.486999999999995</v>
@@ -9759,18 +10395,18 @@
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="Q52" s="9" t="s">
-        <v>127</v>
+      <c r="Q52" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.35">
       <c r="R53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.35">
       <c r="Q54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R54" s="2">
         <f>R40+200+C48-400</f>
@@ -9789,12 +10425,12 @@
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.35">
       <c r="R56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.35">
       <c r="Q57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R57" s="2">
         <f>R40+200+C49-400</f>
@@ -9813,15 +10449,15 @@
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.35">
       <c r="R59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="D60" s="14" t="s">
-        <v>160</v>
+      <c r="D60" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="Q60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R60" s="2">
         <f>R40+200+C50-400</f>
@@ -9840,13 +10476,13 @@
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s">
         <v>161</v>
-      </c>
-      <c r="D62" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" t="s">
-        <v>162</v>
       </c>
       <c r="R62" t="s">
         <v>17</v>
@@ -9854,10 +10490,10 @@
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.35">
       <c r="G63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R63" s="2">
         <f>R40+200+C51-400</f>
@@ -9866,7 +10502,7 @@
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D64" s="2">
         <f>((T73-T18)^2+(S73-S18)^2)^0.5</f>
@@ -9879,11 +10515,11 @@
         <f t="shared" ref="F64:F70" si="0">E64-D64</f>
         <v>-1.6106156408568495E-9</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G64" s="20">
         <f>0.008*(E64)^0.5+0.0004*E64+0.03</f>
         <v>6.5899337741083003E-2</v>
       </c>
-      <c r="H64" s="21">
+      <c r="H64" s="20">
         <f>G64-ABS(F64)</f>
         <v>6.5899336130467362E-2</v>
       </c>
@@ -9904,36 +10540,36 @@
         <v>5335992.765753055</v>
       </c>
       <c r="W64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C65" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" s="17">
+      <c r="C65" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" s="16">
         <f>((T73-T47)^2+(S73-S47)^2)^0.5</f>
         <v>13.466956755876975</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="15">
         <v>12.22</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="16">
         <f t="shared" si="0"/>
         <v>-1.2469567558769743</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="20">
         <f t="shared" ref="G65:G75" si="1">0.008*(E65)^0.5+0.0004*E65+0.03</f>
         <v>6.2853693268717661E-2</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H65" s="21">
         <f t="shared" ref="H65:H75" si="2">G65-ABS(F65)</f>
         <v>-1.1841030626082567</v>
       </c>
     </row>
     <row r="66" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D66" s="2">
         <f>((S47-S50)^2+(T47-T50)^2)^0.5</f>
@@ -9946,21 +10582,21 @@
         <f t="shared" si="0"/>
         <v>5.9607160052095765E-2</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G66" s="20">
         <f t="shared" si="1"/>
         <v>0.16627016008991771</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H66" s="20">
         <f t="shared" si="2"/>
         <v>0.10666300003782195</v>
       </c>
       <c r="P66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D67" s="2">
         <f>((S24-S50)^2+(T24-T50)^2)^0.5</f>
@@ -9973,18 +10609,18 @@
         <f t="shared" si="0"/>
         <v>-0.14507918236049733</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G67" s="20">
         <f t="shared" si="1"/>
         <v>6.2853693268717661E-2</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H67" s="22">
         <f>G67-ABS(F67)</f>
         <v>-8.2225489091779666E-2</v>
       </c>
     </row>
     <row r="68" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D68" s="2">
         <f>((S24-S21)^2+(T24-T21)^2)^0.5</f>
@@ -9997,21 +10633,21 @@
         <f t="shared" si="0"/>
         <v>0.14553361863046632</v>
       </c>
-      <c r="G68" s="21">
+      <c r="G68" s="20">
         <f t="shared" si="1"/>
         <v>6.63645354943877E-2</v>
       </c>
-      <c r="H68" s="23">
+      <c r="H68" s="22">
         <f>G68-ABS(F68)</f>
         <v>-7.9169083136078622E-2</v>
       </c>
       <c r="P68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D69" s="2">
         <f>((S28-S21)^2+(T28-T21)^2)^0.5</f>
@@ -10024,16 +10660,16 @@
         <f t="shared" si="0"/>
         <v>-4.8094051483857925E-3</v>
       </c>
-      <c r="G69" s="21">
+      <c r="G69" s="20">
         <f t="shared" si="1"/>
         <v>0.10802994702376435</v>
       </c>
-      <c r="H69" s="21">
+      <c r="H69" s="20">
         <f>G69-ABS(F69)</f>
         <v>0.10322054187537856</v>
       </c>
       <c r="P69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q69">
         <v>14.25</v>
@@ -10041,7 +10677,7 @@
     </row>
     <row r="70" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D70" s="2">
         <f>((S28-S31)^2+(T28-T31)^2)^0.5</f>
@@ -10054,16 +10690,16 @@
         <f t="shared" si="0"/>
         <v>4.0827210817905524E-2</v>
       </c>
-      <c r="G70" s="21">
+      <c r="G70" s="20">
         <f t="shared" si="1"/>
         <v>6.6277595127585451E-2</v>
       </c>
-      <c r="H70" s="21">
+      <c r="H70" s="20">
         <f>G70-ABS(F70)</f>
         <v>2.5450384309679927E-2</v>
       </c>
       <c r="P70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q70">
         <f>12.22</f>
@@ -10071,30 +10707,30 @@
       </c>
     </row>
     <row r="71" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C71" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="13">
+      <c r="C71" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="12">
         <f>((S61-S31)^2+(T61-T31)^2)^0.5</f>
         <v>12.157753691142897</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="11">
         <v>12.17</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="12">
         <f t="shared" ref="F71:F75" si="3">E71-D71</f>
         <v>1.2246308857102761E-2</v>
       </c>
-      <c r="G71" s="21">
+      <c r="G71" s="20">
         <f t="shared" si="1"/>
         <v>6.2776421668019847E-2</v>
       </c>
-      <c r="H71" s="24">
+      <c r="H71" s="23">
         <f t="shared" si="2"/>
         <v>5.0530112810917086E-2</v>
       </c>
       <c r="P71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q71">
         <f>ATAN(Q70/Q69)*(200/PI())</f>
@@ -10102,33 +10738,33 @@
       </c>
     </row>
     <row r="72" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C72" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D72" s="13">
+      <c r="C72" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="12">
         <f>((S61-S58)^2+(T61-T58)^2)^0.5</f>
         <v>120.67531893781634</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="11">
         <v>120.8</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72" s="12">
         <f>E72-D72</f>
         <v>0.12468106218365449</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G72" s="20">
         <f t="shared" si="1"/>
         <v>0.16624724264981816</v>
       </c>
-      <c r="H72" s="24">
+      <c r="H72" s="23">
         <f t="shared" si="2"/>
         <v>4.1566180466163671E-2</v>
       </c>
       <c r="P72" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q72" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="R72" s="2">
         <f>R17-Q71</f>
@@ -10136,25 +10772,25 @@
       </c>
     </row>
     <row r="73" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C73" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D73" s="13">
+      <c r="C73" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" s="12">
         <f>((S55-S58)^2+(T55-T58)^2)^0.5</f>
         <v>12.218626518699654</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="11">
         <v>12.17</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="12">
         <f t="shared" si="3"/>
         <v>-4.8626518699654397E-2</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="20">
         <f t="shared" si="1"/>
         <v>6.2776421668019847E-2</v>
       </c>
-      <c r="H73" s="24">
+      <c r="H73" s="23">
         <f t="shared" si="2"/>
         <v>1.4149902968365449E-2</v>
       </c>
@@ -10168,59 +10804,59 @@
       </c>
     </row>
     <row r="74" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C74" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D74" s="20">
+      <c r="C74" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="19">
         <f>((S55-S81)^2+(T55-T81)^2)^0.5</f>
         <v>21.407167522749091</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="18">
         <v>14.35</v>
       </c>
-      <c r="F74" s="20">
+      <c r="F74" s="19">
         <f>E74-D74</f>
         <v>-7.0571675227490918</v>
       </c>
-      <c r="G74" s="21">
+      <c r="G74" s="20">
         <f t="shared" si="1"/>
         <v>6.6045115079801292E-2</v>
       </c>
-      <c r="H74" s="22">
+      <c r="H74" s="21">
         <f t="shared" si="2"/>
         <v>-6.9911224076692902</v>
       </c>
     </row>
     <row r="75" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="C75" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D75" s="20">
+      <c r="C75" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75" s="19">
         <f>((S18-S81)^2+(T18-T81)^2)^0.5</f>
         <v>41.420295825666322</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E75" s="18">
         <v>51.69</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="17">
         <f t="shared" si="3"/>
         <v>10.269704174333675</v>
       </c>
-      <c r="G75" s="21">
+      <c r="G75" s="20">
         <f t="shared" si="1"/>
         <v>0.10819260629765981</v>
       </c>
-      <c r="H75" s="22">
+      <c r="H75" s="21">
         <f t="shared" si="2"/>
         <v>-10.161511568036016</v>
       </c>
       <c r="P75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q76">
         <v>14.35</v>
@@ -10228,7 +10864,7 @@
     </row>
     <row r="77" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q77">
         <v>12.17</v>
@@ -10236,7 +10872,7 @@
     </row>
     <row r="78" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q78">
         <f>ATAN(Q76/Q77)*(200/PI())</f>
@@ -10245,10 +10881,10 @@
     </row>
     <row r="79" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P79" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q79" t="s">
         <v>140</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>141</v>
       </c>
       <c r="R79" s="2">
         <f>R57-Q78</f>
@@ -10257,7 +10893,7 @@
     </row>
     <row r="80" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q80">
         <f>(Q76^2+Q77^2)^0.5</f>
@@ -10285,8 +10921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A131327-E1C9-4DF2-884D-F315D8715444}">
   <dimension ref="A2:AC81"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17:AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10298,6 +10934,7 @@
     <col min="17" max="17" width="16.08984375" customWidth="1"/>
     <col min="21" max="21" width="15.36328125" customWidth="1"/>
     <col min="22" max="22" width="16.26953125" customWidth="1"/>
+    <col min="26" max="27" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
@@ -10318,23 +10955,23 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="4"/>
+      <c r="R2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="R2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>100</v>
+      <c r="T2" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="V2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
@@ -10351,7 +10988,7 @@
         <v>6380000</v>
       </c>
       <c r="R3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S3">
         <f>S4</f>
@@ -10364,7 +11001,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="O4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P4">
         <v>515</v>
@@ -10378,17 +11015,17 @@
       <c r="T4">
         <v>5334162.2300000004</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>56</v>
+      <c r="V4" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
@@ -10417,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P5">
         <f>S5-4500000</f>
@@ -10432,7 +11069,7 @@
       <c r="T5">
         <v>5334489.3499999996</v>
       </c>
-      <c r="AA5" s="34" t="s">
+      <c r="AA5" s="33" t="s">
         <v>1</v>
       </c>
       <c r="AB5">
@@ -10476,16 +11113,16 @@
         <v>181.82158385404369</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" s="4">
+        <v>93</v>
+      </c>
+      <c r="P6" s="3">
         <f>((P5^2)/(2*P3^2))-(P4/P3)</f>
         <v>-6.828286215076401E-5</v>
       </c>
       <c r="V6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA6" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA6" s="33" t="s">
         <v>29</v>
       </c>
       <c r="AB6">
@@ -10529,11 +11166,11 @@
         <f>K7*P6+K7</f>
         <v>84.846206062580791</v>
       </c>
-      <c r="R7" s="8" t="s">
-        <v>107</v>
+      <c r="R7" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="V7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W7">
         <f>S5-S4</f>
@@ -10543,7 +11180,7 @@
         <f>T5-T4</f>
         <v>327.11999999918044</v>
       </c>
-      <c r="AA7" s="34" t="s">
+      <c r="AA7" s="33" t="s">
         <v>2</v>
       </c>
       <c r="AB7">
@@ -10569,11 +11206,11 @@
         <f>K8*P6+K8</f>
         <v>23.558391255767727</v>
       </c>
-      <c r="R8" s="8" t="s">
-        <v>105</v>
+      <c r="R8" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="V8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W8" s="2">
         <v>0</v>
@@ -10581,7 +11218,7 @@
       <c r="X8">
         <v>1</v>
       </c>
-      <c r="AA8" s="34" t="s">
+      <c r="AA8" s="33" t="s">
         <v>14</v>
       </c>
       <c r="AB8">
@@ -10628,7 +11265,7 @@
         <v>5334522.4345107619</v>
       </c>
       <c r="W9" s="2"/>
-      <c r="AA9" s="34" t="s">
+      <c r="AA9" s="33" t="s">
         <v>3</v>
       </c>
       <c r="AB9">
@@ -10674,7 +11311,7 @@
         <v>5334596.7183158556</v>
       </c>
       <c r="V10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W10" s="2">
         <f>UTM_KOORDS!W10</f>
@@ -10719,7 +11356,7 @@
         <v>5334573.8884181203</v>
       </c>
       <c r="V11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W11" s="2">
         <f>W10+200+(I6)</f>
@@ -10740,7 +11377,7 @@
         <v>5334489.3562367829</v>
       </c>
       <c r="V12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W12" s="2">
         <f>200+W11+I32-400-400</f>
@@ -10753,7 +11390,7 @@
       </c>
       <c r="L13" s="2"/>
       <c r="V13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W13" s="2">
         <f>200+W12+(400-I23)-400</f>
@@ -10763,7 +11400,7 @@
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="L14" s="2"/>
       <c r="V14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W14" s="2">
         <f>W13+200+(400-I16)-400</f>
@@ -10802,8 +11439,8 @@
         <f>K15*P6+K15</f>
         <v>84.845206130863644</v>
       </c>
-      <c r="R15" s="8" t="s">
-        <v>108</v>
+      <c r="R15" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
@@ -10838,23 +11475,44 @@
         <f>K16*P6+K16</f>
         <v>175.18403711568263</v>
       </c>
-      <c r="Q16" s="9" t="s">
-        <v>109</v>
+      <c r="Q16" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="R16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R17" s="2">
         <f>W10+200+C8</f>
         <v>349.1469188424112</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -10885,7 +11543,7 @@
         <v>5334505.7835853081</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -10906,23 +11564,75 @@
       <c r="H19">
         <v>102.843</v>
       </c>
-      <c r="Q19" s="9" t="s">
-        <v>111</v>
+      <c r="Q19" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="R19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" t="s">
+        <v>4</v>
+      </c>
+      <c r="X19">
+        <f>Tabelle1!AH31</f>
+        <v>37.498000000000005</v>
+      </c>
+      <c r="Y19" s="2">
+        <f>L8</f>
+        <v>23.558391255767727</v>
+      </c>
+      <c r="Z19" s="2">
+        <f>S5+Y19*SIN(X19*(PI()/200))</f>
+        <v>4468192.1177255353</v>
+      </c>
+      <c r="AA19" s="2">
+        <f>T5+Y19*COS(X19*(PI()/200))</f>
+        <v>5334508.938497616</v>
+      </c>
+      <c r="AB19" s="2">
+        <f>((Z19-S5)^2+(AA19-T5)^2)^0.5</f>
+        <v>23.558391255478075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="Q20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R20" s="2">
         <f>W11+200+C37-400-400</f>
         <v>73.369918842411153</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>20</v>
+      </c>
+      <c r="X20">
+        <f>Tabelle1!AH32</f>
+        <v>161.721</v>
+      </c>
+      <c r="Y20" s="2">
+        <f>L37</f>
+        <v>15.3149541796833</v>
+      </c>
+      <c r="Z20" s="2">
+        <f>S9+Y20*SIN(X20*(PI()/200))</f>
+        <v>4468008.9075154802</v>
+      </c>
+      <c r="AA20" s="2">
+        <f>T9+Y20*COS(X20*(PI()/200))</f>
+        <v>5334509.8056571642</v>
+      </c>
+      <c r="AB20" s="2" t="e">
+        <f>((Z20-#REF!)^2+(AA20-#REF!)^2)^0.5</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -10934,8 +11644,32 @@
         <f>T9+L37*COS(R20*(PI()/200))</f>
         <v>5334528.6556224376</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V21" s="1"/>
+      <c r="W21" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21">
+        <f>Tabelle1!AH33</f>
+        <v>179.49900000000002</v>
+      </c>
+      <c r="Y21" s="2">
+        <f>L36</f>
+        <v>28.508053255600082</v>
+      </c>
+      <c r="Z21" s="2">
+        <f>S9+Y21*SIN(X21*(PI()/200))</f>
+        <v>4468009.2663720753</v>
+      </c>
+      <c r="AA21" s="2">
+        <f>T9+Y21*COS(X21*(PI()/200))</f>
+        <v>5334495.3919076184</v>
+      </c>
+      <c r="AB21" t="e">
+        <f>((Z21-#REF!)^2+(AA21-#REF!)^2)^0.5</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -10970,8 +11704,34 @@
       <c r="R22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W22" t="s">
+        <v>16</v>
+      </c>
+      <c r="X22">
+        <f>Tabelle1!AH34</f>
+        <v>256.6724999999999</v>
+      </c>
+      <c r="Y22" s="2">
+        <f>L27</f>
+        <v>19.509667733076576</v>
+      </c>
+      <c r="Z22" s="2">
+        <f>S10+Y22*SIN(X22*(PI()/200))</f>
+        <v>4467997.4821159774</v>
+      </c>
+      <c r="AA22" s="2">
+        <f>T10+Y22*COS(X22*(PI()/200))</f>
+        <v>5334584.4418734582</v>
+      </c>
+      <c r="AB22" t="e">
+        <f>((Z22-#REF!)^2+(AA22-#REF!)^2)^0.5</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -11003,14 +11763,37 @@
         <v>75.311857139671389</v>
       </c>
       <c r="Q23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R23" s="2">
         <f>W11+200+C36-400-400</f>
         <v>91.147918842411173</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W23" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23">
+        <f>Tabelle1!AH35</f>
+        <v>232.17949999999993</v>
+      </c>
+      <c r="Y23" s="2">
+        <f>L28</f>
+        <v>30.555913412298398</v>
+      </c>
+      <c r="Z23" s="2">
+        <f>S10+Y23*SIN(X23*(PI()/200))</f>
+        <v>4467997.8492374308</v>
+      </c>
+      <c r="AA23" s="2">
+        <f>T10+Y23*COS(X23*(PI()/200))</f>
+        <v>5334569.9835766023</v>
+      </c>
+      <c r="AB23" s="2" t="e">
+        <f>((Z23-#REF!)^2+(AA23-#REF!)^2)^0.5</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="L24" s="2"/>
       <c r="S24">
         <f>S9+L36*SIN(R23*(PI()/200))</f>
@@ -11021,7 +11804,7 @@
         <v>5334526.3857420525</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -11045,7 +11828,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -11067,14 +11850,14 @@
         <v>102.212</v>
       </c>
       <c r="L26" s="2"/>
-      <c r="Q26" s="9" t="s">
-        <v>114</v>
+      <c r="Q26" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="R26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -11089,14 +11872,14 @@
         <v>19.509667733076576</v>
       </c>
       <c r="Q27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R27" s="2">
         <f>W12+200+(400-I23+C27)-400</f>
         <v>168.31391884241123</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>17</v>
       </c>
@@ -11119,26 +11902,26 @@
         <v>5334579.5757257426</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="L29" s="2"/>
       <c r="R29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L30" s="2"/>
       <c r="Q30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R30" s="2">
         <f>W12+200+(400-I23+C28)-400</f>
         <v>143.82091884241117</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -11179,7 +11962,7 @@
         <v>5334577.3075491264</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -11212,8 +11995,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="P33" s="8" t="s">
-        <v>49</v>
+      <c r="P33" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
@@ -11238,11 +12021,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="P34" s="9" t="s">
-        <v>117</v>
+      <c r="P34" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="Q34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
@@ -11290,7 +12073,7 @@
         <v>28.508053255600082</v>
       </c>
       <c r="Q36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R36" s="2">
         <f>W11-R35</f>
@@ -11312,7 +12095,7 @@
         <v>15.3149541796833</v>
       </c>
       <c r="R37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S37">
         <f>S5+L40*SIN(R36*(PI()/200))</f>
@@ -11325,11 +12108,11 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L38" s="2"/>
-      <c r="P38" s="9" t="s">
+      <c r="P38" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q38" t="s">
         <v>120</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
@@ -11361,7 +12144,7 @@
         <v>115.45511585588748</v>
       </c>
       <c r="Q40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R40" s="2">
         <f>W13-R39</f>
@@ -11383,7 +12166,7 @@
         <v>68.768303982721307</v>
       </c>
       <c r="R41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S41">
         <f>S10+L46*SIN(R40*(PI()/200))</f>
@@ -11423,14 +12206,14 @@
         <f>K43*P6+K43</f>
         <v>89.156911695162052</v>
       </c>
-      <c r="P43" s="8" t="s">
-        <v>123</v>
+      <c r="P43" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="L44" s="2"/>
-      <c r="Q44" s="9" t="s">
-        <v>124</v>
+      <c r="Q44" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.35">
@@ -11457,7 +12240,7 @@
         <v>114.7291654292454</v>
       </c>
       <c r="Q46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R46" s="2">
         <f>R36+200+C43-400-400</f>
@@ -11520,7 +12303,7 @@
         <v>45.129918189582554</v>
       </c>
       <c r="Q49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R49" s="2">
         <f>R36+200+C42-400</f>
@@ -11558,7 +12341,7 @@
         <v>388.37</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K51">
         <v>90.486999999999995</v>
@@ -11569,18 +12352,18 @@
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="Q52" s="9" t="s">
-        <v>127</v>
+      <c r="Q52" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.35">
       <c r="R53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.35">
       <c r="Q54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R54" s="2">
         <f>R40+200+C48-400</f>
@@ -11599,12 +12382,12 @@
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.35">
       <c r="R56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.35">
       <c r="Q57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R57" s="2">
         <f>R40+200+C49-400</f>
@@ -11623,15 +12406,15 @@
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.35">
       <c r="R59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.35">
       <c r="D60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R60" s="2">
         <f>R40+200+C50-400</f>
@@ -11650,13 +12433,13 @@
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s">
         <v>161</v>
-      </c>
-      <c r="D62" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" t="s">
-        <v>162</v>
       </c>
       <c r="R62" t="s">
         <v>17</v>
@@ -11664,10 +12447,10 @@
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.35">
       <c r="H63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R63" s="2">
         <f>R40+200+C51-400</f>
@@ -11676,7 +12459,7 @@
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D64" s="2">
         <f>((T73-T18)^2+(S73-S18)^2)^0.5</f>
@@ -11718,12 +12501,12 @@
         <v>5334577.3075491264</v>
       </c>
       <c r="W64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D65" s="2">
         <f>((T73-T47)^2+(S73-S47)^2)^0.5</f>
@@ -11744,14 +12527,14 @@
         <f t="shared" si="0"/>
         <v>6.2853693268717661E-2</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="10">
         <f t="shared" ref="I65:I75" si="2">H65-ABS(G65)</f>
         <v>-1.1793637624049413</v>
       </c>
     </row>
     <row r="66" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D66" s="2">
         <f>((S47-S50)^2+(T47-T50)^2)^0.5</f>
@@ -11777,12 +12560,12 @@
         <v>6.2845009727988926E-2</v>
       </c>
       <c r="P66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D67" s="2">
         <f>((S24-S50)^2+(T24-T50)^2)^0.5</f>
@@ -11803,14 +12586,14 @@
         <f t="shared" si="0"/>
         <v>6.2853693268717661E-2</v>
       </c>
-      <c r="I67" s="25">
+      <c r="I67" s="24">
         <f>H67-ABS(G67)</f>
         <v>-7.7697052612293691E-2</v>
       </c>
     </row>
     <row r="68" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D68" s="2">
         <f>((S24-S21)^2+(T24-T21)^2)^0.5</f>
@@ -11831,17 +12614,17 @@
         <f t="shared" si="0"/>
         <v>6.63645354943877E-2</v>
       </c>
-      <c r="I68" s="25">
+      <c r="I68" s="24">
         <f>H68-ABS(G68)</f>
         <v>-8.4424534983914223E-2</v>
       </c>
       <c r="P68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D69" s="2">
         <f>((S28-S21)^2+(T28-T21)^2)^0.5</f>
@@ -11867,7 +12650,7 @@
         <v>9.3728360873880492E-2</v>
       </c>
       <c r="P69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q69">
         <v>14.25</v>
@@ -11875,7 +12658,7 @@
     </row>
     <row r="70" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D70" s="2">
         <f>((S28-S31)^2+(T28-T31)^2)^0.5</f>
@@ -11901,7 +12684,7 @@
         <v>2.0225413032862613E-2</v>
       </c>
       <c r="P70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q70">
         <f>12.22</f>
@@ -11910,7 +12693,7 @@
     </row>
     <row r="71" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D71" s="2">
         <f>((S61-S31)^2+(T61-T31)^2)^0.5</f>
@@ -11936,7 +12719,7 @@
         <v>4.5965095603277842E-2</v>
       </c>
       <c r="P71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q71">
         <f>ATAN(Q70/Q69)*(200/PI())</f>
@@ -11945,7 +12728,7 @@
     </row>
     <row r="72" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D72" s="2">
         <f>((S61-S58)^2+(T61-T58)^2)^0.5</f>
@@ -11966,15 +12749,15 @@
         <f t="shared" si="0"/>
         <v>0.16624724264981816</v>
       </c>
-      <c r="I72" s="26">
+      <c r="I72" s="25">
         <f t="shared" si="2"/>
         <v>-2.2058021055061383E-3</v>
       </c>
       <c r="P72" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q72" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="R72" s="2">
         <f>R17-Q71</f>
@@ -11983,7 +12766,7 @@
     </row>
     <row r="73" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D73" s="2">
         <f>((S55-S58)^2+(T55-T58)^2)^0.5</f>
@@ -12019,7 +12802,7 @@
     </row>
     <row r="74" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D74" s="2">
         <f>((S55-S81)^2+(T55-T81)^2)^0.5</f>
@@ -12040,14 +12823,14 @@
         <f t="shared" si="0"/>
         <v>6.6045115079801292E-2</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I74" s="10">
         <f t="shared" si="2"/>
         <v>-6.9895038807367671</v>
       </c>
     </row>
     <row r="75" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D75" s="2">
         <f>((S18-S81)^2+(T18-T81)^2)^0.5</f>
@@ -12068,17 +12851,17 @@
         <f t="shared" si="0"/>
         <v>0.10819260629765981</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="10">
         <f t="shared" si="2"/>
         <v>-10.174460197452721</v>
       </c>
       <c r="P75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q76">
         <v>14.35</v>
@@ -12086,7 +12869,7 @@
     </row>
     <row r="77" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q77">
         <v>12.17</v>
@@ -12094,7 +12877,7 @@
     </row>
     <row r="78" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q78">
         <f>ATAN(Q76/Q77)*(200/PI())</f>
@@ -12103,10 +12886,10 @@
     </row>
     <row r="79" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P79" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q79" t="s">
         <v>140</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>141</v>
       </c>
       <c r="R79" s="2">
         <f>R57-Q78</f>
@@ -12115,7 +12898,7 @@
     </row>
     <row r="80" spans="3:20" x14ac:dyDescent="0.35">
       <c r="P80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q80">
         <f>(Q76^2+Q77^2)^0.5</f>
